--- a/Docs/MapLab3D_doc.xlsx
+++ b/Docs/MapLab3D_doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Projekte\MapLab3D\SourceCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Projekte\MapLab3D\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03516D5D-5351-4166-BDD8-14F671695BE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1070F7E-859F-4796-8F0C-538F8E417F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3090" windowHeight="930" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3090" windowHeight="930" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GV" sheetId="8" r:id="rId1"/>
@@ -10314,36 +10314,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="112.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="112.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="59" t="s">
         <v>1223</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>171</v>
       </c>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1221</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>596</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>1033</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>275</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>276</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>267</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>1211</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>396</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>397</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>185</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>210</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>1214</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>1175</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>1061</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -10595,7 +10595,7 @@
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1064</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>339</v>
       </c>
@@ -10617,7 +10617,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>349</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>1217</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1230</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>324</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>336</v>
       </c>
@@ -10670,7 +10670,7 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>337</v>
       </c>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>325</v>
       </c>
@@ -10688,7 +10688,7 @@
       </c>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>326</v>
       </c>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>327</v>
       </c>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -10735,7 +10735,7 @@
       </c>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>331</v>
       </c>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>332</v>
       </c>
@@ -10753,7 +10753,7 @@
       </c>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>333</v>
       </c>
@@ -10762,7 +10762,7 @@
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>353</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>362</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>363</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>380</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>400</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>404</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>440</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>471</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>472</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>528</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>530</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>484</v>
       </c>
@@ -10905,7 +10905,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>1147</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>504</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>503</v>
       </c>
@@ -10938,7 +10938,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>507</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>524</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>619</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>543</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>544</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>546</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1039</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1040</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>1041</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>1042</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>1043</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>548</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>549</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>550</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>551</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>559</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>558</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1050</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1051</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>1052</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>564</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>560</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>562</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="36" t="s">
         <v>1151</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>566</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>579</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1202</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>1203</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>1231</v>
       </c>
@@ -11257,7 +11257,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1205</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>1206</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>1207</v>
       </c>
@@ -11290,7 +11290,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>1209</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>601</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>743</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>604</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>605</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>607</v>
       </c>
@@ -11356,7 +11356,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>610</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>737</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>740</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>785</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>1219</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>1226</v>
       </c>
@@ -11422,25 +11422,25 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="23" t="s">
         <v>387</v>
       </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="23" t="s">
         <v>388</v>
       </c>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
         <v>1035</v>
       </c>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>568</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>569</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>181</v>
       </c>
@@ -11464,7 +11464,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>1036</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>1177</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>1179</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>180</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>288</v>
       </c>
@@ -11504,12 +11504,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="23" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>488</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="36" t="s">
         <v>455</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="36" t="s">
         <v>460</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="36" t="s">
         <v>457</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="36" t="s">
         <v>456</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="36" t="s">
         <v>454</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="36" t="s">
         <v>458</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="36" t="s">
         <v>459</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="36" t="s">
         <v>517</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="36" t="s">
         <v>520</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="36" t="s">
         <v>521</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="36" t="s">
         <v>522</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="36" t="s">
         <v>1219</v>
       </c>
@@ -11666,23 +11666,23 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="112.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="112.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>1225</v>
       </c>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="C3" s="23"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>300</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>338</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>462</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>390</v>
       </c>
@@ -11845,7 +11845,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>419</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>425</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>426</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>430</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>436</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>437</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>438</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>489</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>433</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>434</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>435</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>490</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>464</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>498</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>499</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>728</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>729</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>730</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1056</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1057</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>609</v>
       </c>
@@ -12109,13 +12109,13 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="1" max="5" width="3.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="59" t="s">
         <v>1223</v>
       </c>
@@ -12132,22 +12132,22 @@
       <c r="L1" s="59"/>
       <c r="M1" s="59"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>236</v>
       </c>
@@ -12155,17 +12155,17 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>239</v>
       </c>
@@ -12173,17 +12173,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>239</v>
       </c>
@@ -12191,42 +12191,42 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G16" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="G17" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="G18" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>241</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>242</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>378</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>384</v>
       </c>
@@ -12258,17 +12258,17 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>393</v>
       </c>
@@ -12281,7 +12281,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="G27" t="s">
         <v>394</v>
       </c>
@@ -12291,7 +12291,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>246</v>
       </c>
@@ -12299,132 +12299,132 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="G29" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
         <v>582</v>
       </c>
@@ -12432,12 +12432,12 @@
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G55" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
         <v>585</v>
       </c>
@@ -12445,12 +12445,12 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G57" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>583</v>
       </c>
@@ -12458,12 +12458,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G59" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
         <v>586</v>
       </c>
@@ -12471,12 +12471,12 @@
         <v>591</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>584</v>
       </c>
@@ -12484,12 +12484,12 @@
         <v>590</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
       <c r="G63" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
         <v>587</v>
       </c>
@@ -12497,12 +12497,12 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.35">
       <c r="G65" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>251</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>256</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
         <v>253</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
         <v>257</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
         <v>237</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>341</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>342</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>343</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C74" t="s">
         <v>344</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
         <v>373</v>
       </c>
@@ -12598,18 +12598,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="99.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="99.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="58" t="s">
         <v>1223</v>
       </c>
@@ -12621,16 +12621,16 @@
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>200</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>201</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>202</v>
       </c>
@@ -12654,17 +12654,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>203</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>204</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>205</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>206</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>208</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>470</v>
       </c>
@@ -12712,12 +12712,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>476</v>
       </c>
@@ -12725,17 +12725,17 @@
         <v>478</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>480</v>
       </c>
@@ -12743,17 +12743,17 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B24" s="39" t="s">
         <v>306</v>
       </c>
@@ -12761,7 +12761,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>509</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B26" s="39" t="s">
         <v>307</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" s="39" t="s">
         <v>308</v>
       </c>
@@ -12788,12 +12788,12 @@
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" s="39" t="s">
         <v>527</v>
       </c>
@@ -12804,27 +12804,27 @@
         <v>533</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>572</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>537</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>534</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>535</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>540</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>542</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>310</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>311</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>312</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>320</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>317</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>355</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>734</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>1163</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>752</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>753</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>754</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>755</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C53" t="s">
         <v>756</v>
       </c>
@@ -12991,12 +12991,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>745</v>
       </c>
@@ -13004,12 +13004,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>316</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>319</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>747</v>
       </c>
@@ -13033,12 +13033,12 @@
         <v>748</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="23"/>
       <c r="B61" t="s">
         <v>1141</v>
@@ -13047,7 +13047,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="23"/>
       <c r="B62" t="s">
         <v>1134</v>
@@ -13056,7 +13056,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="23"/>
       <c r="B63" t="s">
         <v>1136</v>
@@ -13065,7 +13065,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="23"/>
       <c r="B64" t="s">
         <v>1144</v>
@@ -13074,7 +13074,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="23"/>
       <c r="B65" t="s">
         <v>1137</v>
@@ -13083,7 +13083,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="23"/>
       <c r="B66" t="s">
         <v>1139</v>
@@ -13092,13 +13092,13 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="23"/>
       <c r="C67" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>1129</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>1130</v>
       </c>
@@ -13114,12 +13114,12 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="23" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="23"/>
       <c r="B71" t="s">
         <v>1183</v>
@@ -13128,19 +13128,19 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="23"/>
       <c r="B72" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="23"/>
       <c r="B73" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="23"/>
       <c r="B74" t="s">
         <v>1186</v>
@@ -13149,19 +13149,19 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="23"/>
       <c r="B75" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="23"/>
       <c r="B76" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="23"/>
       <c r="B77" t="s">
         <v>1189</v>
@@ -13170,24 +13170,24 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="23"/>
       <c r="B78" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="23"/>
       <c r="B79" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="23" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>513</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>514</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>515</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>746</v>
       </c>
@@ -13219,12 +13219,12 @@
         <v>761</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="23" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>766</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
         <v>769</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E88" t="s">
         <v>771</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E89" t="s">
         <v>772</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E90" t="s">
         <v>774</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E91" t="s">
         <v>776</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E92" t="s">
         <v>777</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E93" t="s">
         <v>778</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E94" t="s">
         <v>779</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E95" t="s">
         <v>780</v>
       </c>
@@ -13307,7 +13307,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E96" t="s">
         <v>782</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>784</v>
       </c>
@@ -13337,24 +13337,24 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="3.7109375" style="43" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="43" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="43"/>
-    <col min="7" max="7" width="20.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" style="43" customWidth="1"/>
-    <col min="9" max="13" width="3.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="24.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="63.140625" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="4" width="3.7265625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="43" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="43"/>
+    <col min="7" max="7" width="20.26953125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="1.81640625" style="43" customWidth="1"/>
+    <col min="9" max="13" width="3.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7.54296875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="24.7265625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="20.26953125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="17.7265625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="21.26953125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="63.1796875" style="6" customWidth="1"/>
+    <col min="20" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" customFormat="1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="58" t="s">
         <v>1223</v>
       </c>
@@ -13374,7 +13374,7 @@
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
     </row>
-    <row r="2" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1115</v>
       </c>
@@ -13383,7 +13383,7 @@
       <c r="P2" s="5"/>
       <c r="S2" s="56"/>
     </row>
-    <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1116</v>
       </c>
@@ -13392,13 +13392,13 @@
       <c r="P3" s="5"/>
       <c r="S3" s="56"/>
     </row>
-    <row r="4" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="G4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="S4" s="56"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -13417,7 +13417,7 @@
       <c r="O5" s="47"/>
       <c r="P5" s="47"/>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A6" s="53" t="s">
         <v>366</v>
       </c>
@@ -13439,7 +13439,7 @@
       <c r="P6" s="48"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
         <v>367</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="52" t="s">
         <v>368</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>1065</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="51" t="s">
         <v>1080</v>
       </c>
@@ -13533,7 +13533,7 @@
       <c r="O10" s="47"/>
       <c r="P10" s="50"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="G11" s="12"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>184</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="11"/>
       <c r="D13" s="11"/>
@@ -13584,7 +13584,7 @@
       <c r="O13" s="14"/>
       <c r="P13" s="12"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="D14" s="11"/>
@@ -13600,7 +13600,7 @@
       <c r="O14" s="14"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="11"/>
       <c r="D15" s="11"/>
@@ -13616,7 +13616,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="D16" s="11"/>
@@ -13632,7 +13632,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="12"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="11"/>
       <c r="D17" s="11"/>
@@ -13651,7 +13651,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
       <c r="D18" s="11"/>
@@ -13667,7 +13667,7 @@
       <c r="O18" s="14"/>
       <c r="P18" s="12"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="11"/>
       <c r="D19" s="11"/>
@@ -13683,7 +13683,7 @@
       <c r="O19" s="14"/>
       <c r="P19" s="12"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
       <c r="D20" s="11"/>
@@ -13699,7 +13699,7 @@
       <c r="O20" s="14"/>
       <c r="P20" s="12"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="11"/>
       <c r="D21" s="11"/>
@@ -13715,7 +13715,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="12"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
       <c r="D22" s="11"/>
@@ -13731,7 +13731,7 @@
       <c r="O22" s="14"/>
       <c r="P22" s="12"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="11"/>
       <c r="D23" s="11"/>
@@ -13747,7 +13747,7 @@
       <c r="O23" s="14"/>
       <c r="P23" s="12"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
       <c r="D24" s="11"/>
@@ -13763,7 +13763,7 @@
       <c r="O24" s="14"/>
       <c r="P24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="9"/>
       <c r="B25" s="11"/>
       <c r="D25" s="11"/>
@@ -13779,7 +13779,7 @@
       <c r="O25" s="14"/>
       <c r="P25" s="12"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="11"/>
       <c r="D26" s="11"/>
@@ -13795,7 +13795,7 @@
       <c r="O26" s="14"/>
       <c r="P26" s="12"/>
     </row>
-    <row r="27" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="11"/>
       <c r="D27" s="11"/>
@@ -13810,7 +13810,7 @@
       <c r="P27" s="12"/>
       <c r="S27" s="56"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="11"/>
       <c r="D28" s="11"/>
@@ -13829,7 +13829,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="11"/>
       <c r="D29" s="11"/>
@@ -13845,7 +13845,7 @@
       <c r="O29" s="14"/>
       <c r="P29" s="12"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="11"/>
       <c r="D30" s="11"/>
@@ -13862,7 +13862,7 @@
       <c r="P30" s="12"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="11"/>
       <c r="D31" s="11"/>
@@ -13879,7 +13879,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="11"/>
       <c r="D32" s="11"/>
@@ -13894,7 +13894,7 @@
       <c r="P32" s="12"/>
       <c r="S32" s="56"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9"/>
       <c r="B33" s="11"/>
       <c r="D33" s="11"/>
@@ -13911,7 +13911,7 @@
       <c r="P33" s="12"/>
       <c r="S33" s="3"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="11"/>
       <c r="D34" s="11"/>
@@ -13930,7 +13930,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="9"/>
       <c r="B35" s="11"/>
       <c r="D35" s="11"/>
@@ -13946,7 +13946,7 @@
       <c r="O35" s="14"/>
       <c r="P35" s="12"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="9"/>
       <c r="B36" s="11"/>
       <c r="D36" s="11"/>
@@ -13963,7 +13963,7 @@
       <c r="P36" s="12"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9"/>
       <c r="B37" s="11"/>
       <c r="D37" s="11"/>
@@ -13978,7 +13978,7 @@
       <c r="P37" s="12"/>
       <c r="S37" s="56"/>
     </row>
-    <row r="38" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="11"/>
       <c r="D38" s="11"/>
@@ -13993,7 +13993,7 @@
       <c r="P38" s="12"/>
       <c r="S38" s="56"/>
     </row>
-    <row r="39" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
         <v>1165</v>
@@ -14010,7 +14010,7 @@
       <c r="P39" s="12"/>
       <c r="S39" s="56"/>
     </row>
-    <row r="40" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
@@ -14028,7 +14028,7 @@
       <c r="P40" s="12"/>
       <c r="S40" s="56"/>
     </row>
-    <row r="41" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
@@ -14046,7 +14046,7 @@
       <c r="P41" s="12"/>
       <c r="S41" s="56"/>
     </row>
-    <row r="42" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
@@ -14066,7 +14066,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
@@ -14084,7 +14084,7 @@
       <c r="P43" s="12"/>
       <c r="S43" s="56"/>
     </row>
-    <row r="44" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -14104,7 +14104,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="57" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="9"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -14124,7 +14124,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9"/>
       <c r="B46" s="11" t="s">
         <v>1158</v>
@@ -14143,7 +14143,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="57" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
         <v>1171</v>
@@ -14162,7 +14162,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
@@ -14182,7 +14182,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="s">
@@ -14200,7 +14200,7 @@
       <c r="P49" s="12"/>
       <c r="S49" s="56"/>
     </row>
-    <row r="50" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="s">
@@ -14218,7 +14218,7 @@
       <c r="P50" s="12"/>
       <c r="S50" s="56"/>
     </row>
-    <row r="51" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="s">
@@ -14236,7 +14236,7 @@
       <c r="P51" s="12"/>
       <c r="S51" s="56"/>
     </row>
-    <row r="52" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="s">
@@ -14254,7 +14254,7 @@
       <c r="P52" s="12"/>
       <c r="S52" s="56"/>
     </row>
-    <row r="53" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="s">
@@ -14272,7 +14272,7 @@
       <c r="P53" s="12"/>
       <c r="S53" s="56"/>
     </row>
-    <row r="54" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="s">
@@ -14290,7 +14290,7 @@
       <c r="P54" s="12"/>
       <c r="S54" s="56"/>
     </row>
-    <row r="55" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="s">
@@ -14308,7 +14308,7 @@
       <c r="P55" s="12"/>
       <c r="S55" s="56"/>
     </row>
-    <row r="56" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="s">
@@ -14326,7 +14326,7 @@
       <c r="P56" s="12"/>
       <c r="S56" s="56"/>
     </row>
-    <row r="57" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="9"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
@@ -14344,7 +14344,7 @@
       <c r="P57" s="12"/>
       <c r="S57" s="56"/>
     </row>
-    <row r="58" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
@@ -14362,7 +14362,7 @@
       <c r="P58" s="12"/>
       <c r="S58" s="56"/>
     </row>
-    <row r="59" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
@@ -14382,7 +14382,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
@@ -14400,7 +14400,7 @@
       <c r="P60" s="12"/>
       <c r="S60" s="56"/>
     </row>
-    <row r="61" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
@@ -14417,7 +14417,7 @@
       <c r="O61" s="14"/>
       <c r="P61" s="12"/>
     </row>
-    <row r="62" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
@@ -14437,7 +14437,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
@@ -14455,7 +14455,7 @@
       <c r="P63" s="12"/>
       <c r="S63" s="56"/>
     </row>
-    <row r="64" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
@@ -14472,7 +14472,7 @@
       <c r="O64" s="14"/>
       <c r="P64" s="12"/>
     </row>
-    <row r="65" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="s">
@@ -14492,7 +14492,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11" t="s">
@@ -14510,7 +14510,7 @@
       <c r="P66" s="12"/>
       <c r="S66" s="56"/>
     </row>
-    <row r="67" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="s">
@@ -14528,7 +14528,7 @@
       <c r="P67" s="12"/>
       <c r="S67" s="56"/>
     </row>
-    <row r="68" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -14544,7 +14544,7 @@
       <c r="P68" s="12"/>
       <c r="S68" s="56"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>1082</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="N69" s="9"/>
       <c r="P69" s="12"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="11" t="s">
         <v>102</v>
@@ -14587,7 +14587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="11" t="s">
         <v>1088</v>
@@ -14608,7 +14608,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="43" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="9"/>
       <c r="B72" s="11" t="s">
         <v>1089</v>
@@ -14629,7 +14629,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73" s="9"/>
       <c r="B73" s="11" t="s">
         <v>273</v>
@@ -14653,7 +14653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74" s="9"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="s">
@@ -14681,7 +14681,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="9"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="s">
@@ -14709,7 +14709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76" s="9"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="s">
@@ -14737,7 +14737,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77" s="9"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11" t="s">
@@ -14765,7 +14765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78" s="9"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11" t="s">
@@ -14793,7 +14793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="9"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11" t="s">
@@ -14822,7 +14822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="s">
@@ -14851,7 +14851,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="9"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="s">
@@ -14880,7 +14880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82" s="9"/>
       <c r="B82" s="11" t="s">
         <v>274</v>
@@ -14905,7 +14905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83" s="9"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="s">
@@ -14934,7 +14934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="9"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="s">
@@ -14963,7 +14963,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85" s="9"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="s">
@@ -14992,7 +14992,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86" s="9"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="s">
@@ -15021,7 +15021,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87" s="9"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="s">
@@ -15050,7 +15050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="9"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="s">
@@ -15079,7 +15079,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="9"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="s">
@@ -15108,7 +15108,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="9"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11" t="s">
@@ -15137,7 +15137,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -15154,7 +15154,7 @@
       <c r="P91" s="12"/>
       <c r="R91" s="15"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -15171,7 +15171,7 @@
       <c r="P92" s="12"/>
       <c r="R92" s="15"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -15188,7 +15188,7 @@
       <c r="N93" s="9"/>
       <c r="P93" s="12"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="s">
         <v>1</v>
@@ -15207,7 +15207,7 @@
       <c r="N94" s="9"/>
       <c r="P94" s="12"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -15224,7 +15224,7 @@
       <c r="N95" s="9"/>
       <c r="P95" s="12"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -15241,7 +15241,7 @@
       <c r="N96" s="9"/>
       <c r="P96" s="12"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9" t="s">
@@ -15268,7 +15268,7 @@
         <v>49.658999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9" t="s">
@@ -15295,7 +15295,7 @@
         <v>8.0625999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9" t="s">
@@ -15322,7 +15322,7 @@
         <v>49.134300000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9" t="s">
@@ -15349,7 +15349,7 @@
         <v>7.9810999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101" s="9"/>
       <c r="C101" s="11" t="s">
         <v>87</v>
@@ -15368,7 +15368,7 @@
       <c r="O101" s="21"/>
       <c r="P101" s="13"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="9"/>
       <c r="C102" s="11" t="s">
         <v>88</v>
@@ -15387,7 +15387,7 @@
       <c r="O102" s="21"/>
       <c r="P102" s="13"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103" s="9"/>
       <c r="C103" s="11" t="s">
         <v>89</v>
@@ -15406,7 +15406,7 @@
       <c r="O103" s="21"/>
       <c r="P103" s="13"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="9"/>
       <c r="C104" s="11" t="s">
         <v>90</v>
@@ -15425,7 +15425,7 @@
       <c r="O104" s="21"/>
       <c r="P104" s="13"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105" s="9"/>
       <c r="B105" s="11" t="s">
         <v>12</v>
@@ -15453,7 +15453,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106" s="9"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="s">
@@ -15478,7 +15478,7 @@
         <v>124295973</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107" s="9"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="s">
@@ -15503,7 +15503,7 @@
         <v>23304264</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108" s="9"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11" t="s">
@@ -15528,7 +15528,7 @@
         <v>454771</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109" s="9"/>
       <c r="B109" s="11" t="s">
         <v>167</v>
@@ -15552,7 +15552,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110" s="9"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="s">
@@ -15577,7 +15577,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111" s="9"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="s">
@@ -15602,7 +15602,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="s">
@@ -15627,7 +15627,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="9"/>
       <c r="B113" s="11" t="s">
         <v>168</v>
@@ -15655,7 +15655,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="9"/>
       <c r="B114" s="11" t="s">
         <v>170</v>
@@ -15679,7 +15679,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="9"/>
       <c r="C115" s="11" t="s">
         <v>140</v>
@@ -15700,7 +15700,7 @@
       </c>
       <c r="S115" s="60"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="9"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="s">
@@ -15723,7 +15723,7 @@
       </c>
       <c r="S116" s="60"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="9"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11" t="s">
@@ -15746,7 +15746,7 @@
       </c>
       <c r="S117" s="60"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
         <v>1066</v>
@@ -15767,7 +15767,7 @@
       <c r="S118" s="3"/>
       <c r="T118" s="4"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -15788,7 +15788,7 @@
       </c>
       <c r="T119" s="4"/>
     </row>
-    <row r="120" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9" t="s">
@@ -15811,7 +15811,7 @@
       </c>
       <c r="T120" s="4"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -15829,7 +15829,7 @@
       <c r="P121" s="12"/>
       <c r="T121" s="4"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -15848,7 +15848,7 @@
       <c r="P122" s="12"/>
       <c r="T122" s="4"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -15871,7 +15871,7 @@
       <c r="P123" s="13"/>
       <c r="T123" s="4"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -15894,7 +15894,7 @@
       <c r="P124" s="13"/>
       <c r="T124" s="4"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -15912,7 +15912,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="29"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="P126" s="31"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -15952,7 +15952,7 @@
       </c>
       <c r="P127" s="31"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="27" t="s">
@@ -15979,7 +15979,7 @@
         <v>49.139843300000003</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="27" t="s">
@@ -16006,7 +16006,7 @@
         <v>8.0572355000000009</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -16026,7 +16026,7 @@
       </c>
       <c r="P130" s="31"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="27" t="s">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="P131" s="31"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="P132" s="31"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -16091,7 +16091,7 @@
       </c>
       <c r="P133" s="31"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="P134" s="31"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A135" s="9"/>
       <c r="B135" s="11" t="s">
         <v>104</v>
@@ -16131,7 +16131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A136" s="9"/>
       <c r="B136" s="11" t="s">
         <v>105</v>
@@ -16151,7 +16151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
         <v>1067</v>
@@ -16171,7 +16171,7 @@
       <c r="P137" s="12"/>
       <c r="S137" s="3"/>
     </row>
-    <row r="138" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
@@ -16193,7 +16193,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -16210,7 +16210,7 @@
       <c r="N139" s="9"/>
       <c r="P139" s="12"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -16230,7 +16230,7 @@
       <c r="O140" s="3"/>
       <c r="P140" s="12"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -16257,7 +16257,7 @@
       </c>
       <c r="P141" s="13"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -16284,7 +16284,7 @@
       </c>
       <c r="P142" s="13"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -16302,7 +16302,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="12"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -16322,7 +16322,7 @@
       </c>
       <c r="P144" s="13"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="27" t="s">
@@ -16344,7 +16344,7 @@
       </c>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -16364,7 +16364,7 @@
       </c>
       <c r="P146" s="13"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -16384,7 +16384,7 @@
       </c>
       <c r="P147" s="13"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="P148" s="13"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -16424,7 +16424,7 @@
       </c>
       <c r="P149" s="13"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -16444,7 +16444,7 @@
       </c>
       <c r="P150" s="13"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="27" t="s">
@@ -16464,7 +16464,7 @@
       <c r="O151" s="33"/>
       <c r="P151" s="29"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -16482,7 +16482,7 @@
       <c r="O152" s="33"/>
       <c r="P152" s="29"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -16500,7 +16500,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="29"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -16527,7 +16527,7 @@
         <v>27307748</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="11" t="s">
@@ -16551,7 +16551,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="11" t="s">
@@ -16575,7 +16575,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="11" t="s">
@@ -16602,7 +16602,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="11" t="s">
@@ -16625,7 +16625,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="11" t="s">
@@ -16648,7 +16648,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="11" t="s">
@@ -16672,7 +16672,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="11"/>
@@ -16688,7 +16688,7 @@
       <c r="P161" s="12"/>
       <c r="S161" s="56"/>
     </row>
-    <row r="162" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="11" t="s">
@@ -16712,7 +16712,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="11" t="s">
@@ -16736,7 +16736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9"/>
       <c r="B164" s="11" t="s">
         <v>1198</v>
@@ -16753,7 +16753,7 @@
       <c r="P164" s="13"/>
       <c r="S164" s="56"/>
     </row>
-    <row r="165" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9"/>
       <c r="B165" s="11" t="s">
         <v>1199</v>
@@ -16770,7 +16770,7 @@
       <c r="P165" s="13"/>
       <c r="S165" s="56"/>
     </row>
-    <row r="166" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9"/>
       <c r="B166" s="11" t="s">
         <v>1200</v>
@@ -16787,7 +16787,7 @@
       <c r="P166" s="13"/>
       <c r="S166" s="56"/>
     </row>
-    <row r="167" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9"/>
       <c r="B167" s="11" t="s">
         <v>1201</v>
@@ -16804,7 +16804,7 @@
       <c r="P167" s="13"/>
       <c r="S167" s="56"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
         <v>1073</v>
@@ -16823,7 +16823,7 @@
       <c r="N168" s="9"/>
       <c r="P168" s="12"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9" t="s">
@@ -16842,7 +16842,7 @@
       <c r="N169" s="9"/>
       <c r="P169" s="12"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -16859,7 +16859,7 @@
       <c r="N170" s="9"/>
       <c r="P170" s="12"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -16877,7 +16877,7 @@
       <c r="O171" s="3"/>
       <c r="P171" s="12"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -16904,7 +16904,7 @@
         <v>52768135</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -16934,7 +16934,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -16964,7 +16964,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9" t="s">
@@ -16986,7 +16986,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -17003,7 +17003,7 @@
       <c r="N176" s="9"/>
       <c r="P176" s="12"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -17021,7 +17021,7 @@
       <c r="O177" s="3"/>
       <c r="P177" s="12"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -17048,7 +17048,7 @@
       </c>
       <c r="P178" s="13"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="P179" s="13"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -17093,7 +17093,7 @@
       <c r="O180" s="28"/>
       <c r="P180" s="12"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -17113,7 +17113,7 @@
       </c>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="27" t="s">
@@ -17138,7 +17138,7 @@
       </c>
       <c r="P182" s="13"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="P183" s="13"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="P184" s="13"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="P185" s="13"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="P186" s="13"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -17238,7 +17238,7 @@
       </c>
       <c r="P187" s="13"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="11" t="s">
@@ -17265,7 +17265,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="11" t="s">
@@ -17292,7 +17292,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="11" t="s">
@@ -17319,7 +17319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="11"/>
@@ -17342,7 +17342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="11"/>
@@ -17365,7 +17365,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="11"/>
@@ -17386,7 +17386,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="11" t="s">
@@ -17413,7 +17413,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="11" t="s">
@@ -17440,7 +17440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -17458,7 +17458,7 @@
       <c r="O196" s="3"/>
       <c r="P196" s="12"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -17478,7 +17478,7 @@
       </c>
       <c r="P197" s="13"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -17498,7 +17498,7 @@
       </c>
       <c r="P198" s="13"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="P199" s="13"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="P200" s="13"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -17558,7 +17558,7 @@
       </c>
       <c r="P201" s="13"/>
     </row>
-    <row r="202" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9"/>
       <c r="B202" s="11" t="s">
         <v>1194</v>
@@ -17576,7 +17576,7 @@
       <c r="P202" s="13"/>
       <c r="S202" s="56"/>
     </row>
-    <row r="203" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="9"/>
       <c r="B203" s="11" t="s">
         <v>1195</v>
@@ -17594,7 +17594,7 @@
       <c r="P203" s="13"/>
       <c r="S203" s="56"/>
     </row>
-    <row r="204" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9"/>
       <c r="B204" s="11" t="s">
         <v>1196</v>
@@ -17612,7 +17612,7 @@
       <c r="P204" s="13"/>
       <c r="S204" s="56"/>
     </row>
-    <row r="205" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="9"/>
       <c r="B205" s="11" t="s">
         <v>1197</v>
@@ -17630,7 +17630,7 @@
       <c r="P205" s="13"/>
       <c r="S205" s="56"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I206" s="17"/>
       <c r="J206" s="9"/>
       <c r="K206" s="9"/>
@@ -17638,13 +17638,13 @@
       <c r="M206" s="9"/>
       <c r="N206" s="9"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I207" s="44"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
       <c r="I208" s="44"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I209" s="44"/>
     </row>
   </sheetData>
@@ -17663,22 +17663,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1128</v>
       </c>
@@ -17689,7 +17689,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>222</v>
       </c>
@@ -17697,7 +17697,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>120</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>245</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>145</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>150</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>441</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>442</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>443</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>210</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>210</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>210</v>
       </c>
@@ -17786,7 +17786,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>230</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>235</v>
       </c>
@@ -17813,7 +17813,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>245</v>
       </c>
@@ -17821,7 +17821,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>213</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>385</v>
       </c>
@@ -17843,7 +17843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>1126</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1127</v>
       </c>
@@ -17901,14 +17901,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1111</v>
       </c>
@@ -17916,42 +17916,42 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>231</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -18031,12 +18031,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L47" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>225</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>222</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0.3</v>
       </c>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="L51" s="24"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0.35</v>
       </c>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="L52" s="24"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.4</v>
       </c>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="L53" s="24"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.45</v>
       </c>
@@ -18223,7 +18223,7 @@
       </c>
       <c r="L54" s="24"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0.5</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>-0.24999999999999989</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0.55000000000000004</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>-0.20666666666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0.6</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>-0.20333333333333348</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0.7</v>
       </c>
@@ -18395,7 +18395,7 @@
         <v>-0.12333333333333318</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.8</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>-1.3333333333333308E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.9</v>
       </c>
@@ -18481,7 +18481,7 @@
         <v>0.1166666666666667</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>6.3333333333333353E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1.2</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1.4</v>
       </c>
@@ -18625,18 +18625,18 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1107</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I2" t="s">
         <v>1103</v>
       </c>
@@ -18655,7 +18655,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1104</v>
       </c>
@@ -18666,7 +18666,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>623</v>
       </c>
@@ -18701,11 +18701,11 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="F6">
         <v>5000</v>
       </c>
@@ -18716,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7">
@@ -18724,7 +18724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>687</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>646</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>658</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>668</v>
       </c>
@@ -18866,7 +18866,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>670</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>708</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>640</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>628</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>634</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>663</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>656</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>689</v>
       </c>
@@ -19138,7 +19138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>648</v>
       </c>
@@ -19172,7 +19172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>682</v>
       </c>
@@ -19206,7 +19206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>650</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>631</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>696</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>691</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>693</v>
       </c>
@@ -19376,7 +19376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>699</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>701</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>684</v>
       </c>
@@ -19478,7 +19478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>643</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>676</v>
       </c>
@@ -19546,7 +19546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>704</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>661</v>
       </c>
@@ -19614,7 +19614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>672</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>652</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>665</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>679</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>637</v>
       </c>
@@ -19790,7 +19790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>654</v>
       </c>
@@ -19824,7 +19824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>706</v>
       </c>
@@ -19858,7 +19858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>621</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>674</v>
       </c>
@@ -19926,7 +19926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>624</v>
       </c>
@@ -20014,27 +20014,27 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7265625" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.7109375" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.7265625" customWidth="1"/>
+    <col min="12" max="12" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.7109375" customWidth="1"/>
+    <col min="19" max="19" width="2.7265625" customWidth="1"/>
+    <col min="20" max="20" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.7265625" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>1091</v>
       </c>
@@ -20042,13 +20042,13 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J3" s="2"/>
       <c r="U3" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -20161,7 +20161,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -20213,7 +20213,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -20347,7 +20347,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -20414,7 +20414,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -20481,7 +20481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -20548,7 +20548,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J14">
         <v>7</v>
       </c>
@@ -20603,7 +20603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J15">
         <v>8</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>788</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>1010</v>
       </c>
@@ -20732,7 +20732,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>787</v>
       </c>
@@ -20772,7 +20772,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J19">
         <v>12</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>789</v>
       </c>
@@ -20873,7 +20873,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1092</v>
       </c>
@@ -20916,7 +20916,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>790</v>
       </c>
@@ -20974,7 +20974,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>793</v>
       </c>
@@ -21026,7 +21026,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J24">
         <v>17</v>
       </c>
@@ -21063,7 +21063,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J25">
         <v>18</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J26">
         <v>19</v>
       </c>
@@ -21137,7 +21137,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="J27">
         <v>20</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -21281,7 +21281,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>3</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>4</v>
       </c>
@@ -21452,7 +21452,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5</v>
       </c>
@@ -21516,7 +21516,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>6</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>7</v>
       </c>
@@ -21635,7 +21635,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>8</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>10</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>12</v>
       </c>
@@ -21934,7 +21934,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>13</v>
       </c>
@@ -21992,7 +21992,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>14</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>15</v>
       </c>
@@ -22105,7 +22105,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>16</v>
       </c>
@@ -22172,7 +22172,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>17</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>18</v>
       </c>
@@ -22300,7 +22300,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>19</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>20</v>
       </c>
@@ -22416,7 +22416,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J49">
         <v>42</v>
       </c>
@@ -22456,7 +22456,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J50">
         <v>43</v>
       </c>
@@ -22493,7 +22493,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J51">
         <v>44</v>
       </c>
@@ -22530,7 +22530,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J52">
         <v>45</v>
       </c>
@@ -22567,7 +22567,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J53">
         <v>46</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J54">
         <v>47</v>
       </c>
@@ -22671,7 +22671,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J55">
         <v>48</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J56">
         <v>49</v>
       </c>
@@ -22745,7 +22745,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J57">
         <v>50</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J58">
         <v>51</v>
       </c>
@@ -22819,7 +22819,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J59">
         <v>52</v>
       </c>
@@ -22859,7 +22859,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J60">
         <v>53</v>
       </c>
@@ -22899,7 +22899,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J61">
         <v>54</v>
       </c>
@@ -22939,7 +22939,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J62">
         <v>55</v>
       </c>
@@ -22979,7 +22979,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J63">
         <v>56</v>
       </c>
@@ -23019,7 +23019,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J64">
         <v>57</v>
       </c>
@@ -23059,7 +23059,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J65">
         <v>58</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J66">
         <v>59</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J67">
         <v>60</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J68">
         <v>61</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J69">
         <v>62</v>
       </c>
@@ -23259,7 +23259,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J70">
         <v>63</v>
       </c>
@@ -23299,7 +23299,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J71">
         <v>64</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J72">
         <v>65</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J73">
         <v>66</v>
       </c>
@@ -23419,7 +23419,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J74">
         <v>67</v>
       </c>
@@ -23459,7 +23459,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J75">
         <v>68</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J76">
         <v>69</v>
       </c>
@@ -23533,7 +23533,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J77">
         <v>70</v>
       </c>
@@ -23570,7 +23570,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J78">
         <v>71</v>
       </c>
@@ -23607,7 +23607,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J79">
         <v>72</v>
       </c>
@@ -23644,7 +23644,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J80">
         <v>73</v>
       </c>
@@ -23681,7 +23681,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J81">
         <v>74</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J82">
         <v>75</v>
       </c>
@@ -23755,7 +23755,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J83">
         <v>76</v>
       </c>
@@ -23792,7 +23792,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J84">
         <v>77</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J85">
         <v>78</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J86">
         <v>79</v>
       </c>
@@ -23903,7 +23903,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J87">
         <v>80</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J88">
         <v>81</v>
       </c>
@@ -23965,7 +23965,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J89">
         <v>82</v>
       </c>
@@ -24002,7 +24002,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J90">
         <v>83</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J91">
         <v>84</v>
       </c>
@@ -24076,7 +24076,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J92">
         <v>85</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J93">
         <v>86</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J94">
         <v>87</v>
       </c>
@@ -24187,7 +24187,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J95">
         <v>88</v>
       </c>
@@ -24224,7 +24224,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J96">
         <v>89</v>
       </c>
@@ -24264,7 +24264,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J97">
         <v>90</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J98">
         <v>91</v>
       </c>
@@ -24344,7 +24344,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J99">
         <v>92</v>
       </c>
@@ -24384,7 +24384,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J100">
         <v>93</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J101">
         <v>94</v>
       </c>
@@ -24464,7 +24464,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J102">
         <v>95</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J103">
         <v>96</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J104">
         <v>97</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J105">
         <v>98</v>
       </c>
@@ -24624,7 +24624,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J106">
         <v>99</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J107">
         <v>100</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J108">
         <v>101</v>
       </c>
@@ -24744,7 +24744,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J109">
         <v>102</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J110">
         <v>103</v>
       </c>
@@ -24824,7 +24824,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J111">
         <v>104</v>
       </c>
@@ -24864,7 +24864,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J112">
         <v>105</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J113">
         <v>106</v>
       </c>
@@ -24944,7 +24944,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J114">
         <v>107</v>
       </c>
@@ -24984,7 +24984,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J115">
         <v>108</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J116">
         <v>109</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J117">
         <v>110</v>
       </c>
@@ -25101,7 +25101,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J118">
         <v>111</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J119">
         <v>112</v>
       </c>
@@ -25175,7 +25175,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J120">
         <v>113</v>
       </c>
@@ -25212,7 +25212,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J121">
         <v>114</v>
       </c>
@@ -25241,7 +25241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J122">
         <v>115</v>
       </c>
@@ -25270,7 +25270,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J123">
         <v>116</v>
       </c>
@@ -25299,7 +25299,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J124">
         <v>117</v>
       </c>
@@ -25328,7 +25328,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:30" x14ac:dyDescent="0.35">
       <c r="J125">
         <v>118</v>
       </c>
@@ -25357,7 +25357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="10:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:30" x14ac:dyDescent="0.35">
       <c r="K126" t="s">
         <v>990</v>
       </c>

--- a/Docs/MapLab3D_doc.xlsx
+++ b/Docs/MapLab3D_doc.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Projekte\MapLab3D\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBDA71B-2A9D-41F3-9962-4976C6E09BBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB4A96-2439-40FD-A0F8-DB1F0A4D7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="3090" windowHeight="930" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22530" yWindow="0" windowWidth="13470" windowHeight="15285" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GV" sheetId="8" r:id="rId1"/>
     <sheet name="GV_H" sheetId="30" r:id="rId2"/>
     <sheet name="PLOTDATA" sheetId="12" r:id="rId3"/>
     <sheet name="MAP_OBJECTS" sheetId="9" r:id="rId4"/>
-    <sheet name="MAP ELE" sheetId="4" r:id="rId5"/>
+    <sheet name="ELE OSMDATA" sheetId="4" r:id="rId5"/>
     <sheet name="Tile Size" sheetId="17" r:id="rId6"/>
     <sheet name="Linewidth" sheetId="10" r:id="rId7"/>
     <sheet name="Superelevation" sheetId="24" r:id="rId8"/>
@@ -37,12 +37,26 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1282">
   <si>
     <t>osm</t>
   </si>
@@ -755,9 +769,6 @@
   </si>
   <si>
     <t>nodes: all single points [x,y]</t>
-  </si>
-  <si>
-    <t>lines: set of ways, that have the same start- and endpoint</t>
   </si>
   <si>
     <t>areas: set of closed ways</t>
@@ -3780,6 +3791,159 @@
   </si>
   <si>
     <t>Indices in OSMDATA.relation(1,ir)</t>
+  </si>
+  <si>
+    <t>indices in OSMDATA.node</t>
+  </si>
+  <si>
+    <t>indices in OSMDATA.way</t>
+  </si>
+  <si>
+    <t>indices in OSMDATA.relation</t>
+  </si>
+  <si>
+    <t>lines: set of several connected ways</t>
+  </si>
+  <si>
+    <t>lines_isouter(k_line,1)</t>
+  </si>
+  <si>
+    <t>lines: role (in case the line is closed later): 1: outer / 0: inner</t>
+  </si>
+  <si>
+    <t>areas: role: 1: outer / 0: inner</t>
+  </si>
+  <si>
+    <t>nodes_relid(k_node,1)</t>
+  </si>
+  <si>
+    <t>nodes: OpenStreetMap identification number of the relation</t>
+  </si>
+  <si>
+    <t>0: The node does not belong to a relation</t>
+  </si>
+  <si>
+    <t>lines_relid(k_line,1)</t>
+  </si>
+  <si>
+    <t>areas_isouter(k_area,1)</t>
+  </si>
+  <si>
+    <t>lines: OpenStreetMap identification number  of the relation</t>
+  </si>
+  <si>
+    <t>0: The line does not belong to a relation</t>
+  </si>
+  <si>
+    <t>areas_relid(k_area,1)</t>
+  </si>
+  <si>
+    <t>areas: OpenStreetMap identification number  of the relation</t>
+  </si>
+  <si>
+    <t>0: The area does not belong to a relation</t>
+  </si>
+  <si>
+    <t>tags of lines</t>
+  </si>
+  <si>
+    <t>tags of areas</t>
+  </si>
+  <si>
+    <t>lines: line will get connected to other lines (true/false)</t>
+  </si>
+  <si>
+    <t>connect</t>
+  </si>
+  <si>
+    <t>nodes: index in OSMDATA.node</t>
+  </si>
+  <si>
+    <t>nodes: index in OSMDATA.relation (0: no relation)</t>
+  </si>
+  <si>
+    <t>lines: indices in OSMDATA.way</t>
+  </si>
+  <si>
+    <t>iw_v</t>
+  </si>
+  <si>
+    <t>lines: index in OSMDATA.relation (0: no relation)</t>
+  </si>
+  <si>
+    <t>Lines with different indices ir will not get connected.</t>
+  </si>
+  <si>
+    <t>areas: indices in OSMDATA.way</t>
+  </si>
+  <si>
+    <t>areas: index in OSMDATA.relation (0: no relation)</t>
+  </si>
+  <si>
+    <t>This value should not be assigned to preview objects so that preview objects can be freely combined.</t>
+  </si>
+  <si>
+    <t>empty: No nodes from the OSM data have been included in the map object.</t>
+  </si>
+  <si>
+    <t>empty: No ways from the OSM data have been included in the map object.</t>
+  </si>
+  <si>
+    <t>empty: No relations from the OSM data have been included in the map object.</t>
+  </si>
+  <si>
+    <t>GV.fig_2dmap_type</t>
+  </si>
+  <si>
+    <t>2D map figure type</t>
+  </si>
+  <si>
+    <t>GV.mouse_interaction_method</t>
+  </si>
+  <si>
+    <t>Handling interactions with the mouse method</t>
+  </si>
+  <si>
+    <t>GV.ax_2dmap_ButtonDownFcd</t>
+  </si>
+  <si>
+    <t>GV.fig_2dmap_WindowButtonUpFcn</t>
+  </si>
+  <si>
+    <t>GV.fig_2dmap_WindowButtonDownFcn</t>
+  </si>
+  <si>
+    <t>2D map: figure ButtonDown callback function</t>
+  </si>
+  <si>
+    <t>2D map: figure ButtonUp callback function</t>
+  </si>
+  <si>
+    <t>2D map: ButtonDown callback function of every map object</t>
+  </si>
+  <si>
+    <t>GV.testout_minvalues_divisor</t>
+  </si>
+  <si>
+    <t>During “Create map,” the dimensions of map objects are displayed in the Command Window (development mode) or in the Log (deployed) if they are greater than the minimum dimensions defined in the project parameters divided by this value. This value should be greater than 1, for example 10.</t>
+  </si>
+  <si>
+    <t>GV_H.create_charstylesample_getuserinput</t>
+  </si>
+  <si>
+    <t>handle to the app create_charstylesample_getuserinput for polling</t>
+  </si>
+  <si>
+    <t>GV.create_symsamp</t>
+  </si>
+  <si>
+    <t>Symbol samples settings</t>
+  </si>
+  <si>
+    <t>GV.create_charstylesamp</t>
+  </si>
+  <si>
+    <t>Character style samples settings</t>
   </si>
 </sst>
 </file>
@@ -3787,7 +3951,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -4062,11 +4226,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6594,103 +6758,103 @@
                 <c:pt idx="1">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="3" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="4" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>55000</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="5" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="6" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="7" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="8" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="9" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>110000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="10" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="11" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="12" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="13" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>275000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="14" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="15" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>325000</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="16" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>325000</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="17" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>350000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="18" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="19" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="20" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>430000</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="21" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="22" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="23" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="24" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>650000</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="25" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>700000</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="26" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>800000</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="27" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="28" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1100000</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="29" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1150000</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="30" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1200000</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="31" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1500000</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="32" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1600000</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="33" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>2400000</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="34" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>2400000</c:v>
                 </c:pt>
-                <c:pt idx="35" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="35" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>2900000</c:v>
                 </c:pt>
               </c:numCache>
@@ -6857,103 +7021,103 @@
                 <c:pt idx="1">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="3" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="4" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>55000</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="5" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="6" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="7" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="8" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="9" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>110000</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="10" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="11" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="12" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>200000</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="13" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>275000</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="14" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>300000</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="15" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>325000</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="16" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>325000</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="17" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>350000</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="18" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="19" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>400000</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="20" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>430000</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="21" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="22" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="23" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="24" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>650000</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="25" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>700000</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="26" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>800000</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="27" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="28" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1100000</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="29" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1150000</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="30" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1200000</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="31" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1500000</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="32" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>1600000</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="33" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>2400000</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="34" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>2400000</c:v>
                 </c:pt>
-                <c:pt idx="35" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="35" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-">
                   <c:v>2900000</c:v>
                 </c:pt>
               </c:numCache>
@@ -10312,10 +10476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10328,14 +10492,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10354,35 +10518,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" t="s">
         <v>1216</v>
-      </c>
-      <c r="B6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10409,90 +10573,90 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" t="s">
         <v>277</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" t="s">
         <v>276</v>
       </c>
-      <c r="B14" t="s">
-        <v>277</v>
-      </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" t="s">
         <v>267</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B16" t="s">
         <v>1206</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10541,13 +10705,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1209</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10566,24 +10730,24 @@
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10597,1056 +10761,1144 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B29" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B30" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="B31" t="s">
-        <v>320</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>349</v>
+      </c>
+      <c r="B45" t="s">
+        <v>319</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B45" t="s">
-        <v>320</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B47" t="s">
-        <v>320</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>376</v>
+      </c>
+      <c r="B48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B48" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>524</v>
+      </c>
+      <c r="B55" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B55" t="s">
-        <v>320</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>526</v>
+      </c>
+      <c r="B56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B56" t="s">
-        <v>320</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>480</v>
+      </c>
+      <c r="B57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B57" t="s">
-        <v>320</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="B58" t="s">
-        <v>320</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>500</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B59" t="s">
-        <v>320</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>504</v>
+        <v>1264</v>
       </c>
       <c r="B61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>505</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>521</v>
+        <v>1266</v>
       </c>
       <c r="B62" t="s">
-        <v>522</v>
+        <v>319</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>523</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>616</v>
+        <v>1268</v>
       </c>
       <c r="B63" t="s">
-        <v>617</v>
+        <v>319</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>523</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>540</v>
+        <v>1269</v>
       </c>
       <c r="B64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>542</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>541</v>
+        <v>1270</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>542</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="B66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1034</v>
+        <v>520</v>
       </c>
       <c r="B67" t="s">
-        <v>1039</v>
+        <v>521</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1040</v>
+        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1035</v>
+        <v>615</v>
       </c>
       <c r="B68" t="s">
-        <v>1039</v>
+        <v>616</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1041</v>
+        <v>522</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1036</v>
+        <v>539</v>
       </c>
       <c r="B69" t="s">
-        <v>1039</v>
+        <v>319</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1042</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1037</v>
+        <v>540</v>
       </c>
       <c r="B70" t="s">
-        <v>1039</v>
+        <v>319</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1043</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1038</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s">
-        <v>1039</v>
+        <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1044</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>545</v>
+        <v>1033</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>1038</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>549</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>546</v>
+        <v>1034</v>
       </c>
       <c r="B73" t="s">
-        <v>320</v>
+        <v>1038</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>550</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>547</v>
+        <v>1035</v>
       </c>
       <c r="B74" t="s">
-        <v>320</v>
+        <v>1038</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>551</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>548</v>
+        <v>1036</v>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>1038</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>552</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>556</v>
+        <v>1037</v>
       </c>
       <c r="B76" t="s">
-        <v>320</v>
+        <v>1038</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>553</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1045</v>
+        <v>545</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1048</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1046</v>
+        <v>546</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1049</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1047</v>
+        <v>547</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1050</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>559</v>
+        <v>1274</v>
       </c>
       <c r="B83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>560</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
-        <v>1146</v>
+      <c r="A84" t="s">
+        <v>1044</v>
       </c>
       <c r="B84" t="s">
-        <v>320</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1147</v>
+        <v>81</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>563</v>
+        <v>1045</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>564</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>576</v>
+        <v>1046</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>577</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1197</v>
+        <v>560</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1198</v>
+        <v>556</v>
       </c>
       <c r="B88" t="s">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1199</v>
+        <v>557</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1226</v>
+        <v>558</v>
       </c>
       <c r="B89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1199</v>
+        <v>559</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1200</v>
+      <c r="A90" s="36" t="s">
+        <v>1145</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1203</v>
+        <v>319</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1201</v>
+        <v>562</v>
       </c>
       <c r="B91" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1203</v>
+        <v>563</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1202</v>
+        <v>575</v>
       </c>
       <c r="B92" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1203</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="B93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1205</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>598</v>
+        <v>1197</v>
       </c>
       <c r="B94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>599</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>738</v>
+        <v>1225</v>
       </c>
       <c r="B95" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>601</v>
+        <v>1199</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>602</v>
+        <v>1200</v>
       </c>
       <c r="B97" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>603</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>604</v>
+        <v>1201</v>
       </c>
       <c r="B98" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>605</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>607</v>
+        <v>1203</v>
       </c>
       <c r="B99" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>608</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>732</v>
+        <v>597</v>
       </c>
       <c r="B100" t="s">
-        <v>733</v>
+        <v>319</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>734</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B101" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>780</v>
+        <v>600</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1214</v>
+        <v>601</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1223</v>
+        <v>602</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1221</v>
+        <v>603</v>
       </c>
       <c r="B104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1222</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>606</v>
+      </c>
+      <c r="B105" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="C106" s="1"/>
+      <c r="A106" t="s">
+        <v>731</v>
+      </c>
+      <c r="B106" t="s">
+        <v>732</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="C107" s="1"/>
+      <c r="A107" t="s">
+        <v>734</v>
+      </c>
+      <c r="B107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C108" s="1"/>
+      <c r="A108" t="s">
+        <v>779</v>
+      </c>
+      <c r="B108" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>565</v>
-      </c>
-      <c r="C109" t="s">
-        <v>567</v>
+        <v>1213</v>
+      </c>
+      <c r="B109" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>566</v>
-      </c>
-      <c r="C110" t="s">
-        <v>568</v>
+        <v>1220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>181</v>
-      </c>
-      <c r="C111" t="s">
-        <v>178</v>
+        <v>1278</v>
+      </c>
+      <c r="B111" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1279</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1173</v>
+        <v>1280</v>
+      </c>
+      <c r="B112" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1281</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1175</v>
-      </c>
+      <c r="A114" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>180</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
-      </c>
+      <c r="A115" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>288</v>
-      </c>
-      <c r="C116" t="s">
-        <v>289</v>
+      <c r="A116" s="23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>564</v>
+      </c>
+      <c r="C117" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="23" t="s">
-        <v>450</v>
+      <c r="A118" t="s">
+        <v>565</v>
+      </c>
+      <c r="C118" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>485</v>
-      </c>
-      <c r="B119" t="s">
-        <v>736</v>
+        <v>181</v>
+      </c>
+      <c r="C119" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="36" t="s">
-        <v>452</v>
-      </c>
-      <c r="B120" t="s">
-        <v>81</v>
+      <c r="A120" t="s">
+        <v>1030</v>
       </c>
       <c r="C120" t="s">
-        <v>443</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="B121" t="s">
-        <v>82</v>
+      <c r="A121" t="s">
+        <v>1171</v>
       </c>
       <c r="C121" t="s">
-        <v>458</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="36" t="s">
-        <v>454</v>
-      </c>
-      <c r="B122" t="s">
-        <v>86</v>
+      <c r="A122" t="s">
+        <v>1173</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="B123" t="s">
-        <v>442</v>
+      <c r="A123" t="s">
+        <v>180</v>
       </c>
       <c r="C123" t="s">
-        <v>379</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="B124" t="s">
-        <v>448</v>
+      <c r="A124" t="s">
+        <v>287</v>
       </c>
       <c r="C124" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="B125" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="C125" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="B126" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" t="s">
-        <v>447</v>
-      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="36" t="s">
-        <v>514</v>
+      <c r="A127" t="s">
+        <v>484</v>
       </c>
       <c r="B127" t="s">
-        <v>515</v>
-      </c>
-      <c r="C127" t="s">
-        <v>516</v>
+        <v>735</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>517</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>520</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>518</v>
+        <v>456</v>
       </c>
       <c r="B129" t="s">
-        <v>320</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>519</v>
+        <v>453</v>
       </c>
       <c r="B130" t="s">
-        <v>320</v>
+        <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>520</v>
+        <v>443</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B131" t="s">
+        <v>441</v>
+      </c>
+      <c r="C131" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B132" t="s">
+        <v>447</v>
+      </c>
+      <c r="C132" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" t="s">
+        <v>448</v>
+      </c>
+      <c r="C133" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="B134" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="B135" t="s">
+        <v>514</v>
+      </c>
+      <c r="C135" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="B136" t="s">
+        <v>319</v>
+      </c>
+      <c r="C136" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="36" t="s">
+        <v>517</v>
+      </c>
+      <c r="B137" t="s">
+        <v>319</v>
+      </c>
+      <c r="C137" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="B138" t="s">
+        <v>319</v>
+      </c>
+      <c r="C138" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="36" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" t="s">
         <v>1214</v>
-      </c>
-      <c r="B131" t="s">
-        <v>320</v>
-      </c>
-      <c r="C131" t="s">
-        <v>1215</v>
       </c>
     </row>
   </sheetData>
@@ -11660,10 +11912,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D61112-3AAB-4A6C-841F-94EB5F52ECE7}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11676,7 +11928,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11684,7 +11936,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>172</v>
@@ -11693,7 +11945,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -11704,7 +11956,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -11715,76 +11967,76 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B10" t="s">
         <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
         <v>191</v>
@@ -11792,10 +12044,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C13" t="s">
         <v>198</v>
@@ -11803,296 +12055,307 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
         <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" t="s">
         <v>270</v>
-      </c>
-      <c r="C15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" t="s">
         <v>387</v>
-      </c>
-      <c r="B17" t="s">
-        <v>386</v>
-      </c>
-      <c r="C17" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" t="s">
         <v>483</v>
-      </c>
-      <c r="C18" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B19" t="s">
         <v>416</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>417</v>
-      </c>
-      <c r="C19" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
         <v>427</v>
-      </c>
-      <c r="B23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B24" t="s">
         <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B25" t="s">
         <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B26" t="s">
         <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B27" t="s">
         <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B28" t="s">
         <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B29" t="s">
         <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B30" t="s">
         <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B31" t="s">
         <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B32" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" t="s">
         <v>461</v>
-      </c>
-      <c r="B32" t="s">
-        <v>463</v>
-      </c>
-      <c r="C32" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B33" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" t="s">
         <v>497</v>
-      </c>
-      <c r="C33" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>495</v>
+      </c>
+      <c r="B34" t="s">
         <v>496</v>
       </c>
-      <c r="B34" t="s">
-        <v>497</v>
-      </c>
       <c r="C34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B35" t="s">
+        <v>727</v>
+      </c>
+      <c r="C35" t="s">
         <v>728</v>
-      </c>
-      <c r="C35" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B36" t="s">
+        <v>727</v>
+      </c>
+      <c r="C36" t="s">
         <v>728</v>
-      </c>
-      <c r="C36" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>726</v>
+      </c>
+      <c r="B37" t="s">
         <v>727</v>
       </c>
-      <c r="B37" t="s">
-        <v>728</v>
-      </c>
       <c r="C37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C38" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B39" t="s">
         <v>1052</v>
       </c>
-      <c r="B39" t="s">
-        <v>1053</v>
-      </c>
       <c r="C39" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>606</v>
-      </c>
-      <c r="B41" t="s">
-        <v>597</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>605</v>
+      </c>
+      <c r="B42" t="s">
         <v>596</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -12103,10 +12366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12117,7 +12380,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -12134,40 +12397,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="G6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="23" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G9" t="s">
         <v>232</v>
@@ -12175,416 +12438,626 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>240</v>
+      <c r="G11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>239</v>
-      </c>
       <c r="G12" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>262</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>379</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
+      <c r="G36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>241</v>
-      </c>
-      <c r="G20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>391</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>390</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C56" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C58" s="23" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="G21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>375</v>
-      </c>
-      <c r="G22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G23" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>390</v>
-      </c>
-      <c r="G26" t="s">
-        <v>392</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>391</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>578</v>
+      </c>
+      <c r="G82" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>581</v>
+      </c>
+      <c r="G84" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>579</v>
+      </c>
+      <c r="G86" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>582</v>
+      </c>
+      <c r="G88" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>580</v>
+      </c>
+      <c r="G90" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>583</v>
+      </c>
+      <c r="G92" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>579</v>
-      </c>
-      <c r="G54" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>582</v>
-      </c>
-      <c r="G56" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G57" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>580</v>
-      </c>
-      <c r="G58" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G59" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>583</v>
-      </c>
-      <c r="G60" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G61" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>581</v>
-      </c>
-      <c r="G62" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="G63" t="s">
+      <c r="G94" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>584</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="G95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>252</v>
+      </c>
+      <c r="G96" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G65" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>251</v>
-      </c>
-      <c r="G66" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>256</v>
       </c>
-      <c r="G67" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>253</v>
-      </c>
-      <c r="G68" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>257</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="G97" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>236</v>
+      </c>
+      <c r="G98" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>237</v>
-      </c>
-      <c r="G70" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>337</v>
+      </c>
+      <c r="G99" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>338</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G100" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>339</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G101" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>340</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G102" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>341</v>
-      </c>
-      <c r="G74" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>369</v>
+      </c>
+      <c r="G103" t="s">
         <v>370</v>
       </c>
-      <c r="G75" t="s">
-        <v>371</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="P6:P45">
-    <sortCondition ref="P6:P45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P6:P73">
+    <sortCondition ref="P6:P73"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -12596,10 +13069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12611,7 +13084,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -12627,7 +13100,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -12635,7 +13108,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12656,12 +13129,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12706,621 +13179,651 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>476</v>
+      </c>
+      <c r="C20" t="s">
         <v>477</v>
-      </c>
-      <c r="C20" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="s">
         <v>308</v>
       </c>
-      <c r="C27" t="s">
-        <v>309</v>
-      </c>
       <c r="D27" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E35" s="38">
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E36" s="38">
         <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E37" s="38">
         <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E38" s="38">
         <v>400</v>
       </c>
       <c r="F38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C41" t="s">
-        <v>1229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s">
-        <v>1230</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="C43" t="s">
-        <v>1231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>317</v>
+        <v>1226</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" t="s">
-        <v>472</v>
+        <v>1157</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>352</v>
-      </c>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>746</v>
+      </c>
+      <c r="F46" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>1227</v>
-      </c>
       <c r="C47" t="s">
-        <v>1228</v>
+        <v>747</v>
+      </c>
+      <c r="F47" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>746</v>
+      <c r="C48" t="s">
+        <v>748</v>
+      </c>
+      <c r="F48" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="F49" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F50" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>309</v>
+      </c>
       <c r="C51" t="s">
-        <v>749</v>
-      </c>
-      <c r="F51" t="s">
-        <v>753</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>750</v>
-      </c>
-      <c r="F52" t="s">
-        <v>744</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>751</v>
-      </c>
-      <c r="F53" t="s">
-        <v>745</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>757</v>
+      <c r="B54" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>740</v>
-      </c>
       <c r="C55" t="s">
-        <v>595</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>758</v>
+      <c r="C56" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C57" t="s">
-        <v>318</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>316</v>
-      </c>
       <c r="C58" t="s">
-        <v>319</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>742</v>
-      </c>
       <c r="C59" t="s">
-        <v>743</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>1128</v>
+        <v>756</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
       <c r="B61" t="s">
-        <v>1136</v>
+        <v>739</v>
       </c>
       <c r="C61" t="s">
-        <v>1137</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
-      <c r="B62" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1130</v>
+      <c r="A62" s="23" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
       <c r="B63" t="s">
-        <v>1131</v>
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>1130</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
       <c r="B64" t="s">
-        <v>1139</v>
+        <v>315</v>
       </c>
       <c r="C64" t="s">
-        <v>1140</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
       <c r="B65" t="s">
-        <v>1132</v>
+        <v>741</v>
       </c>
       <c r="C65" t="s">
-        <v>1133</v>
+        <v>742</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
-      <c r="B66" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1135</v>
+      <c r="A66" s="23" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
+      <c r="B67" t="s">
+        <v>1135</v>
+      </c>
       <c r="C67" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="23"/>
+      <c r="B69" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="23"/>
+      <c r="B70" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="23" t="s">
-        <v>1176</v>
+      <c r="C70" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" t="s">
-        <v>1178</v>
+        <v>1131</v>
       </c>
       <c r="C71" t="s">
-        <v>1177</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" t="s">
-        <v>1179</v>
+        <v>1133</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
-      <c r="B73" t="s">
-        <v>1180</v>
+      <c r="C73" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
       <c r="B74" t="s">
-        <v>1181</v>
+        <v>1123</v>
       </c>
       <c r="C74" t="s">
-        <v>1187</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
       <c r="B75" t="s">
-        <v>1183</v>
+        <v>1124</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" t="s">
-        <v>1182</v>
+      <c r="A76" s="23" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="C77" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C80" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="23"/>
+      <c r="B81" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="23"/>
+      <c r="B83" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="23"/>
+      <c r="B84" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="23"/>
+      <c r="B85" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="C87" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>510</v>
       </c>
-      <c r="C81" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="C88" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>511</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C89" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>512</v>
-      </c>
-      <c r="C83" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>740</v>
+      </c>
+      <c r="C90" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>741</v>
-      </c>
-      <c r="C84" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="C92" t="s">
         <v>761</v>
       </c>
-      <c r="C86" t="s">
+      <c r="E92" t="s">
         <v>762</v>
-      </c>
-      <c r="E86" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E87" t="s">
-        <v>764</v>
-      </c>
-      <c r="F87" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E88" t="s">
-        <v>766</v>
-      </c>
-      <c r="F88" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E89" t="s">
-        <v>767</v>
-      </c>
-      <c r="F89" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E90" t="s">
-        <v>769</v>
-      </c>
-      <c r="F90" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E91" t="s">
-        <v>771</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E92" t="s">
-        <v>772</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>773</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="F93" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="F94" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F95" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
+        <v>768</v>
+      </c>
+      <c r="F96" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>770</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>771</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>772</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>773</v>
+      </c>
+      <c r="F100" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>774</v>
+      </c>
+      <c r="F101" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>776</v>
+      </c>
+      <c r="F102" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>778</v>
+      </c>
+      <c r="C103" t="s">
         <v>777</v>
-      </c>
-      <c r="F96" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>779</v>
-      </c>
-      <c r="C97" t="s">
-        <v>778</v>
       </c>
     </row>
   </sheetData>
@@ -13333,8 +13836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T209"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13356,7 +13859,7 @@
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -13376,7 +13879,7 @@
     </row>
     <row r="2" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G2" s="5"/>
       <c r="O2" s="5"/>
@@ -13385,7 +13888,7 @@
     </row>
     <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G3" s="5"/>
       <c r="O3" s="5"/>
@@ -13407,7 +13910,7 @@
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
       <c r="I5" s="46" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
@@ -13419,7 +13922,7 @@
     </row>
     <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
@@ -13434,14 +13937,14 @@
       <c r="M6" s="46"/>
       <c r="N6" s="46"/>
       <c r="O6" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P6" s="48"/>
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
@@ -13449,7 +13952,7 @@
       <c r="E7" s="51"/>
       <c r="F7" s="51"/>
       <c r="G7" s="54" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
@@ -13458,15 +13961,15 @@
       <c r="M7" s="46"/>
       <c r="N7" s="46"/>
       <c r="O7" s="48" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P7" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -13474,7 +13977,7 @@
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
       <c r="G8" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I8" s="46"/>
       <c r="J8" s="46"/>
@@ -13483,15 +13986,15 @@
       <c r="M8" s="46"/>
       <c r="N8" s="46"/>
       <c r="O8" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P8" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -13516,7 +14019,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -13541,7 +14044,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="P11" s="12"/>
     </row>
@@ -13576,7 +14079,7 @@
       <c r="G13" s="12"/>
       <c r="I13" s="9"/>
       <c r="J13" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
@@ -13592,7 +14095,7 @@
       <c r="G14" s="12"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -13608,7 +14111,7 @@
       <c r="G15" s="12"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -13624,7 +14127,7 @@
       <c r="G16" s="12"/>
       <c r="I16" s="9"/>
       <c r="J16" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -13648,7 +14151,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="12"/>
       <c r="S17" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -13818,7 +14321,7 @@
       <c r="G28" s="12"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
@@ -13826,7 +14329,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="12"/>
       <c r="S28" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -13837,7 +14340,7 @@
       <c r="G29" s="12"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
@@ -13853,7 +14356,7 @@
       <c r="G30" s="12"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
@@ -13876,7 +14379,7 @@
       <c r="O31" s="14"/>
       <c r="P31" s="12"/>
       <c r="S31" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -13902,7 +14405,7 @@
       <c r="G33" s="12"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
@@ -13927,7 +14430,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="12"/>
       <c r="S34" s="6" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -13996,7 +14499,7 @@
     <row r="39" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -14014,7 +14517,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -14032,7 +14535,7 @@
       <c r="A41" s="9"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -14050,7 +14553,7 @@
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -14063,14 +14566,14 @@
       <c r="O42" s="14"/>
       <c r="P42" s="12"/>
       <c r="S42" s="56" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -14089,7 +14592,7 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E44" s="11"/>
       <c r="G44" s="12"/>
@@ -14101,7 +14604,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="12"/>
       <c r="S44" s="56" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14109,7 +14612,7 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E45" s="11"/>
       <c r="G45" s="12"/>
@@ -14121,13 +14624,13 @@
       <c r="O45" s="14"/>
       <c r="P45" s="12"/>
       <c r="S45" s="56" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -14140,13 +14643,13 @@
       <c r="O46" s="14"/>
       <c r="P46" s="12"/>
       <c r="S46" s="56" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -14159,14 +14662,14 @@
       <c r="O47" s="14"/>
       <c r="P47" s="12"/>
       <c r="S47" s="56" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -14179,7 +14682,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="12"/>
       <c r="S48" s="56" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14366,7 +14869,7 @@
       <c r="A59" s="9"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -14379,14 +14882,14 @@
       <c r="O59" s="14"/>
       <c r="P59" s="12"/>
       <c r="S59" s="56" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -14404,7 +14907,7 @@
       <c r="A61" s="9"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -14421,7 +14924,7 @@
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -14434,14 +14937,14 @@
       <c r="O62" s="14"/>
       <c r="P62" s="12"/>
       <c r="S62" s="56" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -14459,7 +14962,7 @@
       <c r="A64" s="9"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -14489,7 +14992,7 @@
       <c r="O65" s="14"/>
       <c r="P65" s="12"/>
       <c r="S65" s="56" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14546,7 +15049,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -14590,7 +15093,7 @@
     <row r="71" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -14605,13 +15108,13 @@
       <c r="O71" s="14"/>
       <c r="P71" s="12"/>
       <c r="S71" s="56" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="11" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -14626,13 +15129,13 @@
       <c r="O72" s="14"/>
       <c r="P72" s="12"/>
       <c r="S72" s="56" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="9"/>
       <c r="B73" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -14641,7 +15144,7 @@
       <c r="G73" s="43"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
@@ -14883,7 +15386,7 @@
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -14892,7 +15395,7 @@
       <c r="G82" s="12"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
@@ -15676,7 +16179,7 @@
       <c r="O114" s="16"/>
       <c r="P114" s="13"/>
       <c r="S114" s="60" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -15749,7 +16252,7 @@
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -15792,7 +16295,7 @@
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -16154,7 +16657,7 @@
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -16175,7 +16678,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -16217,7 +16720,7 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="G140" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="9"/>
@@ -16239,10 +16742,10 @@
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="9"/>
@@ -16266,10 +16769,10 @@
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="43" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="9"/>
@@ -16448,7 +16951,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="27" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -16548,7 +17051,7 @@
         <v>106</v>
       </c>
       <c r="S155" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="156" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -16572,7 +17075,7 @@
         <v>107</v>
       </c>
       <c r="S156" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
@@ -16739,7 +17242,7 @@
     <row r="164" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E164" s="9"/>
       <c r="G164" s="13"/>
@@ -16756,7 +17259,7 @@
     <row r="165" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E165" s="9"/>
       <c r="G165" s="13"/>
@@ -16773,7 +17276,7 @@
     <row r="166" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E166" s="9"/>
       <c r="G166" s="13"/>
@@ -16790,7 +17293,7 @@
     <row r="167" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="11" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E167" s="9"/>
       <c r="G167" s="13"/>
@@ -16807,7 +17310,7 @@
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -16827,7 +17330,7 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -16913,10 +17416,10 @@
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="43" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I173" s="17"/>
       <c r="J173" s="9"/>
@@ -16943,7 +17446,7 @@
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="43" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G174" s="19" t="s">
         <v>53</v>
@@ -16968,7 +17471,7 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -17030,10 +17533,10 @@
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="43" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="9"/>
@@ -17057,10 +17560,10 @@
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="43" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="9"/>
@@ -17561,7 +18064,7 @@
     <row r="202" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -17579,7 +18082,7 @@
     <row r="203" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -17597,7 +18100,7 @@
     <row r="204" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -17615,7 +18118,7 @@
     <row r="205" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -17670,23 +18173,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17731,7 +18234,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11">
         <v>180</v>
@@ -17742,7 +18245,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12">
         <v>255</v>
@@ -17753,7 +18256,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -17788,7 +18291,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17">
         <v>230</v>
@@ -17834,7 +18337,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B22">
         <v>330</v>
@@ -17845,7 +18348,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B24" s="36">
         <f>B25-14</f>
@@ -17858,7 +18361,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B25" s="39">
         <v>204</v>
@@ -17868,23 +18371,23 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:C22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C22">
     <sortCondition ref="B9:B22"/>
   </sortState>
-  <conditionalFormatting sqref="B7:C22">
-    <cfRule type="expression" dxfId="3" priority="7">
+  <conditionalFormatting sqref="B7:C13">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>B7&lt;B$25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>B7&gt;=B$25</formula>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>B1048560&gt;=B$25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C13">
-    <cfRule type="expression" dxfId="1" priority="9">
+  <conditionalFormatting sqref="B7:C22">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>B7&lt;B$25</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="10">
-      <formula>B1048560&gt;=B$25</formula>
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>B7&gt;=B$25</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -17899,21 +18402,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" t="s">
         <v>1106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -18638,10 +19143,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="I1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -18649,7 +19154,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J2">
         <v>6.0000000000000002E-6</v>
@@ -18657,48 +19162,48 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" t="s">
+        <v>707</v>
+      </c>
+      <c r="F4" t="s">
         <v>1100</v>
       </c>
-      <c r="C4" t="s">
-        <v>707</v>
-      </c>
-      <c r="D4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H4" t="s">
         <v>708</v>
       </c>
-      <c r="F4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="H4" t="s">
-        <v>709</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -18726,10 +19231,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C8">
         <v>390</v>
@@ -18747,7 +19252,7 @@
         <v>1.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I8" s="2" t="str">
         <f>""</f>
@@ -18761,15 +19266,15 @@
         <v>2.5</v>
       </c>
       <c r="L8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C9">
         <v>770</v>
@@ -18787,7 +19292,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>""</f>
@@ -18800,10 +19305,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B10" t="s">
         <v>655</v>
-      </c>
-      <c r="B10" t="s">
-        <v>656</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -18821,7 +19326,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>""</f>
@@ -18834,10 +19339,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -18855,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>""</f>
@@ -18868,10 +19373,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C12">
         <v>500</v>
@@ -18889,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>""</f>
@@ -18902,10 +19407,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B13" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -18923,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>""</f>
@@ -18936,10 +19441,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>636</v>
+      </c>
+      <c r="B14" t="s">
         <v>637</v>
-      </c>
-      <c r="B14" t="s">
-        <v>638</v>
       </c>
       <c r="C14">
         <v>770</v>
@@ -18957,7 +19462,7 @@
         <v>1.5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>""</f>
@@ -18970,10 +19475,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C15">
         <v>770</v>
@@ -18991,7 +19496,7 @@
         <v>3.5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>""</f>
@@ -19004,10 +19509,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B16" t="s">
         <v>631</v>
-      </c>
-      <c r="B16" t="s">
-        <v>632</v>
       </c>
       <c r="C16">
         <v>570</v>
@@ -19025,7 +19530,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>""</f>
@@ -19038,10 +19543,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B17" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C17">
         <v>390</v>
@@ -19059,7 +19564,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>""</f>
@@ -19072,10 +19577,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C18">
         <v>390</v>
@@ -19093,7 +19598,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I18" s="2" t="str">
         <f>""</f>
@@ -19106,10 +19611,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C19">
         <v>390</v>
@@ -19127,7 +19632,7 @@
         <v>1.4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>""</f>
@@ -19140,10 +19645,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B20" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C20">
         <v>770</v>
@@ -19161,7 +19666,7 @@
         <v>1.5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>""</f>
@@ -19174,10 +19679,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C21">
         <v>770</v>
@@ -19195,7 +19700,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>""</f>
@@ -19208,10 +19713,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C22">
         <v>570</v>
@@ -19229,7 +19734,7 @@
         <v>4.5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I22" s="2" t="str">
         <f>""</f>
@@ -19242,10 +19747,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>627</v>
+      </c>
+      <c r="B23" t="s">
         <v>628</v>
-      </c>
-      <c r="B23" t="s">
-        <v>629</v>
       </c>
       <c r="C23">
         <v>390</v>
@@ -19263,7 +19768,7 @@
         <v>1.6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>""</f>
@@ -19276,10 +19781,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>692</v>
+      </c>
+      <c r="B24" t="s">
         <v>693</v>
-      </c>
-      <c r="B24" t="s">
-        <v>694</v>
       </c>
       <c r="C24">
         <v>290</v>
@@ -19297,7 +19802,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>""</f>
@@ -19310,10 +19815,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C25">
         <v>390</v>
@@ -19331,7 +19836,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>""</f>
@@ -19344,10 +19849,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>689</v>
+      </c>
+      <c r="B26" t="s">
         <v>690</v>
-      </c>
-      <c r="B26" t="s">
-        <v>691</v>
       </c>
       <c r="C26">
         <v>570</v>
@@ -19365,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>""</f>
@@ -19378,10 +19883,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B27" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C27">
         <v>770</v>
@@ -19399,7 +19904,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>""</f>
@@ -19412,10 +19917,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>697</v>
+      </c>
+      <c r="B28" t="s">
         <v>698</v>
-      </c>
-      <c r="B28" t="s">
-        <v>699</v>
       </c>
       <c r="C28">
         <v>750</v>
@@ -19433,7 +19938,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I28" s="2" t="str">
         <f>""</f>
@@ -19446,10 +19951,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B29" t="s">
         <v>681</v>
-      </c>
-      <c r="B29" t="s">
-        <v>682</v>
       </c>
       <c r="C29">
         <v>390</v>
@@ -19467,7 +19972,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I29" s="2" t="str">
         <f>""</f>
@@ -19480,10 +19985,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>639</v>
+      </c>
+      <c r="B30" t="s">
         <v>640</v>
-      </c>
-      <c r="B30" t="s">
-        <v>641</v>
       </c>
       <c r="C30">
         <v>290</v>
@@ -19501,7 +20006,7 @@
         <v>6.5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I30" s="2" t="str">
         <f>""</f>
@@ -19514,10 +20019,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>672</v>
+      </c>
+      <c r="B31" t="s">
         <v>673</v>
-      </c>
-      <c r="B31" t="s">
-        <v>674</v>
       </c>
       <c r="C31">
         <v>770</v>
@@ -19535,7 +20040,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>""</f>
@@ -19548,10 +20053,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B32" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C32">
         <v>390</v>
@@ -19569,7 +20074,7 @@
         <v>3.5</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I32" s="2" t="str">
         <f>""</f>
@@ -19582,10 +20087,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C33">
         <v>770</v>
@@ -19603,7 +20108,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I33" s="2" t="str">
         <f>""</f>
@@ -19616,10 +20121,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C34">
         <v>770</v>
@@ -19637,7 +20142,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>""</f>
@@ -19650,10 +20155,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C35">
         <v>770</v>
@@ -19671,7 +20176,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>""</f>
@@ -19684,10 +20189,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>661</v>
+      </c>
+      <c r="B36" t="s">
         <v>662</v>
-      </c>
-      <c r="B36" t="s">
-        <v>663</v>
       </c>
       <c r="C36">
         <v>390</v>
@@ -19705,7 +20210,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>""</f>
@@ -19719,15 +20224,15 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>675</v>
+      </c>
+      <c r="B37" t="s">
         <v>676</v>
-      </c>
-      <c r="B37" t="s">
-        <v>677</v>
       </c>
       <c r="C37">
         <v>390</v>
@@ -19745,7 +20250,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I37" s="2" t="str">
         <f>""</f>
@@ -19758,10 +20263,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>633</v>
+      </c>
+      <c r="B38" t="s">
         <v>634</v>
-      </c>
-      <c r="B38" t="s">
-        <v>635</v>
       </c>
       <c r="C38">
         <v>290</v>
@@ -19779,7 +20284,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>""</f>
@@ -19792,10 +20297,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C39">
         <v>390</v>
@@ -19813,7 +20318,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>""</f>
@@ -19826,10 +20331,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C40">
         <v>570</v>
@@ -19847,7 +20352,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I40" s="2" t="str">
         <f>""</f>
@@ -19860,10 +20365,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>617</v>
+      </c>
+      <c r="B41" t="s">
         <v>618</v>
-      </c>
-      <c r="B41" t="s">
-        <v>619</v>
       </c>
       <c r="C41">
         <v>770</v>
@@ -19881,7 +20386,7 @@
         <v>30</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>""</f>
@@ -19894,10 +20399,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C42">
         <v>770</v>
@@ -19915,7 +20420,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>""</f>
@@ -19928,10 +20433,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>620</v>
+      </c>
+      <c r="B43" t="s">
         <v>621</v>
-      </c>
-      <c r="B43" t="s">
-        <v>622</v>
       </c>
       <c r="C43">
         <v>390</v>
@@ -19949,7 +20454,7 @@
         <v>30</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>""</f>
@@ -19961,7 +20466,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A9:H44">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:H44">
     <sortCondition ref="F9:F44"/>
   </sortState>
   <hyperlinks>
@@ -20036,45 +20541,45 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="U3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
       </c>
       <c r="K4" t="s">
+        <v>987</v>
+      </c>
+      <c r="L4" t="s">
         <v>988</v>
       </c>
-      <c r="L4" t="s">
-        <v>989</v>
-      </c>
       <c r="M4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N4" t="s">
+        <v>985</v>
+      </c>
+      <c r="O4" t="s">
         <v>986</v>
-      </c>
-      <c r="O4" t="s">
-        <v>987</v>
       </c>
       <c r="R4" t="s">
         <v>170</v>
       </c>
       <c r="T4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="U4" t="s">
         <v>12</v>
@@ -20086,13 +20591,13 @@
         <v>12</v>
       </c>
       <c r="X4" t="s">
+        <v>990</v>
+      </c>
+      <c r="Y4" t="s">
         <v>991</v>
       </c>
-      <c r="Y4" t="s">
-        <v>992</v>
-      </c>
       <c r="AA4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -20100,16 +20605,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="X5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="Y5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -20117,19 +20622,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="X6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Y6" t="s">
         <v>1095</v>
       </c>
-      <c r="Y6" t="s">
-        <v>1096</v>
-      </c>
       <c r="AA6" t="s">
+        <v>990</v>
+      </c>
+      <c r="AB6" t="s">
         <v>991</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -20137,28 +20642,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="P7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="Q7" t="s">
+        <v>995</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="X7" t="s">
+        <v>995</v>
+      </c>
+      <c r="Y7" t="s">
         <v>996</v>
       </c>
-      <c r="U7" t="s">
-        <v>1093</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="AC7" t="s">
+        <v>995</v>
+      </c>
+      <c r="AD7" t="s">
         <v>996</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>997</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>996</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -20166,19 +20671,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
+        <v>811</v>
+      </c>
+      <c r="L8" t="s">
         <v>812</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>813</v>
-      </c>
-      <c r="M8" t="s">
-        <v>814</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -20196,7 +20701,7 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="X8">
         <v>10</v>
@@ -20218,19 +20723,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
+        <v>814</v>
+      </c>
+      <c r="L9" t="s">
         <v>815</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>816</v>
-      </c>
-      <c r="M9" t="s">
-        <v>817</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -20248,16 +20753,16 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U9" t="s">
+        <v>992</v>
+      </c>
+      <c r="V9" t="s">
         <v>993</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>994</v>
-      </c>
-      <c r="W9" t="s">
-        <v>995</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -20285,19 +20790,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
+        <v>817</v>
+      </c>
+      <c r="L10" t="s">
         <v>818</v>
       </c>
-      <c r="L10" t="s">
-        <v>819</v>
-      </c>
       <c r="M10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -20315,16 +20820,16 @@
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U10" t="s">
+        <v>992</v>
+      </c>
+      <c r="V10" t="s">
         <v>993</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>994</v>
-      </c>
-      <c r="W10" t="s">
-        <v>995</v>
       </c>
       <c r="X10">
         <v>4</v>
@@ -20352,22 +20857,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C11" t="s">
         <v>713</v>
-      </c>
-      <c r="C11" t="s">
-        <v>714</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" t="s">
+        <v>819</v>
+      </c>
+      <c r="L11" t="s">
         <v>820</v>
       </c>
-      <c r="L11" t="s">
-        <v>821</v>
-      </c>
       <c r="M11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -20385,13 +20890,13 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V11" t="s">
+        <v>993</v>
+      </c>
+      <c r="W11" t="s">
         <v>994</v>
-      </c>
-      <c r="W11" t="s">
-        <v>995</v>
       </c>
       <c r="X11">
         <v>8</v>
@@ -20419,22 +20924,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C12" t="s">
         <v>715</v>
-      </c>
-      <c r="C12" t="s">
-        <v>716</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" t="s">
+        <v>821</v>
+      </c>
+      <c r="L12" t="s">
         <v>822</v>
       </c>
-      <c r="L12" t="s">
-        <v>823</v>
-      </c>
       <c r="M12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -20452,13 +20957,13 @@
         <v>5</v>
       </c>
       <c r="T12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V12" t="s">
+        <v>993</v>
+      </c>
+      <c r="W12" t="s">
         <v>994</v>
-      </c>
-      <c r="W12" t="s">
-        <v>995</v>
       </c>
       <c r="X12">
         <v>8</v>
@@ -20486,22 +20991,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>716</v>
+      </c>
+      <c r="C13" t="s">
         <v>717</v>
-      </c>
-      <c r="C13" t="s">
-        <v>718</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>823</v>
+      </c>
+      <c r="L13" t="s">
         <v>824</v>
       </c>
-      <c r="L13" t="s">
-        <v>825</v>
-      </c>
       <c r="M13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -20519,13 +21024,13 @@
         <v>6</v>
       </c>
       <c r="T13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V13" t="s">
+        <v>993</v>
+      </c>
+      <c r="W13" t="s">
         <v>994</v>
-      </c>
-      <c r="W13" t="s">
-        <v>995</v>
       </c>
       <c r="X13">
         <v>8</v>
@@ -20553,13 +21058,13 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
+        <v>825</v>
+      </c>
+      <c r="L14" t="s">
         <v>826</v>
       </c>
-      <c r="L14" t="s">
-        <v>827</v>
-      </c>
       <c r="M14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -20577,10 +21082,10 @@
         <v>7</v>
       </c>
       <c r="T14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="W14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="X14">
         <v>13</v>
@@ -20608,13 +21113,13 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
+        <v>827</v>
+      </c>
+      <c r="L15" t="s">
         <v>828</v>
       </c>
-      <c r="L15" t="s">
-        <v>829</v>
-      </c>
       <c r="M15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -20642,19 +21147,19 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J16">
         <v>9</v>
       </c>
       <c r="K16" t="s">
+        <v>829</v>
+      </c>
+      <c r="L16" t="s">
         <v>830</v>
       </c>
-      <c r="L16" t="s">
-        <v>831</v>
-      </c>
       <c r="M16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -20672,10 +21177,10 @@
         <v>9</v>
       </c>
       <c r="T16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="X16">
         <v>8</v>
@@ -20694,19 +21199,19 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17" t="s">
+        <v>831</v>
+      </c>
+      <c r="L17" t="s">
         <v>832</v>
       </c>
-      <c r="L17" t="s">
-        <v>833</v>
-      </c>
       <c r="M17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -20734,19 +21239,19 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J18">
         <v>11</v>
       </c>
       <c r="K18" t="s">
+        <v>833</v>
+      </c>
+      <c r="L18" t="s">
         <v>834</v>
       </c>
-      <c r="L18" t="s">
-        <v>835</v>
-      </c>
       <c r="M18" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -20777,13 +21282,13 @@
         <v>12</v>
       </c>
       <c r="K19" t="s">
+        <v>835</v>
+      </c>
+      <c r="L19" t="s">
         <v>836</v>
       </c>
-      <c r="L19" t="s">
-        <v>837</v>
-      </c>
       <c r="M19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -20801,16 +21306,16 @@
         <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="U19" t="s">
+        <v>999</v>
+      </c>
+      <c r="V19" t="s">
         <v>1000</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>1001</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1002</v>
       </c>
       <c r="X19">
         <v>5</v>
@@ -20835,19 +21340,19 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J20">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M20" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -20859,7 +21364,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="41" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R20">
         <v>13</v>
@@ -20875,19 +21380,19 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J21">
         <v>14</v>
       </c>
       <c r="K21" t="s">
+        <v>838</v>
+      </c>
+      <c r="L21" t="s">
         <v>839</v>
       </c>
-      <c r="L21" t="s">
-        <v>840</v>
-      </c>
       <c r="M21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -20918,37 +21423,37 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>784</v>
+      </c>
+      <c r="B22" t="s">
         <v>785</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>786</v>
       </c>
-      <c r="C22" t="s">
-        <v>787</v>
-      </c>
       <c r="D22" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J22">
         <v>15</v>
       </c>
       <c r="K22" t="s">
+        <v>840</v>
+      </c>
+      <c r="L22" t="s">
         <v>841</v>
       </c>
-      <c r="L22" t="s">
-        <v>842</v>
-      </c>
       <c r="M22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -20976,31 +21481,31 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D23" t="s">
+        <v>789</v>
+      </c>
+      <c r="E23" t="s">
         <v>790</v>
       </c>
-      <c r="E23" t="s">
-        <v>791</v>
-      </c>
       <c r="F23" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J23">
         <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M23" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -21031,13 +21536,13 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L24" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M24" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -21068,13 +21573,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M25" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -21105,13 +21610,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L26" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -21142,13 +21647,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -21191,19 +21696,19 @@
         <v>500000000</v>
       </c>
       <c r="G28" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J28">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L28" t="s">
+        <v>815</v>
+      </c>
+      <c r="M28" t="s">
         <v>816</v>
-      </c>
-      <c r="M28" t="s">
-        <v>817</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -21249,13 +21754,13 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L29" t="s">
+        <v>815</v>
+      </c>
+      <c r="M29" t="s">
         <v>816</v>
-      </c>
-      <c r="M29" t="s">
-        <v>817</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -21298,19 +21803,19 @@
         <v>150000000</v>
       </c>
       <c r="G30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J30">
         <v>23</v>
       </c>
       <c r="K30" t="s">
+        <v>848</v>
+      </c>
+      <c r="L30" t="s">
         <v>849</v>
       </c>
-      <c r="L30" t="s">
-        <v>850</v>
-      </c>
       <c r="M30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -21353,19 +21858,19 @@
         <v>70000000</v>
       </c>
       <c r="G31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J31">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L31" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -21383,10 +21888,10 @@
         <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U31" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -21420,13 +21925,13 @@
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M32" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -21469,19 +21974,19 @@
         <v>15000000</v>
       </c>
       <c r="G33" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J33">
         <v>26</v>
       </c>
       <c r="K33" t="s">
+        <v>852</v>
+      </c>
+      <c r="L33" t="s">
         <v>853</v>
       </c>
-      <c r="L33" t="s">
-        <v>854</v>
-      </c>
       <c r="M33" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -21499,10 +22004,10 @@
         <v>26</v>
       </c>
       <c r="T33" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U33" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="X33">
         <v>12</v>
@@ -21533,19 +22038,19 @@
         <v>10000000</v>
       </c>
       <c r="G34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J34">
         <v>27</v>
       </c>
       <c r="K34" t="s">
+        <v>854</v>
+      </c>
+      <c r="L34" t="s">
         <v>855</v>
       </c>
-      <c r="L34" t="s">
-        <v>856</v>
-      </c>
       <c r="M34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -21563,10 +22068,10 @@
         <v>27</v>
       </c>
       <c r="T34" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U34" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="X34">
         <v>12</v>
@@ -21597,19 +22102,19 @@
         <v>4000000</v>
       </c>
       <c r="G35" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J35">
         <v>28</v>
       </c>
       <c r="K35" t="s">
+        <v>856</v>
+      </c>
+      <c r="L35" t="s">
         <v>857</v>
       </c>
-      <c r="L35" t="s">
-        <v>858</v>
-      </c>
       <c r="M35" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -21655,13 +22160,13 @@
         <v>29</v>
       </c>
       <c r="K36" t="s">
+        <v>858</v>
+      </c>
+      <c r="L36" t="s">
         <v>859</v>
       </c>
-      <c r="L36" t="s">
-        <v>860</v>
-      </c>
       <c r="M36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -21679,10 +22184,10 @@
         <v>29</v>
       </c>
       <c r="T36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="X36">
         <v>12</v>
@@ -21713,19 +22218,19 @@
         <v>1000000</v>
       </c>
       <c r="G37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J37">
         <v>30</v>
       </c>
       <c r="K37" t="s">
+        <v>860</v>
+      </c>
+      <c r="L37" t="s">
         <v>861</v>
       </c>
-      <c r="L37" t="s">
-        <v>862</v>
-      </c>
       <c r="M37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -21743,10 +22248,10 @@
         <v>30</v>
       </c>
       <c r="T37" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U37" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="X37">
         <v>12</v>
@@ -21777,19 +22282,19 @@
         <v>500000</v>
       </c>
       <c r="G38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J38">
         <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M38" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -21807,10 +22312,10 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="U38" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="X38">
         <v>12</v>
@@ -21841,19 +22346,19 @@
         <v>250000</v>
       </c>
       <c r="G39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J39">
         <v>32</v>
       </c>
       <c r="K39" t="s">
+        <v>863</v>
+      </c>
+      <c r="L39" t="s">
         <v>864</v>
       </c>
-      <c r="L39" t="s">
-        <v>865</v>
-      </c>
       <c r="M39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -21896,19 +22401,19 @@
         <v>150000</v>
       </c>
       <c r="G40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J40">
         <v>33</v>
       </c>
       <c r="K40" t="s">
+        <v>865</v>
+      </c>
+      <c r="L40" t="s">
         <v>866</v>
       </c>
-      <c r="L40" t="s">
-        <v>867</v>
-      </c>
       <c r="M40" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -21951,22 +22456,22 @@
         <v>70000</v>
       </c>
       <c r="G41" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J41">
         <v>34</v>
       </c>
       <c r="K41" t="s">
+        <v>867</v>
+      </c>
+      <c r="L41" t="s">
         <v>868</v>
       </c>
-      <c r="L41" t="s">
-        <v>869</v>
-      </c>
       <c r="M41" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -22009,19 +22514,19 @@
         <v>35000</v>
       </c>
       <c r="H42" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J42">
         <v>35</v>
       </c>
       <c r="K42" t="s">
+        <v>869</v>
+      </c>
+      <c r="L42" t="s">
         <v>870</v>
       </c>
-      <c r="L42" t="s">
-        <v>871</v>
-      </c>
       <c r="M42" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -22064,22 +22569,22 @@
         <v>15000</v>
       </c>
       <c r="G43" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H43" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J43">
         <v>36</v>
       </c>
       <c r="K43" t="s">
+        <v>871</v>
+      </c>
+      <c r="L43" t="s">
         <v>872</v>
       </c>
-      <c r="L43" t="s">
-        <v>873</v>
-      </c>
       <c r="M43" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -22122,22 +22627,22 @@
         <v>8000</v>
       </c>
       <c r="G44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H44" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="J44">
         <v>37</v>
       </c>
       <c r="K44" t="s">
+        <v>873</v>
+      </c>
+      <c r="L44" t="s">
         <v>874</v>
       </c>
-      <c r="L44" t="s">
-        <v>875</v>
-      </c>
       <c r="M44" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -22155,10 +22660,10 @@
         <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="U44" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="X44">
         <v>10</v>
@@ -22189,19 +22694,19 @@
         <v>4000</v>
       </c>
       <c r="G45" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J45">
         <v>38</v>
       </c>
       <c r="K45" t="s">
+        <v>875</v>
+      </c>
+      <c r="L45" t="s">
         <v>876</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>877</v>
-      </c>
-      <c r="M45" t="s">
-        <v>878</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -22219,16 +22724,16 @@
         <v>38</v>
       </c>
       <c r="T45" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U45" t="s">
+        <v>1005</v>
+      </c>
+      <c r="V45" t="s">
         <v>1006</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>1007</v>
-      </c>
-      <c r="W45" t="s">
-        <v>1008</v>
       </c>
       <c r="X45">
         <v>14</v>
@@ -22259,19 +22764,19 @@
         <v>2000</v>
       </c>
       <c r="G46" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J46">
         <v>39</v>
       </c>
       <c r="K46" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M46" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -22317,19 +22822,19 @@
         <v>1000</v>
       </c>
       <c r="G47" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J47">
         <v>40</v>
       </c>
       <c r="K47" t="s">
+        <v>879</v>
+      </c>
+      <c r="L47" t="s">
         <v>880</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>881</v>
-      </c>
-      <c r="M47" t="s">
-        <v>882</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -22375,19 +22880,19 @@
         <v>500</v>
       </c>
       <c r="G48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J48">
         <v>41</v>
       </c>
       <c r="K48" t="s">
+        <v>882</v>
+      </c>
+      <c r="L48" t="s">
+        <v>880</v>
+      </c>
+      <c r="M48" t="s">
         <v>883</v>
-      </c>
-      <c r="L48" t="s">
-        <v>881</v>
-      </c>
-      <c r="M48" t="s">
-        <v>884</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -22421,13 +22926,13 @@
         <v>42</v>
       </c>
       <c r="K49" t="s">
+        <v>884</v>
+      </c>
+      <c r="L49" t="s">
+        <v>880</v>
+      </c>
+      <c r="M49" t="s">
         <v>885</v>
-      </c>
-      <c r="L49" t="s">
-        <v>881</v>
-      </c>
-      <c r="M49" t="s">
-        <v>886</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -22461,13 +22966,13 @@
         <v>43</v>
       </c>
       <c r="K50" t="s">
+        <v>886</v>
+      </c>
+      <c r="L50" t="s">
+        <v>880</v>
+      </c>
+      <c r="M50" t="s">
         <v>887</v>
-      </c>
-      <c r="L50" t="s">
-        <v>881</v>
-      </c>
-      <c r="M50" t="s">
-        <v>888</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -22498,13 +23003,13 @@
         <v>44</v>
       </c>
       <c r="K51" t="s">
+        <v>888</v>
+      </c>
+      <c r="L51" t="s">
         <v>889</v>
       </c>
-      <c r="L51" t="s">
-        <v>890</v>
-      </c>
       <c r="M51" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -22535,13 +23040,13 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
+        <v>890</v>
+      </c>
+      <c r="L52" t="s">
         <v>891</v>
       </c>
-      <c r="L52" t="s">
-        <v>892</v>
-      </c>
       <c r="M52" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -22572,13 +23077,13 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L53" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M53" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -22596,16 +23101,16 @@
         <v>46</v>
       </c>
       <c r="T53" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="U53" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V53" t="s">
+        <v>1008</v>
+      </c>
+      <c r="W53" t="s">
         <v>1009</v>
-      </c>
-      <c r="W53" t="s">
-        <v>1010</v>
       </c>
       <c r="X53">
         <v>13</v>
@@ -22624,13 +23129,13 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L54" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M54" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -22648,16 +23153,16 @@
         <v>47</v>
       </c>
       <c r="T54" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="U54" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="V54" t="s">
+        <v>1008</v>
+      </c>
+      <c r="W54" t="s">
         <v>1009</v>
-      </c>
-      <c r="W54" t="s">
-        <v>1010</v>
       </c>
       <c r="X54">
         <v>13</v>
@@ -22676,13 +23181,13 @@
         <v>48</v>
       </c>
       <c r="K55" t="s">
+        <v>892</v>
+      </c>
+      <c r="L55" t="s">
         <v>893</v>
       </c>
-      <c r="L55" t="s">
-        <v>894</v>
-      </c>
       <c r="M55" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -22713,13 +23218,13 @@
         <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="L56" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M56" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -22750,13 +23255,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s">
+        <v>895</v>
+      </c>
+      <c r="L57" t="s">
         <v>896</v>
       </c>
-      <c r="L57" t="s">
-        <v>897</v>
-      </c>
       <c r="M57" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -22787,13 +23292,13 @@
         <v>51</v>
       </c>
       <c r="K58" t="s">
+        <v>897</v>
+      </c>
+      <c r="L58" t="s">
         <v>898</v>
       </c>
-      <c r="L58" t="s">
-        <v>899</v>
-      </c>
       <c r="M58" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -22824,13 +23329,13 @@
         <v>52</v>
       </c>
       <c r="K59" t="s">
+        <v>899</v>
+      </c>
+      <c r="L59" t="s">
         <v>900</v>
       </c>
-      <c r="L59" t="s">
-        <v>901</v>
-      </c>
       <c r="M59" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -22864,13 +23369,13 @@
         <v>53</v>
       </c>
       <c r="K60" t="s">
+        <v>901</v>
+      </c>
+      <c r="L60" t="s">
         <v>902</v>
       </c>
-      <c r="L60" t="s">
-        <v>903</v>
-      </c>
       <c r="M60" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -22904,13 +23409,13 @@
         <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L61" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M61" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -22944,13 +23449,13 @@
         <v>55</v>
       </c>
       <c r="K62" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="L62" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M62" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -22984,13 +23489,13 @@
         <v>56</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L63" t="s">
+        <v>906</v>
+      </c>
+      <c r="M63" t="s">
         <v>907</v>
-      </c>
-      <c r="M63" t="s">
-        <v>908</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -23024,13 +23529,13 @@
         <v>57</v>
       </c>
       <c r="K64" s="39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="L64" t="s">
+        <v>906</v>
+      </c>
+      <c r="M64" t="s">
         <v>907</v>
-      </c>
-      <c r="M64" t="s">
-        <v>908</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -23064,13 +23569,13 @@
         <v>58</v>
       </c>
       <c r="K65" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="L65" t="s">
         <v>906</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>907</v>
-      </c>
-      <c r="M65" t="s">
-        <v>908</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -23104,13 +23609,13 @@
         <v>59</v>
       </c>
       <c r="K66" t="s">
+        <v>908</v>
+      </c>
+      <c r="L66" t="s">
         <v>909</v>
       </c>
-      <c r="L66" t="s">
-        <v>910</v>
-      </c>
       <c r="M66" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -23144,13 +23649,13 @@
         <v>60</v>
       </c>
       <c r="K67" t="s">
+        <v>910</v>
+      </c>
+      <c r="L67" t="s">
         <v>911</v>
       </c>
-      <c r="L67" t="s">
-        <v>912</v>
-      </c>
       <c r="M67" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -23184,13 +23689,13 @@
         <v>61</v>
       </c>
       <c r="K68" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L68" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M68" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -23224,13 +23729,13 @@
         <v>62</v>
       </c>
       <c r="K69" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L69" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -23242,7 +23747,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R69">
         <v>60</v>
@@ -23264,13 +23769,13 @@
         <v>63</v>
       </c>
       <c r="K70" t="s">
+        <v>913</v>
+      </c>
+      <c r="L70" t="s">
         <v>914</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>915</v>
-      </c>
-      <c r="M70" t="s">
-        <v>916</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -23304,13 +23809,13 @@
         <v>64</v>
       </c>
       <c r="K71" t="s">
+        <v>916</v>
+      </c>
+      <c r="L71" t="s">
         <v>917</v>
       </c>
-      <c r="L71" t="s">
-        <v>918</v>
-      </c>
       <c r="M71" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -23344,13 +23849,13 @@
         <v>65</v>
       </c>
       <c r="K72" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L72" t="s">
+        <v>876</v>
+      </c>
+      <c r="M72" t="s">
         <v>877</v>
-      </c>
-      <c r="M72" t="s">
-        <v>878</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -23362,7 +23867,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R72">
         <v>63</v>
@@ -23384,13 +23889,13 @@
         <v>66</v>
       </c>
       <c r="K73" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L73" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M73" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -23402,7 +23907,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R73">
         <v>64</v>
@@ -23424,13 +23929,13 @@
         <v>67</v>
       </c>
       <c r="K74" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L74" t="s">
+        <v>880</v>
+      </c>
+      <c r="M74" t="s">
         <v>881</v>
-      </c>
-      <c r="M74" t="s">
-        <v>882</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -23442,7 +23947,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R74">
         <v>65</v>
@@ -23464,13 +23969,13 @@
         <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L75" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M75" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -23482,7 +23987,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R75">
         <v>66</v>
@@ -23501,13 +24006,13 @@
         <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L76" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M76" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -23519,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R76">
         <v>67</v>
@@ -23538,13 +24043,13 @@
         <v>70</v>
       </c>
       <c r="K77" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L77" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -23556,7 +24061,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R77">
         <v>68</v>
@@ -23575,13 +24080,13 @@
         <v>71</v>
       </c>
       <c r="K78" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L78" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M78" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -23593,7 +24098,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R78">
         <v>69</v>
@@ -23612,13 +24117,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L79" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M79" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -23630,7 +24135,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R79">
         <v>70</v>
@@ -23649,13 +24154,13 @@
         <v>73</v>
       </c>
       <c r="K80" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L80" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M80" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -23667,7 +24172,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R80">
         <v>71</v>
@@ -23686,13 +24191,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L81" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M81" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -23704,7 +24209,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R81">
         <v>72</v>
@@ -23723,13 +24228,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s">
+        <v>926</v>
+      </c>
+      <c r="L82" t="s">
+        <v>896</v>
+      </c>
+      <c r="M82" t="s">
         <v>927</v>
-      </c>
-      <c r="L82" t="s">
-        <v>897</v>
-      </c>
-      <c r="M82" t="s">
-        <v>928</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -23741,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R82">
         <v>73</v>
@@ -23760,13 +24265,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L83" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M83" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -23778,7 +24283,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R83">
         <v>74</v>
@@ -23797,13 +24302,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L84" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M84" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -23815,7 +24320,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R84">
         <v>75</v>
@@ -23834,13 +24339,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L85" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M85" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -23852,7 +24357,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R85">
         <v>76</v>
@@ -23871,13 +24376,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L86" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M86" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -23889,7 +24394,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R86">
         <v>77</v>
@@ -23908,7 +24413,7 @@
         <v>80</v>
       </c>
       <c r="K87" s="39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -23920,7 +24425,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R87">
         <v>78</v>
@@ -23939,7 +24444,7 @@
         <v>81</v>
       </c>
       <c r="K88" s="39" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -23951,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R88">
         <v>78</v>
@@ -23970,13 +24475,13 @@
         <v>82</v>
       </c>
       <c r="K89" s="39" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L89" t="s">
+        <v>906</v>
+      </c>
+      <c r="M89" t="s">
         <v>907</v>
-      </c>
-      <c r="M89" t="s">
-        <v>908</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -23988,7 +24493,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R89">
         <v>78</v>
@@ -24007,13 +24512,13 @@
         <v>83</v>
       </c>
       <c r="K90" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L90" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M90" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -24025,7 +24530,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R90">
         <v>79</v>
@@ -24044,13 +24549,13 @@
         <v>84</v>
       </c>
       <c r="K91" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L91" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M91" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -24062,7 +24567,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R91">
         <v>79</v>
@@ -24081,13 +24586,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L92" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M92" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -24099,7 +24604,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R92">
         <v>80</v>
@@ -24118,13 +24623,13 @@
         <v>86</v>
       </c>
       <c r="K93" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L93" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="M93" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -24136,7 +24641,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R93">
         <v>81</v>
@@ -24155,13 +24660,13 @@
         <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L94" t="s">
+        <v>914</v>
+      </c>
+      <c r="M94" t="s">
         <v>915</v>
-      </c>
-      <c r="M94" t="s">
-        <v>916</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -24173,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R94">
         <v>82</v>
@@ -24192,13 +24697,13 @@
         <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L95" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="M95" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -24210,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R95">
         <v>83</v>
@@ -24229,13 +24734,13 @@
         <v>89</v>
       </c>
       <c r="K96" t="s">
+        <v>938</v>
+      </c>
+      <c r="L96" t="s">
         <v>939</v>
       </c>
-      <c r="L96" t="s">
-        <v>940</v>
-      </c>
       <c r="M96" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -24269,13 +24774,13 @@
         <v>90</v>
       </c>
       <c r="K97" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L97" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M97" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -24309,13 +24814,13 @@
         <v>91</v>
       </c>
       <c r="K98" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="L98" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="M98" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -24327,7 +24832,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="41" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R98">
         <v>86</v>
@@ -24349,13 +24854,13 @@
         <v>92</v>
       </c>
       <c r="K99" t="s">
+        <v>942</v>
+      </c>
+      <c r="L99" t="s">
         <v>943</v>
       </c>
-      <c r="L99" t="s">
-        <v>944</v>
-      </c>
       <c r="M99" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -24389,13 +24894,13 @@
         <v>93</v>
       </c>
       <c r="K100" t="s">
+        <v>944</v>
+      </c>
+      <c r="L100" t="s">
         <v>945</v>
       </c>
-      <c r="L100" t="s">
-        <v>946</v>
-      </c>
       <c r="M100" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -24429,13 +24934,13 @@
         <v>94</v>
       </c>
       <c r="K101" t="s">
+        <v>946</v>
+      </c>
+      <c r="L101" t="s">
         <v>947</v>
       </c>
-      <c r="L101" t="s">
-        <v>948</v>
-      </c>
       <c r="M101" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -24469,13 +24974,13 @@
         <v>95</v>
       </c>
       <c r="K102" t="s">
+        <v>948</v>
+      </c>
+      <c r="L102" t="s">
         <v>949</v>
       </c>
-      <c r="L102" t="s">
-        <v>950</v>
-      </c>
       <c r="M102" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -24509,13 +25014,13 @@
         <v>96</v>
       </c>
       <c r="K103" t="s">
+        <v>950</v>
+      </c>
+      <c r="L103" t="s">
         <v>951</v>
       </c>
-      <c r="L103" t="s">
-        <v>952</v>
-      </c>
       <c r="M103" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -24549,13 +25054,13 @@
         <v>97</v>
       </c>
       <c r="K104" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L104" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M104" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -24589,13 +25094,13 @@
         <v>98</v>
       </c>
       <c r="K105" t="s">
+        <v>952</v>
+      </c>
+      <c r="L105" t="s">
         <v>953</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>954</v>
-      </c>
-      <c r="M105" t="s">
-        <v>955</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -24629,13 +25134,13 @@
         <v>99</v>
       </c>
       <c r="K106" t="s">
+        <v>955</v>
+      </c>
+      <c r="L106" t="s">
         <v>956</v>
       </c>
-      <c r="L106" t="s">
-        <v>957</v>
-      </c>
       <c r="M106" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -24669,13 +25174,13 @@
         <v>100</v>
       </c>
       <c r="K107" t="s">
+        <v>957</v>
+      </c>
+      <c r="L107" t="s">
         <v>958</v>
       </c>
-      <c r="L107" t="s">
-        <v>959</v>
-      </c>
       <c r="M107" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -24709,13 +25214,13 @@
         <v>101</v>
       </c>
       <c r="K108" t="s">
+        <v>959</v>
+      </c>
+      <c r="L108" t="s">
         <v>960</v>
       </c>
-      <c r="L108" t="s">
-        <v>961</v>
-      </c>
       <c r="M108" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -24749,13 +25254,13 @@
         <v>102</v>
       </c>
       <c r="K109" t="s">
+        <v>961</v>
+      </c>
+      <c r="L109" t="s">
         <v>962</v>
       </c>
-      <c r="L109" t="s">
-        <v>963</v>
-      </c>
       <c r="M109" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -24789,13 +25294,13 @@
         <v>103</v>
       </c>
       <c r="K110" t="s">
+        <v>963</v>
+      </c>
+      <c r="L110" t="s">
         <v>964</v>
       </c>
-      <c r="L110" t="s">
-        <v>965</v>
-      </c>
       <c r="M110" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -24829,13 +25334,13 @@
         <v>104</v>
       </c>
       <c r="K111" t="s">
+        <v>965</v>
+      </c>
+      <c r="L111" t="s">
         <v>966</v>
       </c>
-      <c r="L111" t="s">
-        <v>967</v>
-      </c>
       <c r="M111" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -24869,13 +25374,13 @@
         <v>105</v>
       </c>
       <c r="K112" t="s">
+        <v>967</v>
+      </c>
+      <c r="L112" t="s">
         <v>968</v>
       </c>
-      <c r="L112" t="s">
-        <v>969</v>
-      </c>
       <c r="M112" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -24909,13 +25414,13 @@
         <v>106</v>
       </c>
       <c r="K113" t="s">
+        <v>969</v>
+      </c>
+      <c r="L113" t="s">
         <v>970</v>
       </c>
-      <c r="L113" t="s">
-        <v>971</v>
-      </c>
       <c r="M113" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -24949,13 +25454,13 @@
         <v>107</v>
       </c>
       <c r="K114" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L114" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="M114" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -24989,13 +25494,13 @@
         <v>108</v>
       </c>
       <c r="K115" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L115" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="M115" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -25029,13 +25534,13 @@
         <v>109</v>
       </c>
       <c r="K116" t="s">
+        <v>971</v>
+      </c>
+      <c r="L116" t="s">
         <v>972</v>
       </c>
-      <c r="L116" t="s">
-        <v>973</v>
-      </c>
       <c r="M116" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -25069,13 +25574,13 @@
         <v>110</v>
       </c>
       <c r="K117" t="s">
+        <v>973</v>
+      </c>
+      <c r="L117" t="s">
         <v>974</v>
       </c>
-      <c r="L117" t="s">
-        <v>975</v>
-      </c>
       <c r="M117" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -25106,13 +25611,13 @@
         <v>111</v>
       </c>
       <c r="K118" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L118" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="M118" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -25143,13 +25648,13 @@
         <v>112</v>
       </c>
       <c r="K119" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L119" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M119" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -25180,13 +25685,13 @@
         <v>113</v>
       </c>
       <c r="K120" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L120" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M120" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -25217,13 +25722,13 @@
         <v>114</v>
       </c>
       <c r="K121" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L121" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M121" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -25246,13 +25751,13 @@
         <v>115</v>
       </c>
       <c r="K122" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L122" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M122" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -25275,13 +25780,13 @@
         <v>116</v>
       </c>
       <c r="K123" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L123" t="s">
+        <v>815</v>
+      </c>
+      <c r="M123" t="s">
         <v>816</v>
-      </c>
-      <c r="M123" t="s">
-        <v>817</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -25304,13 +25809,13 @@
         <v>117</v>
       </c>
       <c r="K124" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="L124" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M124" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -25333,13 +25838,13 @@
         <v>118</v>
       </c>
       <c r="K125" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="L125" t="s">
+        <v>982</v>
+      </c>
+      <c r="M125" t="s">
         <v>983</v>
-      </c>
-      <c r="M125" t="s">
-        <v>984</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -25351,7 +25856,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="41" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R125">
         <v>113</v>
@@ -25359,13 +25864,13 @@
     </row>
     <row r="126" spans="10:30" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="L126" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M126" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -25377,7 +25882,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="41" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="R126">
         <v>115</v>

--- a/Docs/MapLab3D_doc.xlsx
+++ b/Docs/MapLab3D_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Projekte\MapLab3D\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBB4A96-2439-40FD-A0F8-DB1F0A4D7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5567EDA-422F-463C-A6C5-5E4676DC351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22530" yWindow="0" windowWidth="13470" windowHeight="15285" tabRatio="836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1845" windowWidth="37365" windowHeight="13425" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GV" sheetId="8" r:id="rId1"/>
@@ -1584,9 +1584,6 @@
     <t>Linewidth for plots with color number greater than 0</t>
   </si>
   <si>
-    <t>GV.fig_2dmap_cm</t>
-  </si>
-  <si>
     <t>Structure: Settings for the 2d map context menu (funktion ButtonDownFcn_ax_2dmap)</t>
   </si>
   <si>
@@ -3944,6 +3941,9 @@
   </si>
   <si>
     <t>Character style samples settings</t>
+  </si>
+  <si>
+    <t>GV_H.fig_2dmap_cm</t>
   </si>
 </sst>
 </file>
@@ -10478,8 +10478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10492,14 +10492,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10518,24 +10518,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B6" t="s">
         <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10584,13 +10584,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10628,13 +10628,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B16" t="s">
         <v>1205</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10705,13 +10705,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10730,24 +10730,24 @@
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10761,13 +10761,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B28" t="s">
         <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10794,24 +10794,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B31" t="s">
         <v>319</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B32" t="s">
         <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -11038,24 +11038,24 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B55" t="s">
         <v>319</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B56" t="s">
         <v>319</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -11071,13 +11071,13 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B58" t="s">
         <v>319</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -11104,574 +11104,563 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B61" t="s">
         <v>319</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B62" t="s">
         <v>319</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B63" t="s">
         <v>319</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B64" t="s">
         <v>319</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B65" t="s">
         <v>319</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>503</v>
-      </c>
-      <c r="B66" t="s">
-        <v>319</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>504</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" t="s">
         <v>520</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>614</v>
+      </c>
+      <c r="B68" t="s">
         <v>615</v>
       </c>
-      <c r="B68" t="s">
-        <v>616</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B69" t="s">
         <v>319</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B70" t="s">
         <v>319</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B71" t="s">
         <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B72" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B73" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B74" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B75" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B76" t="s">
         <v>1037</v>
       </c>
-      <c r="B76" t="s">
-        <v>1038</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B77" t="s">
         <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B78" t="s">
         <v>319</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B79" t="s">
         <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B80" t="s">
         <v>319</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B81" t="s">
         <v>319</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s">
         <v>319</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="B83" t="s">
         <v>319</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B84" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B86" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s">
         <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B90" t="s">
         <v>319</v>
       </c>
       <c r="C90" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B91" t="s">
         <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B92" t="s">
         <v>319</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B93" t="s">
         <v>319</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B94" t="s">
         <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B95" t="s">
         <v>319</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B96" t="s">
         <v>319</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B97" t="s">
         <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B98" t="s">
         <v>319</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B99" t="s">
         <v>319</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B100" t="s">
         <v>319</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B101" t="s">
         <v>319</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B102" t="s">
         <v>319</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B103" t="s">
         <v>319</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s">
         <v>319</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B105" t="s">
         <v>319</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>730</v>
+      </c>
+      <c r="B106" t="s">
         <v>731</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B107" t="s">
         <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B108" t="s">
         <v>319</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B109" t="s">
         <v>319</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B110" t="s">
         <v>319</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="B111" t="s">
         <v>267</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B112" t="s">
         <v>267</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -11688,24 +11677,24 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C117" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C118" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11718,26 +11707,26 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C120" t="s">
         <v>1030</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C121" t="s">
         <v>1171</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C122" t="s">
         <v>1173</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11766,7 +11755,7 @@
         <v>484</v>
       </c>
       <c r="B127" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -11848,57 +11837,57 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="B135" t="s">
         <v>513</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>514</v>
-      </c>
-      <c r="C135" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B136" t="s">
         <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B137" t="s">
         <v>319</v>
       </c>
       <c r="C137" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B138" t="s">
         <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B139" t="s">
         <v>319</v>
       </c>
       <c r="C139" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
   </sheetData>
@@ -11912,10 +11901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D61112-3AAB-4A6C-841F-94EB5F52ECE7}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11928,7 +11917,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11936,7 +11925,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>172</v>
@@ -12283,79 +12272,90 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B35" t="s">
+        <v>726</v>
+      </c>
+      <c r="C35" t="s">
         <v>727</v>
-      </c>
-      <c r="C35" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B36" t="s">
+        <v>726</v>
+      </c>
+      <c r="C36" t="s">
         <v>727</v>
-      </c>
-      <c r="C36" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>725</v>
+      </c>
+      <c r="B37" t="s">
         <v>726</v>
       </c>
-      <c r="B37" t="s">
-        <v>727</v>
-      </c>
       <c r="C37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C38" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B39" t="s">
         <v>1051</v>
       </c>
-      <c r="B39" t="s">
-        <v>1052</v>
-      </c>
       <c r="C39" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C40" t="s">
         <v>1276</v>
       </c>
-      <c r="B40" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>605</v>
-      </c>
-      <c r="B42" t="s">
-        <v>596</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" t="s">
         <v>595</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -12380,7 +12380,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -12397,12 +12397,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12471,7 +12471,7 @@
         <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
@@ -12479,20 +12479,20 @@
         <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G19" t="s">
         <v>1238</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -12505,7 +12505,7 @@
         <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
@@ -12543,23 +12543,23 @@
         <v>379</v>
       </c>
       <c r="G29" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G30" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G31" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
@@ -12567,12 +12567,12 @@
         <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -12601,23 +12601,23 @@
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G37" t="s">
         <v>1235</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G38" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
@@ -12668,15 +12668,15 @@
         <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="G49" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -12684,7 +12684,7 @@
         <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12712,10 +12712,10 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G53" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -12725,10 +12725,10 @@
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G54" t="s">
         <v>1245</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1246</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -12738,7 +12738,7 @@
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
@@ -12872,7 +12872,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="37"/>
       <c r="G79" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
@@ -12883,7 +12883,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
       <c r="G80" s="37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
@@ -12894,15 +12894,15 @@
       <c r="E81" s="37"/>
       <c r="F81" s="37"/>
       <c r="G81" s="37" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G82" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -12912,10 +12912,10 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G84" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.25">
@@ -12925,10 +12925,10 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G86" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
@@ -12938,10 +12938,10 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G88" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
@@ -12951,10 +12951,10 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
@@ -12964,10 +12964,10 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G92" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
@@ -12996,7 +12996,7 @@
         <v>252</v>
       </c>
       <c r="G96" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
@@ -13071,8 +13071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13084,7 +13084,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13108,7 +13108,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13231,15 +13231,15 @@
         <v>305</v>
       </c>
       <c r="C24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13247,7 +13247,7 @@
         <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13258,106 +13258,106 @@
         <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E35" s="38">
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E36" s="38">
         <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E37" s="38">
         <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E38" s="38">
         <v>400</v>
       </c>
       <c r="F38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -13386,58 +13386,58 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C44" t="s">
         <v>1226</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F46" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F49" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F50" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13445,17 +13445,17 @@
         <v>309</v>
       </c>
       <c r="C51" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13463,17 +13463,17 @@
         <v>310</v>
       </c>
       <c r="C54" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13481,35 +13481,35 @@
         <v>311</v>
       </c>
       <c r="C57" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13530,249 +13530,249 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>740</v>
+      </c>
+      <c r="C65" t="s">
         <v>741</v>
-      </c>
-      <c r="C65" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C67" t="s">
         <v>1135</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C68" t="s">
         <v>1128</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C69" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C70" t="s">
         <v>1138</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C71" t="s">
         <v>1131</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C72" t="s">
         <v>1133</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="C73" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C74" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C75" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C77" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C80" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C83" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C87" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C88" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C89" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C90" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
+        <v>759</v>
+      </c>
+      <c r="C92" t="s">
         <v>760</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>761</v>
-      </c>
-      <c r="E92" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
+        <v>762</v>
+      </c>
+      <c r="F93" t="s">
         <v>763</v>
-      </c>
-      <c r="F93" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F94" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
+        <v>765</v>
+      </c>
+      <c r="F95" t="s">
         <v>766</v>
-      </c>
-      <c r="F95" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
+        <v>767</v>
+      </c>
+      <c r="F96" t="s">
         <v>768</v>
-      </c>
-      <c r="F96" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -13788,7 +13788,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -13796,34 +13796,34 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F100" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
+        <v>773</v>
+      </c>
+      <c r="F101" t="s">
         <v>774</v>
-      </c>
-      <c r="F101" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F102" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C103" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -13837,7 +13837,7 @@
   <dimension ref="A1:T209"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13859,7 +13859,7 @@
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="2" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G2" s="5"/>
       <c r="O2" s="5"/>
@@ -13888,7 +13888,7 @@
     </row>
     <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G3" s="5"/>
       <c r="O3" s="5"/>
@@ -13910,7 +13910,7 @@
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
       <c r="I5" s="46" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
@@ -13994,7 +13994,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -14019,7 +14019,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -14151,7 +14151,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="12"/>
       <c r="S17" s="6" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -14329,7 +14329,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="12"/>
       <c r="S28" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -14379,7 +14379,7 @@
       <c r="O31" s="14"/>
       <c r="P31" s="12"/>
       <c r="S31" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14430,7 +14430,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="12"/>
       <c r="S34" s="6" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -14499,7 +14499,7 @@
     <row r="39" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -14517,7 +14517,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -14553,7 +14553,7 @@
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -14566,14 +14566,14 @@
       <c r="O42" s="14"/>
       <c r="P42" s="12"/>
       <c r="S42" s="56" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -14592,7 +14592,7 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E44" s="11"/>
       <c r="G44" s="12"/>
@@ -14604,7 +14604,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="12"/>
       <c r="S44" s="56" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14612,7 +14612,7 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E45" s="11"/>
       <c r="G45" s="12"/>
@@ -14624,13 +14624,13 @@
       <c r="O45" s="14"/>
       <c r="P45" s="12"/>
       <c r="S45" s="56" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -14643,13 +14643,13 @@
       <c r="O46" s="14"/>
       <c r="P46" s="12"/>
       <c r="S46" s="56" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -14662,14 +14662,14 @@
       <c r="O47" s="14"/>
       <c r="P47" s="12"/>
       <c r="S47" s="56" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -14682,7 +14682,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="12"/>
       <c r="S48" s="56" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14882,7 +14882,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="12"/>
       <c r="S59" s="56" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14924,7 +14924,7 @@
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -14937,14 +14937,14 @@
       <c r="O62" s="14"/>
       <c r="P62" s="12"/>
       <c r="S62" s="56" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -14992,7 +14992,7 @@
       <c r="O65" s="14"/>
       <c r="P65" s="12"/>
       <c r="S65" s="56" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -15049,7 +15049,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -15093,7 +15093,7 @@
     <row r="71" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -15108,13 +15108,13 @@
       <c r="O71" s="14"/>
       <c r="P71" s="12"/>
       <c r="S71" s="56" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -15129,7 +15129,7 @@
       <c r="O72" s="14"/>
       <c r="P72" s="12"/>
       <c r="S72" s="56" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -16179,7 +16179,7 @@
       <c r="O114" s="16"/>
       <c r="P114" s="13"/>
       <c r="S114" s="60" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -16252,7 +16252,7 @@
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -16295,7 +16295,7 @@
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -16657,7 +16657,7 @@
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -16678,7 +16678,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -16720,7 +16720,7 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="G140" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="9"/>
@@ -16742,10 +16742,10 @@
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="9"/>
@@ -16769,10 +16769,10 @@
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="43" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="9"/>
@@ -16951,7 +16951,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="27" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -17242,7 +17242,7 @@
     <row r="164" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E164" s="9"/>
       <c r="G164" s="13"/>
@@ -17259,7 +17259,7 @@
     <row r="165" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E165" s="9"/>
       <c r="G165" s="13"/>
@@ -17276,7 +17276,7 @@
     <row r="166" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E166" s="9"/>
       <c r="G166" s="13"/>
@@ -17293,7 +17293,7 @@
     <row r="167" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="11" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E167" s="9"/>
       <c r="G167" s="13"/>
@@ -17310,7 +17310,7 @@
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -17330,7 +17330,7 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -17416,10 +17416,10 @@
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="43" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I173" s="17"/>
       <c r="J173" s="9"/>
@@ -17446,7 +17446,7 @@
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="43" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G174" s="19" t="s">
         <v>53</v>
@@ -17471,7 +17471,7 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -17533,10 +17533,10 @@
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="43" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="9"/>
@@ -17560,10 +17560,10 @@
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="43" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="9"/>
@@ -18064,7 +18064,7 @@
     <row r="202" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -18082,7 +18082,7 @@
     <row r="203" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -18100,7 +18100,7 @@
     <row r="204" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -18118,7 +18118,7 @@
     <row r="205" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -18173,7 +18173,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -18183,13 +18183,13 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -18348,7 +18348,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B24" s="36">
         <f>B25-14</f>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B25" s="39">
         <v>204</v>
@@ -18410,15 +18410,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B2" t="s">
         <v>1105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -19143,10 +19143,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="I1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -19154,7 +19154,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J2">
         <v>6.0000000000000002E-6</v>
@@ -19162,48 +19162,48 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="J3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F4" t="s">
         <v>1099</v>
       </c>
-      <c r="C4" t="s">
-        <v>706</v>
-      </c>
-      <c r="D4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H4" t="s">
         <v>707</v>
       </c>
-      <c r="F4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H4" t="s">
-        <v>708</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="L4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -19231,10 +19231,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C8">
         <v>390</v>
@@ -19252,7 +19252,7 @@
         <v>1.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I8" s="2" t="str">
         <f>""</f>
@@ -19266,15 +19266,15 @@
         <v>2.5</v>
       </c>
       <c r="L8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C9">
         <v>770</v>
@@ -19292,7 +19292,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>""</f>
@@ -19305,10 +19305,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B10" t="s">
         <v>654</v>
-      </c>
-      <c r="B10" t="s">
-        <v>655</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -19326,7 +19326,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>""</f>
@@ -19339,10 +19339,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -19360,7 +19360,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>""</f>
@@ -19373,10 +19373,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C12">
         <v>500</v>
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>""</f>
@@ -19407,10 +19407,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>""</f>
@@ -19441,10 +19441,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B14" t="s">
         <v>636</v>
-      </c>
-      <c r="B14" t="s">
-        <v>637</v>
       </c>
       <c r="C14">
         <v>770</v>
@@ -19462,7 +19462,7 @@
         <v>1.5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>""</f>
@@ -19475,10 +19475,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15">
         <v>770</v>
@@ -19496,7 +19496,7 @@
         <v>3.5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>""</f>
@@ -19509,10 +19509,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" t="s">
         <v>630</v>
-      </c>
-      <c r="B16" t="s">
-        <v>631</v>
       </c>
       <c r="C16">
         <v>570</v>
@@ -19530,7 +19530,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>""</f>
@@ -19543,10 +19543,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C17">
         <v>390</v>
@@ -19564,7 +19564,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>""</f>
@@ -19577,10 +19577,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C18">
         <v>390</v>
@@ -19598,7 +19598,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I18" s="2" t="str">
         <f>""</f>
@@ -19611,10 +19611,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C19">
         <v>390</v>
@@ -19632,7 +19632,7 @@
         <v>1.4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>""</f>
@@ -19645,10 +19645,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C20">
         <v>770</v>
@@ -19666,7 +19666,7 @@
         <v>1.5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>""</f>
@@ -19679,10 +19679,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C21">
         <v>770</v>
@@ -19700,7 +19700,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>""</f>
@@ -19713,10 +19713,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B22" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C22">
         <v>570</v>
@@ -19734,7 +19734,7 @@
         <v>4.5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I22" s="2" t="str">
         <f>""</f>
@@ -19747,10 +19747,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>626</v>
+      </c>
+      <c r="B23" t="s">
         <v>627</v>
-      </c>
-      <c r="B23" t="s">
-        <v>628</v>
       </c>
       <c r="C23">
         <v>390</v>
@@ -19768,7 +19768,7 @@
         <v>1.6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>""</f>
@@ -19781,10 +19781,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>691</v>
+      </c>
+      <c r="B24" t="s">
         <v>692</v>
-      </c>
-      <c r="B24" t="s">
-        <v>693</v>
       </c>
       <c r="C24">
         <v>290</v>
@@ -19802,7 +19802,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>""</f>
@@ -19815,10 +19815,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C25">
         <v>390</v>
@@ -19836,7 +19836,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>""</f>
@@ -19849,10 +19849,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>688</v>
+      </c>
+      <c r="B26" t="s">
         <v>689</v>
-      </c>
-      <c r="B26" t="s">
-        <v>690</v>
       </c>
       <c r="C26">
         <v>570</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>""</f>
@@ -19883,10 +19883,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B27" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C27">
         <v>770</v>
@@ -19904,7 +19904,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>""</f>
@@ -19917,10 +19917,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>696</v>
+      </c>
+      <c r="B28" t="s">
         <v>697</v>
-      </c>
-      <c r="B28" t="s">
-        <v>698</v>
       </c>
       <c r="C28">
         <v>750</v>
@@ -19938,7 +19938,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I28" s="2" t="str">
         <f>""</f>
@@ -19951,10 +19951,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>679</v>
+      </c>
+      <c r="B29" t="s">
         <v>680</v>
-      </c>
-      <c r="B29" t="s">
-        <v>681</v>
       </c>
       <c r="C29">
         <v>390</v>
@@ -19972,7 +19972,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I29" s="2" t="str">
         <f>""</f>
@@ -19985,10 +19985,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>638</v>
+      </c>
+      <c r="B30" t="s">
         <v>639</v>
-      </c>
-      <c r="B30" t="s">
-        <v>640</v>
       </c>
       <c r="C30">
         <v>290</v>
@@ -20006,7 +20006,7 @@
         <v>6.5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I30" s="2" t="str">
         <f>""</f>
@@ -20019,10 +20019,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>671</v>
+      </c>
+      <c r="B31" t="s">
         <v>672</v>
-      </c>
-      <c r="B31" t="s">
-        <v>673</v>
       </c>
       <c r="C31">
         <v>770</v>
@@ -20040,7 +20040,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>""</f>
@@ -20053,10 +20053,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B32" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C32">
         <v>390</v>
@@ -20074,7 +20074,7 @@
         <v>3.5</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I32" s="2" t="str">
         <f>""</f>
@@ -20087,10 +20087,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B33" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C33">
         <v>770</v>
@@ -20108,7 +20108,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I33" s="2" t="str">
         <f>""</f>
@@ -20121,10 +20121,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C34">
         <v>770</v>
@@ -20142,7 +20142,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>""</f>
@@ -20155,10 +20155,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C35">
         <v>770</v>
@@ -20176,7 +20176,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>""</f>
@@ -20189,10 +20189,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>660</v>
+      </c>
+      <c r="B36" t="s">
         <v>661</v>
-      </c>
-      <c r="B36" t="s">
-        <v>662</v>
       </c>
       <c r="C36">
         <v>390</v>
@@ -20210,7 +20210,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>""</f>
@@ -20224,15 +20224,15 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>674</v>
+      </c>
+      <c r="B37" t="s">
         <v>675</v>
-      </c>
-      <c r="B37" t="s">
-        <v>676</v>
       </c>
       <c r="C37">
         <v>390</v>
@@ -20250,7 +20250,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I37" s="2" t="str">
         <f>""</f>
@@ -20263,10 +20263,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>632</v>
+      </c>
+      <c r="B38" t="s">
         <v>633</v>
-      </c>
-      <c r="B38" t="s">
-        <v>634</v>
       </c>
       <c r="C38">
         <v>290</v>
@@ -20284,7 +20284,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>""</f>
@@ -20297,10 +20297,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C39">
         <v>390</v>
@@ -20318,7 +20318,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>""</f>
@@ -20331,10 +20331,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C40">
         <v>570</v>
@@ -20352,7 +20352,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I40" s="2" t="str">
         <f>""</f>
@@ -20365,10 +20365,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>616</v>
+      </c>
+      <c r="B41" t="s">
         <v>617</v>
-      </c>
-      <c r="B41" t="s">
-        <v>618</v>
       </c>
       <c r="C41">
         <v>770</v>
@@ -20386,7 +20386,7 @@
         <v>30</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>""</f>
@@ -20399,10 +20399,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C42">
         <v>770</v>
@@ -20420,7 +20420,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>""</f>
@@ -20433,10 +20433,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>619</v>
+      </c>
+      <c r="B43" t="s">
         <v>620</v>
-      </c>
-      <c r="B43" t="s">
-        <v>621</v>
       </c>
       <c r="C43">
         <v>390</v>
@@ -20454,7 +20454,7 @@
         <v>30</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>""</f>
@@ -20541,45 +20541,45 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="U3" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
       </c>
       <c r="K4" t="s">
+        <v>986</v>
+      </c>
+      <c r="L4" t="s">
         <v>987</v>
       </c>
-      <c r="L4" t="s">
-        <v>988</v>
-      </c>
       <c r="M4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="N4" t="s">
+        <v>984</v>
+      </c>
+      <c r="O4" t="s">
         <v>985</v>
-      </c>
-      <c r="O4" t="s">
-        <v>986</v>
       </c>
       <c r="R4" t="s">
         <v>170</v>
       </c>
       <c r="T4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="U4" t="s">
         <v>12</v>
@@ -20591,13 +20591,13 @@
         <v>12</v>
       </c>
       <c r="X4" t="s">
+        <v>989</v>
+      </c>
+      <c r="Y4" t="s">
         <v>990</v>
       </c>
-      <c r="Y4" t="s">
-        <v>991</v>
-      </c>
       <c r="AA4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -20605,16 +20605,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="X5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Y5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -20622,19 +20622,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="X6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Y6" t="s">
         <v>1094</v>
       </c>
-      <c r="Y6" t="s">
-        <v>1095</v>
-      </c>
       <c r="AA6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AB6" t="s">
         <v>990</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -20642,28 +20642,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q7" t="s">
+        <v>994</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="X7" t="s">
+        <v>994</v>
+      </c>
+      <c r="Y7" t="s">
         <v>995</v>
       </c>
-      <c r="U7" t="s">
-        <v>1092</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="AC7" t="s">
+        <v>994</v>
+      </c>
+      <c r="AD7" t="s">
         <v>995</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>996</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>995</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -20671,19 +20671,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
+        <v>810</v>
+      </c>
+      <c r="L8" t="s">
         <v>811</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>812</v>
-      </c>
-      <c r="M8" t="s">
-        <v>813</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -20701,7 +20701,7 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="X8">
         <v>10</v>
@@ -20723,19 +20723,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
+        <v>813</v>
+      </c>
+      <c r="L9" t="s">
         <v>814</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>815</v>
-      </c>
-      <c r="M9" t="s">
-        <v>816</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -20753,16 +20753,16 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U9" t="s">
+        <v>991</v>
+      </c>
+      <c r="V9" t="s">
         <v>992</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>993</v>
-      </c>
-      <c r="W9" t="s">
-        <v>994</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -20790,19 +20790,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
+        <v>816</v>
+      </c>
+      <c r="L10" t="s">
         <v>817</v>
       </c>
-      <c r="L10" t="s">
-        <v>818</v>
-      </c>
       <c r="M10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -20820,16 +20820,16 @@
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U10" t="s">
+        <v>991</v>
+      </c>
+      <c r="V10" t="s">
         <v>992</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>993</v>
-      </c>
-      <c r="W10" t="s">
-        <v>994</v>
       </c>
       <c r="X10">
         <v>4</v>
@@ -20857,22 +20857,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>711</v>
+      </c>
+      <c r="C11" t="s">
         <v>712</v>
-      </c>
-      <c r="C11" t="s">
-        <v>713</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" t="s">
+        <v>818</v>
+      </c>
+      <c r="L11" t="s">
         <v>819</v>
       </c>
-      <c r="L11" t="s">
-        <v>820</v>
-      </c>
       <c r="M11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -20890,13 +20890,13 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V11" t="s">
+        <v>992</v>
+      </c>
+      <c r="W11" t="s">
         <v>993</v>
-      </c>
-      <c r="W11" t="s">
-        <v>994</v>
       </c>
       <c r="X11">
         <v>8</v>
@@ -20924,22 +20924,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C12" t="s">
         <v>714</v>
-      </c>
-      <c r="C12" t="s">
-        <v>715</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" t="s">
+        <v>820</v>
+      </c>
+      <c r="L12" t="s">
         <v>821</v>
       </c>
-      <c r="L12" t="s">
-        <v>822</v>
-      </c>
       <c r="M12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -20957,13 +20957,13 @@
         <v>5</v>
       </c>
       <c r="T12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V12" t="s">
+        <v>992</v>
+      </c>
+      <c r="W12" t="s">
         <v>993</v>
-      </c>
-      <c r="W12" t="s">
-        <v>994</v>
       </c>
       <c r="X12">
         <v>8</v>
@@ -20991,22 +20991,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>715</v>
+      </c>
+      <c r="C13" t="s">
         <v>716</v>
-      </c>
-      <c r="C13" t="s">
-        <v>717</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>822</v>
+      </c>
+      <c r="L13" t="s">
         <v>823</v>
       </c>
-      <c r="L13" t="s">
-        <v>824</v>
-      </c>
       <c r="M13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -21024,13 +21024,13 @@
         <v>6</v>
       </c>
       <c r="T13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V13" t="s">
+        <v>992</v>
+      </c>
+      <c r="W13" t="s">
         <v>993</v>
-      </c>
-      <c r="W13" t="s">
-        <v>994</v>
       </c>
       <c r="X13">
         <v>8</v>
@@ -21058,13 +21058,13 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
+        <v>824</v>
+      </c>
+      <c r="L14" t="s">
         <v>825</v>
       </c>
-      <c r="L14" t="s">
-        <v>826</v>
-      </c>
       <c r="M14" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -21082,10 +21082,10 @@
         <v>7</v>
       </c>
       <c r="T14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="W14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="X14">
         <v>13</v>
@@ -21113,13 +21113,13 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
+        <v>826</v>
+      </c>
+      <c r="L15" t="s">
         <v>827</v>
       </c>
-      <c r="L15" t="s">
-        <v>828</v>
-      </c>
       <c r="M15" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -21147,19 +21147,19 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J16">
         <v>9</v>
       </c>
       <c r="K16" t="s">
+        <v>828</v>
+      </c>
+      <c r="L16" t="s">
         <v>829</v>
       </c>
-      <c r="L16" t="s">
-        <v>830</v>
-      </c>
       <c r="M16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -21177,10 +21177,10 @@
         <v>9</v>
       </c>
       <c r="T16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U16" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="X16">
         <v>8</v>
@@ -21199,19 +21199,19 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17" t="s">
+        <v>830</v>
+      </c>
+      <c r="L17" t="s">
         <v>831</v>
       </c>
-      <c r="L17" t="s">
-        <v>832</v>
-      </c>
       <c r="M17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -21239,19 +21239,19 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J18">
         <v>11</v>
       </c>
       <c r="K18" t="s">
+        <v>832</v>
+      </c>
+      <c r="L18" t="s">
         <v>833</v>
       </c>
-      <c r="L18" t="s">
-        <v>834</v>
-      </c>
       <c r="M18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -21282,13 +21282,13 @@
         <v>12</v>
       </c>
       <c r="K19" t="s">
+        <v>834</v>
+      </c>
+      <c r="L19" t="s">
         <v>835</v>
       </c>
-      <c r="L19" t="s">
-        <v>836</v>
-      </c>
       <c r="M19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -21306,16 +21306,16 @@
         <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U19" t="s">
+        <v>998</v>
+      </c>
+      <c r="V19" t="s">
         <v>999</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>1000</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1001</v>
       </c>
       <c r="X19">
         <v>5</v>
@@ -21340,19 +21340,19 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J20">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -21364,7 +21364,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R20">
         <v>13</v>
@@ -21380,19 +21380,19 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J21">
         <v>14</v>
       </c>
       <c r="K21" t="s">
+        <v>837</v>
+      </c>
+      <c r="L21" t="s">
         <v>838</v>
       </c>
-      <c r="L21" t="s">
-        <v>839</v>
-      </c>
       <c r="M21" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -21423,37 +21423,37 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>783</v>
+      </c>
+      <c r="B22" t="s">
         <v>784</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>785</v>
       </c>
-      <c r="C22" t="s">
-        <v>786</v>
-      </c>
       <c r="D22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G22" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J22">
         <v>15</v>
       </c>
       <c r="K22" t="s">
+        <v>839</v>
+      </c>
+      <c r="L22" t="s">
         <v>840</v>
       </c>
-      <c r="L22" t="s">
-        <v>841</v>
-      </c>
       <c r="M22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -21481,31 +21481,31 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D23" t="s">
+        <v>788</v>
+      </c>
+      <c r="E23" t="s">
         <v>789</v>
       </c>
-      <c r="E23" t="s">
-        <v>790</v>
-      </c>
       <c r="F23" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G23" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J23">
         <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L23" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -21536,13 +21536,13 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L24" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -21573,13 +21573,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M25" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -21610,13 +21610,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -21647,13 +21647,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L27" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M27" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -21696,19 +21696,19 @@
         <v>500000000</v>
       </c>
       <c r="G28" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J28">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L28" t="s">
+        <v>814</v>
+      </c>
+      <c r="M28" t="s">
         <v>815</v>
-      </c>
-      <c r="M28" t="s">
-        <v>816</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -21754,13 +21754,13 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L29" t="s">
+        <v>814</v>
+      </c>
+      <c r="M29" t="s">
         <v>815</v>
-      </c>
-      <c r="M29" t="s">
-        <v>816</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -21803,19 +21803,19 @@
         <v>150000000</v>
       </c>
       <c r="G30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J30">
         <v>23</v>
       </c>
       <c r="K30" t="s">
+        <v>847</v>
+      </c>
+      <c r="L30" t="s">
         <v>848</v>
       </c>
-      <c r="L30" t="s">
-        <v>849</v>
-      </c>
       <c r="M30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -21858,19 +21858,19 @@
         <v>70000000</v>
       </c>
       <c r="G31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J31">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -21888,10 +21888,10 @@
         <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U31" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -21925,13 +21925,13 @@
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="L32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="M32" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -21974,19 +21974,19 @@
         <v>15000000</v>
       </c>
       <c r="G33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J33">
         <v>26</v>
       </c>
       <c r="K33" t="s">
+        <v>851</v>
+      </c>
+      <c r="L33" t="s">
         <v>852</v>
       </c>
-      <c r="L33" t="s">
-        <v>853</v>
-      </c>
       <c r="M33" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -22004,10 +22004,10 @@
         <v>26</v>
       </c>
       <c r="T33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U33" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X33">
         <v>12</v>
@@ -22038,19 +22038,19 @@
         <v>10000000</v>
       </c>
       <c r="G34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J34">
         <v>27</v>
       </c>
       <c r="K34" t="s">
+        <v>853</v>
+      </c>
+      <c r="L34" t="s">
         <v>854</v>
       </c>
-      <c r="L34" t="s">
-        <v>855</v>
-      </c>
       <c r="M34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -22068,10 +22068,10 @@
         <v>27</v>
       </c>
       <c r="T34" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X34">
         <v>12</v>
@@ -22102,19 +22102,19 @@
         <v>4000000</v>
       </c>
       <c r="G35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J35">
         <v>28</v>
       </c>
       <c r="K35" t="s">
+        <v>855</v>
+      </c>
+      <c r="L35" t="s">
         <v>856</v>
       </c>
-      <c r="L35" t="s">
-        <v>857</v>
-      </c>
       <c r="M35" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -22160,13 +22160,13 @@
         <v>29</v>
       </c>
       <c r="K36" t="s">
+        <v>857</v>
+      </c>
+      <c r="L36" t="s">
         <v>858</v>
       </c>
-      <c r="L36" t="s">
-        <v>859</v>
-      </c>
       <c r="M36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -22184,10 +22184,10 @@
         <v>29</v>
       </c>
       <c r="T36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="U36" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X36">
         <v>12</v>
@@ -22218,19 +22218,19 @@
         <v>1000000</v>
       </c>
       <c r="G37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J37">
         <v>30</v>
       </c>
       <c r="K37" t="s">
+        <v>859</v>
+      </c>
+      <c r="L37" t="s">
         <v>860</v>
       </c>
-      <c r="L37" t="s">
-        <v>861</v>
-      </c>
       <c r="M37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -22248,10 +22248,10 @@
         <v>30</v>
       </c>
       <c r="T37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U37" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X37">
         <v>12</v>
@@ -22282,19 +22282,19 @@
         <v>500000</v>
       </c>
       <c r="G38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J38">
         <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L38" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -22312,10 +22312,10 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="U38" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="X38">
         <v>12</v>
@@ -22346,19 +22346,19 @@
         <v>250000</v>
       </c>
       <c r="G39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J39">
         <v>32</v>
       </c>
       <c r="K39" t="s">
+        <v>862</v>
+      </c>
+      <c r="L39" t="s">
         <v>863</v>
       </c>
-      <c r="L39" t="s">
-        <v>864</v>
-      </c>
       <c r="M39" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -22401,19 +22401,19 @@
         <v>150000</v>
       </c>
       <c r="G40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J40">
         <v>33</v>
       </c>
       <c r="K40" t="s">
+        <v>864</v>
+      </c>
+      <c r="L40" t="s">
         <v>865</v>
       </c>
-      <c r="L40" t="s">
-        <v>866</v>
-      </c>
       <c r="M40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -22456,22 +22456,22 @@
         <v>70000</v>
       </c>
       <c r="G41" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J41">
         <v>34</v>
       </c>
       <c r="K41" t="s">
+        <v>866</v>
+      </c>
+      <c r="L41" t="s">
         <v>867</v>
       </c>
-      <c r="L41" t="s">
-        <v>868</v>
-      </c>
       <c r="M41" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -22514,19 +22514,19 @@
         <v>35000</v>
       </c>
       <c r="H42" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J42">
         <v>35</v>
       </c>
       <c r="K42" t="s">
+        <v>868</v>
+      </c>
+      <c r="L42" t="s">
         <v>869</v>
       </c>
-      <c r="L42" t="s">
-        <v>870</v>
-      </c>
       <c r="M42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -22569,22 +22569,22 @@
         <v>15000</v>
       </c>
       <c r="G43" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H43" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J43">
         <v>36</v>
       </c>
       <c r="K43" t="s">
+        <v>870</v>
+      </c>
+      <c r="L43" t="s">
         <v>871</v>
       </c>
-      <c r="L43" t="s">
-        <v>872</v>
-      </c>
       <c r="M43" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -22627,22 +22627,22 @@
         <v>8000</v>
       </c>
       <c r="G44" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H44" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J44">
         <v>37</v>
       </c>
       <c r="K44" t="s">
+        <v>872</v>
+      </c>
+      <c r="L44" t="s">
         <v>873</v>
       </c>
-      <c r="L44" t="s">
-        <v>874</v>
-      </c>
       <c r="M44" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -22660,10 +22660,10 @@
         <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="U44" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="X44">
         <v>10</v>
@@ -22694,19 +22694,19 @@
         <v>4000</v>
       </c>
       <c r="G45" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J45">
         <v>38</v>
       </c>
       <c r="K45" t="s">
+        <v>874</v>
+      </c>
+      <c r="L45" t="s">
         <v>875</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>876</v>
-      </c>
-      <c r="M45" t="s">
-        <v>877</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -22724,16 +22724,16 @@
         <v>38</v>
       </c>
       <c r="T45" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="U45" t="s">
+        <v>1004</v>
+      </c>
+      <c r="V45" t="s">
         <v>1005</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>1006</v>
-      </c>
-      <c r="W45" t="s">
-        <v>1007</v>
       </c>
       <c r="X45">
         <v>14</v>
@@ -22764,19 +22764,19 @@
         <v>2000</v>
       </c>
       <c r="G46" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J46">
         <v>39</v>
       </c>
       <c r="K46" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -22822,19 +22822,19 @@
         <v>1000</v>
       </c>
       <c r="G47" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J47">
         <v>40</v>
       </c>
       <c r="K47" t="s">
+        <v>878</v>
+      </c>
+      <c r="L47" t="s">
         <v>879</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>880</v>
-      </c>
-      <c r="M47" t="s">
-        <v>881</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -22880,19 +22880,19 @@
         <v>500</v>
       </c>
       <c r="G48" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J48">
         <v>41</v>
       </c>
       <c r="K48" t="s">
+        <v>881</v>
+      </c>
+      <c r="L48" t="s">
+        <v>879</v>
+      </c>
+      <c r="M48" t="s">
         <v>882</v>
-      </c>
-      <c r="L48" t="s">
-        <v>880</v>
-      </c>
-      <c r="M48" t="s">
-        <v>883</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -22926,13 +22926,13 @@
         <v>42</v>
       </c>
       <c r="K49" t="s">
+        <v>883</v>
+      </c>
+      <c r="L49" t="s">
+        <v>879</v>
+      </c>
+      <c r="M49" t="s">
         <v>884</v>
-      </c>
-      <c r="L49" t="s">
-        <v>880</v>
-      </c>
-      <c r="M49" t="s">
-        <v>885</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -22966,13 +22966,13 @@
         <v>43</v>
       </c>
       <c r="K50" t="s">
+        <v>885</v>
+      </c>
+      <c r="L50" t="s">
+        <v>879</v>
+      </c>
+      <c r="M50" t="s">
         <v>886</v>
-      </c>
-      <c r="L50" t="s">
-        <v>880</v>
-      </c>
-      <c r="M50" t="s">
-        <v>887</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -23003,13 +23003,13 @@
         <v>44</v>
       </c>
       <c r="K51" t="s">
+        <v>887</v>
+      </c>
+      <c r="L51" t="s">
         <v>888</v>
       </c>
-      <c r="L51" t="s">
-        <v>889</v>
-      </c>
       <c r="M51" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -23040,13 +23040,13 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
+        <v>889</v>
+      </c>
+      <c r="L52" t="s">
         <v>890</v>
       </c>
-      <c r="L52" t="s">
-        <v>891</v>
-      </c>
       <c r="M52" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -23077,13 +23077,13 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L53" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M53" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -23101,16 +23101,16 @@
         <v>46</v>
       </c>
       <c r="T53" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="U53" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="W53" t="s">
         <v>1008</v>
-      </c>
-      <c r="W53" t="s">
-        <v>1009</v>
       </c>
       <c r="X53">
         <v>13</v>
@@ -23129,13 +23129,13 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L54" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M54" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -23153,16 +23153,16 @@
         <v>47</v>
       </c>
       <c r="T54" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="U54" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V54" t="s">
+        <v>1007</v>
+      </c>
+      <c r="W54" t="s">
         <v>1008</v>
-      </c>
-      <c r="W54" t="s">
-        <v>1009</v>
       </c>
       <c r="X54">
         <v>13</v>
@@ -23181,13 +23181,13 @@
         <v>48</v>
       </c>
       <c r="K55" t="s">
+        <v>891</v>
+      </c>
+      <c r="L55" t="s">
         <v>892</v>
       </c>
-      <c r="L55" t="s">
-        <v>893</v>
-      </c>
       <c r="M55" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L56" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M56" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -23255,13 +23255,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s">
+        <v>894</v>
+      </c>
+      <c r="L57" t="s">
         <v>895</v>
       </c>
-      <c r="L57" t="s">
-        <v>896</v>
-      </c>
       <c r="M57" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -23292,13 +23292,13 @@
         <v>51</v>
       </c>
       <c r="K58" t="s">
+        <v>896</v>
+      </c>
+      <c r="L58" t="s">
         <v>897</v>
       </c>
-      <c r="L58" t="s">
-        <v>898</v>
-      </c>
       <c r="M58" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -23329,13 +23329,13 @@
         <v>52</v>
       </c>
       <c r="K59" t="s">
+        <v>898</v>
+      </c>
+      <c r="L59" t="s">
         <v>899</v>
       </c>
-      <c r="L59" t="s">
-        <v>900</v>
-      </c>
       <c r="M59" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -23369,13 +23369,13 @@
         <v>53</v>
       </c>
       <c r="K60" t="s">
+        <v>900</v>
+      </c>
+      <c r="L60" t="s">
         <v>901</v>
       </c>
-      <c r="L60" t="s">
-        <v>902</v>
-      </c>
       <c r="M60" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -23409,13 +23409,13 @@
         <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L61" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M61" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -23449,13 +23449,13 @@
         <v>55</v>
       </c>
       <c r="K62" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="L62" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="M62" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -23489,13 +23489,13 @@
         <v>56</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L63" t="s">
+        <v>905</v>
+      </c>
+      <c r="M63" t="s">
         <v>906</v>
-      </c>
-      <c r="M63" t="s">
-        <v>907</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -23529,13 +23529,13 @@
         <v>57</v>
       </c>
       <c r="K64" s="39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="L64" t="s">
+        <v>905</v>
+      </c>
+      <c r="M64" t="s">
         <v>906</v>
-      </c>
-      <c r="M64" t="s">
-        <v>907</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -23569,13 +23569,13 @@
         <v>58</v>
       </c>
       <c r="K65" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="L65" t="s">
         <v>905</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>906</v>
-      </c>
-      <c r="M65" t="s">
-        <v>907</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -23609,13 +23609,13 @@
         <v>59</v>
       </c>
       <c r="K66" t="s">
+        <v>907</v>
+      </c>
+      <c r="L66" t="s">
         <v>908</v>
       </c>
-      <c r="L66" t="s">
-        <v>909</v>
-      </c>
       <c r="M66" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -23649,13 +23649,13 @@
         <v>60</v>
       </c>
       <c r="K67" t="s">
+        <v>909</v>
+      </c>
+      <c r="L67" t="s">
         <v>910</v>
       </c>
-      <c r="L67" t="s">
-        <v>911</v>
-      </c>
       <c r="M67" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -23689,13 +23689,13 @@
         <v>61</v>
       </c>
       <c r="K68" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L68" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M68" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -23729,13 +23729,13 @@
         <v>62</v>
       </c>
       <c r="K69" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L69" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R69">
         <v>60</v>
@@ -23769,13 +23769,13 @@
         <v>63</v>
       </c>
       <c r="K70" t="s">
+        <v>912</v>
+      </c>
+      <c r="L70" t="s">
         <v>913</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>914</v>
-      </c>
-      <c r="M70" t="s">
-        <v>915</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -23809,13 +23809,13 @@
         <v>64</v>
       </c>
       <c r="K71" t="s">
+        <v>915</v>
+      </c>
+      <c r="L71" t="s">
         <v>916</v>
       </c>
-      <c r="L71" t="s">
-        <v>917</v>
-      </c>
       <c r="M71" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -23849,13 +23849,13 @@
         <v>65</v>
       </c>
       <c r="K72" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L72" t="s">
+        <v>875</v>
+      </c>
+      <c r="M72" t="s">
         <v>876</v>
-      </c>
-      <c r="M72" t="s">
-        <v>877</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R72">
         <v>63</v>
@@ -23889,13 +23889,13 @@
         <v>66</v>
       </c>
       <c r="K73" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L73" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M73" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -23907,7 +23907,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R73">
         <v>64</v>
@@ -23929,13 +23929,13 @@
         <v>67</v>
       </c>
       <c r="K74" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L74" t="s">
+        <v>879</v>
+      </c>
+      <c r="M74" t="s">
         <v>880</v>
-      </c>
-      <c r="M74" t="s">
-        <v>881</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -23947,7 +23947,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R74">
         <v>65</v>
@@ -23969,13 +23969,13 @@
         <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L75" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M75" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -23987,7 +23987,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R75">
         <v>66</v>
@@ -24006,13 +24006,13 @@
         <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L76" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M76" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R76">
         <v>67</v>
@@ -24043,13 +24043,13 @@
         <v>70</v>
       </c>
       <c r="K77" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L77" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="M77" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -24061,7 +24061,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R77">
         <v>68</v>
@@ -24080,13 +24080,13 @@
         <v>71</v>
       </c>
       <c r="K78" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L78" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M78" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R78">
         <v>69</v>
@@ -24117,13 +24117,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L79" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M79" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -24135,7 +24135,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R79">
         <v>70</v>
@@ -24154,13 +24154,13 @@
         <v>73</v>
       </c>
       <c r="K80" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L80" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M80" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R80">
         <v>71</v>
@@ -24191,13 +24191,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L81" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M81" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -24209,7 +24209,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R81">
         <v>72</v>
@@ -24228,13 +24228,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s">
+        <v>925</v>
+      </c>
+      <c r="L82" t="s">
+        <v>895</v>
+      </c>
+      <c r="M82" t="s">
         <v>926</v>
-      </c>
-      <c r="L82" t="s">
-        <v>896</v>
-      </c>
-      <c r="M82" t="s">
-        <v>927</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -24246,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R82">
         <v>73</v>
@@ -24265,13 +24265,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L83" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="M83" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -24283,7 +24283,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R83">
         <v>74</v>
@@ -24302,13 +24302,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L84" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M84" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -24320,7 +24320,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R84">
         <v>75</v>
@@ -24339,13 +24339,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L85" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M85" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -24357,7 +24357,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R85">
         <v>76</v>
@@ -24376,13 +24376,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M86" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -24394,7 +24394,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R86">
         <v>77</v>
@@ -24413,7 +24413,7 @@
         <v>80</v>
       </c>
       <c r="K87" s="39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -24425,7 +24425,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R87">
         <v>78</v>
@@ -24444,7 +24444,7 @@
         <v>81</v>
       </c>
       <c r="K88" s="39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R88">
         <v>78</v>
@@ -24475,13 +24475,13 @@
         <v>82</v>
       </c>
       <c r="K89" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L89" t="s">
+        <v>905</v>
+      </c>
+      <c r="M89" t="s">
         <v>906</v>
-      </c>
-      <c r="M89" t="s">
-        <v>907</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -24493,7 +24493,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R89">
         <v>78</v>
@@ -24512,13 +24512,13 @@
         <v>83</v>
       </c>
       <c r="K90" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L90" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M90" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -24530,7 +24530,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R90">
         <v>79</v>
@@ -24549,13 +24549,13 @@
         <v>84</v>
       </c>
       <c r="K91" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L91" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M91" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -24567,7 +24567,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R91">
         <v>79</v>
@@ -24586,13 +24586,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L92" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M92" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -24604,7 +24604,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R92">
         <v>80</v>
@@ -24623,13 +24623,13 @@
         <v>86</v>
       </c>
       <c r="K93" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L93" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="M93" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -24641,7 +24641,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R93">
         <v>81</v>
@@ -24660,13 +24660,13 @@
         <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L94" t="s">
+        <v>913</v>
+      </c>
+      <c r="M94" t="s">
         <v>914</v>
-      </c>
-      <c r="M94" t="s">
-        <v>915</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R94">
         <v>82</v>
@@ -24697,13 +24697,13 @@
         <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L95" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="M95" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R95">
         <v>83</v>
@@ -24734,13 +24734,13 @@
         <v>89</v>
       </c>
       <c r="K96" t="s">
+        <v>937</v>
+      </c>
+      <c r="L96" t="s">
         <v>938</v>
       </c>
-      <c r="L96" t="s">
-        <v>939</v>
-      </c>
       <c r="M96" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -24774,13 +24774,13 @@
         <v>90</v>
       </c>
       <c r="K97" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L97" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M97" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -24814,13 +24814,13 @@
         <v>91</v>
       </c>
       <c r="K98" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="L98" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="M98" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -24832,7 +24832,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R98">
         <v>86</v>
@@ -24854,13 +24854,13 @@
         <v>92</v>
       </c>
       <c r="K99" t="s">
+        <v>941</v>
+      </c>
+      <c r="L99" t="s">
         <v>942</v>
       </c>
-      <c r="L99" t="s">
-        <v>943</v>
-      </c>
       <c r="M99" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>93</v>
       </c>
       <c r="K100" t="s">
+        <v>943</v>
+      </c>
+      <c r="L100" t="s">
         <v>944</v>
       </c>
-      <c r="L100" t="s">
-        <v>945</v>
-      </c>
       <c r="M100" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -24934,13 +24934,13 @@
         <v>94</v>
       </c>
       <c r="K101" t="s">
+        <v>945</v>
+      </c>
+      <c r="L101" t="s">
         <v>946</v>
       </c>
-      <c r="L101" t="s">
-        <v>947</v>
-      </c>
       <c r="M101" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -24974,13 +24974,13 @@
         <v>95</v>
       </c>
       <c r="K102" t="s">
+        <v>947</v>
+      </c>
+      <c r="L102" t="s">
         <v>948</v>
       </c>
-      <c r="L102" t="s">
-        <v>949</v>
-      </c>
       <c r="M102" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -25014,13 +25014,13 @@
         <v>96</v>
       </c>
       <c r="K103" t="s">
+        <v>949</v>
+      </c>
+      <c r="L103" t="s">
         <v>950</v>
       </c>
-      <c r="L103" t="s">
-        <v>951</v>
-      </c>
       <c r="M103" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -25054,13 +25054,13 @@
         <v>97</v>
       </c>
       <c r="K104" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L104" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M104" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -25094,13 +25094,13 @@
         <v>98</v>
       </c>
       <c r="K105" t="s">
+        <v>951</v>
+      </c>
+      <c r="L105" t="s">
         <v>952</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>953</v>
-      </c>
-      <c r="M105" t="s">
-        <v>954</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>99</v>
       </c>
       <c r="K106" t="s">
+        <v>954</v>
+      </c>
+      <c r="L106" t="s">
         <v>955</v>
       </c>
-      <c r="L106" t="s">
-        <v>956</v>
-      </c>
       <c r="M106" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -25174,13 +25174,13 @@
         <v>100</v>
       </c>
       <c r="K107" t="s">
+        <v>956</v>
+      </c>
+      <c r="L107" t="s">
         <v>957</v>
       </c>
-      <c r="L107" t="s">
-        <v>958</v>
-      </c>
       <c r="M107" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>101</v>
       </c>
       <c r="K108" t="s">
+        <v>958</v>
+      </c>
+      <c r="L108" t="s">
         <v>959</v>
       </c>
-      <c r="L108" t="s">
-        <v>960</v>
-      </c>
       <c r="M108" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -25254,13 +25254,13 @@
         <v>102</v>
       </c>
       <c r="K109" t="s">
+        <v>960</v>
+      </c>
+      <c r="L109" t="s">
         <v>961</v>
       </c>
-      <c r="L109" t="s">
-        <v>962</v>
-      </c>
       <c r="M109" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -25294,13 +25294,13 @@
         <v>103</v>
       </c>
       <c r="K110" t="s">
+        <v>962</v>
+      </c>
+      <c r="L110" t="s">
         <v>963</v>
       </c>
-      <c r="L110" t="s">
-        <v>964</v>
-      </c>
       <c r="M110" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -25334,13 +25334,13 @@
         <v>104</v>
       </c>
       <c r="K111" t="s">
+        <v>964</v>
+      </c>
+      <c r="L111" t="s">
         <v>965</v>
       </c>
-      <c r="L111" t="s">
-        <v>966</v>
-      </c>
       <c r="M111" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>105</v>
       </c>
       <c r="K112" t="s">
+        <v>966</v>
+      </c>
+      <c r="L112" t="s">
         <v>967</v>
       </c>
-      <c r="L112" t="s">
-        <v>968</v>
-      </c>
       <c r="M112" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -25414,13 +25414,13 @@
         <v>106</v>
       </c>
       <c r="K113" t="s">
+        <v>968</v>
+      </c>
+      <c r="L113" t="s">
         <v>969</v>
       </c>
-      <c r="L113" t="s">
-        <v>970</v>
-      </c>
       <c r="M113" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -25454,13 +25454,13 @@
         <v>107</v>
       </c>
       <c r="K114" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L114" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M114" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -25494,13 +25494,13 @@
         <v>108</v>
       </c>
       <c r="K115" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L115" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="M115" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -25534,13 +25534,13 @@
         <v>109</v>
       </c>
       <c r="K116" t="s">
+        <v>970</v>
+      </c>
+      <c r="L116" t="s">
         <v>971</v>
       </c>
-      <c r="L116" t="s">
-        <v>972</v>
-      </c>
       <c r="M116" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -25574,13 +25574,13 @@
         <v>110</v>
       </c>
       <c r="K117" t="s">
+        <v>972</v>
+      </c>
+      <c r="L117" t="s">
         <v>973</v>
       </c>
-      <c r="L117" t="s">
-        <v>974</v>
-      </c>
       <c r="M117" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -25611,13 +25611,13 @@
         <v>111</v>
       </c>
       <c r="K118" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L118" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M118" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -25648,13 +25648,13 @@
         <v>112</v>
       </c>
       <c r="K119" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L119" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M119" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -25685,13 +25685,13 @@
         <v>113</v>
       </c>
       <c r="K120" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L120" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M120" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -25722,13 +25722,13 @@
         <v>114</v>
       </c>
       <c r="K121" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L121" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="M121" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -25751,13 +25751,13 @@
         <v>115</v>
       </c>
       <c r="K122" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L122" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="M122" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -25780,13 +25780,13 @@
         <v>116</v>
       </c>
       <c r="K123" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L123" t="s">
+        <v>814</v>
+      </c>
+      <c r="M123" t="s">
         <v>815</v>
-      </c>
-      <c r="M123" t="s">
-        <v>816</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -25809,13 +25809,13 @@
         <v>117</v>
       </c>
       <c r="K124" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="L124" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="M124" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -25838,13 +25838,13 @@
         <v>118</v>
       </c>
       <c r="K125" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L125" t="s">
+        <v>981</v>
+      </c>
+      <c r="M125" t="s">
         <v>982</v>
-      </c>
-      <c r="M125" t="s">
-        <v>983</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -25856,7 +25856,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R125">
         <v>113</v>
@@ -25864,13 +25864,13 @@
     </row>
     <row r="126" spans="10:30" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="L126" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M126" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="41" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="R126">
         <v>115</v>

--- a/Docs/MapLab3D_doc.xlsx
+++ b/Docs/MapLab3D_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Projekte\MapLab3D\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5567EDA-422F-463C-A6C5-5E4676DC351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA4D0A-04B5-458C-8951-F95FCD8D942E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1845" windowWidth="37365" windowHeight="13425" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25740" yWindow="0" windowWidth="25950" windowHeight="20865" tabRatio="836" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GV" sheetId="8" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1296">
   <si>
     <t>osm</t>
   </si>
@@ -1291,9 +1291,6 @@
   </si>
   <si>
     <t>symbol_eqtags_text(ipoly,1)</t>
-  </si>
-  <si>
-    <t>source(ipoly,1)</t>
   </si>
   <si>
     <t>poly_text_bgd(ipoly,1)</t>
@@ -3944,6 +3941,51 @@
   </si>
   <si>
     <t>GV_H.fig_2dmap_cm</t>
+  </si>
+  <si>
+    <t>ud.source</t>
+  </si>
+  <si>
+    <t>Text and symbol source plot handles: size(ud.source,1)&lt;=2 (nodes and lines/areas)</t>
+  </si>
+  <si>
+    <t>The source plots are made visible, if the corresponding text or symbol is selected. This makes it easier to move the texts and symbols to the right place when editing the map.</t>
+  </si>
+  <si>
+    <t>ud.issource</t>
+  </si>
+  <si>
+    <t>The plot is a source plot (true/false).</t>
+  </si>
+  <si>
+    <t>source(isource,1)</t>
+  </si>
+  <si>
+    <t>isource(ipoly,1)</t>
+  </si>
+  <si>
+    <t>Indices of the source-data, same size as poly_text_bgd, …</t>
+  </si>
+  <si>
+    <t>Indices of the source-data, same size as poly_symb_bgd, …</t>
+  </si>
+  <si>
+    <t>Source-Data: Several texts can have the same source data.</t>
+  </si>
+  <si>
+    <t>Source-Data: Several symbols can have the same source data.</t>
+  </si>
+  <si>
+    <t>ud.save_project_i_k</t>
+  </si>
+  <si>
+    <t>Index i in MAP_OBJECTS(imapobj,1).h(i,1) or i and k in MAP_OBJECTS(imapobj,1).h(i,1).UserData.source(k,1).h. Only needed for saving and loading of the project.</t>
+  </si>
+  <si>
+    <t>ud.ismapobj</t>
+  </si>
+  <si>
+    <t>Axis children is a map object or source plot (true/false). Only needed for saving and loading of the project.</t>
   </si>
 </sst>
 </file>
@@ -10492,14 +10534,14 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10518,24 +10560,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B6" t="s">
         <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -10573,24 +10615,24 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10628,13 +10670,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B16" t="s">
         <v>1204</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10705,13 +10747,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -10730,24 +10772,24 @@
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10761,13 +10803,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B28" t="s">
         <v>319</v>
       </c>
       <c r="C28" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10794,24 +10836,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B31" t="s">
         <v>319</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B32" t="s">
         <v>319</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -11000,667 +11042,667 @@
         <v>319</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B53" t="s">
         <v>319</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B54" t="s">
         <v>319</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B55" t="s">
         <v>319</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B56" t="s">
         <v>319</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B57" t="s">
         <v>319</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B58" t="s">
         <v>319</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B59" t="s">
         <v>319</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B60" t="s">
         <v>319</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B61" t="s">
         <v>319</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B62" t="s">
         <v>319</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B63" t="s">
         <v>319</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B64" t="s">
         <v>319</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B65" t="s">
         <v>319</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>518</v>
+      </c>
+      <c r="B67" t="s">
         <v>519</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>613</v>
+      </c>
+      <c r="B68" t="s">
         <v>614</v>
       </c>
-      <c r="B68" t="s">
-        <v>615</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B69" t="s">
         <v>319</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B70" t="s">
         <v>319</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B71" t="s">
         <v>319</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B72" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B73" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B74" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B75" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B76" t="s">
         <v>1036</v>
       </c>
-      <c r="B76" t="s">
-        <v>1037</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B77" t="s">
         <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B78" t="s">
         <v>319</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s">
         <v>319</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B80" t="s">
         <v>319</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B81" t="s">
         <v>319</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B82" t="s">
         <v>319</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B83" t="s">
         <v>319</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B84" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B85" t="s">
         <v>81</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B86" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s">
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B89" t="s">
         <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B90" t="s">
         <v>319</v>
       </c>
       <c r="C90" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B91" t="s">
         <v>267</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B92" t="s">
         <v>319</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B93" t="s">
         <v>319</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B94" t="s">
         <v>319</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B95" t="s">
         <v>319</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B96" t="s">
         <v>319</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B97" t="s">
         <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B98" t="s">
         <v>319</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B99" t="s">
         <v>319</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B100" t="s">
         <v>319</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B101" t="s">
         <v>319</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s">
         <v>319</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B103" t="s">
         <v>319</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B104" t="s">
         <v>319</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B105" t="s">
         <v>319</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>729</v>
+      </c>
+      <c r="B106" t="s">
         <v>730</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B107" t="s">
         <v>86</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B108" t="s">
         <v>319</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B109" t="s">
         <v>319</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B110" t="s">
         <v>319</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B111" t="s">
         <v>267</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="B112" t="s">
         <v>267</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -11677,24 +11719,24 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="23" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C117" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C118" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -11707,26 +11749,26 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C120" t="s">
         <v>1029</v>
-      </c>
-      <c r="C120" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C121" t="s">
         <v>1170</v>
-      </c>
-      <c r="C121" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C122" t="s">
         <v>1172</v>
-      </c>
-      <c r="C122" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -11747,56 +11789,56 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B127" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B128" t="s">
         <v>81</v>
       </c>
       <c r="C128" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B129" t="s">
         <v>82</v>
       </c>
       <c r="C129" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B130" t="s">
         <v>86</v>
       </c>
       <c r="C130" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B131" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C131" t="s">
         <v>378</v>
@@ -11804,90 +11846,90 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B132" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B133" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C133" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B134" t="s">
         <v>163</v>
       </c>
       <c r="C134" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B135" t="s">
         <v>512</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>513</v>
-      </c>
-      <c r="C135" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B136" t="s">
         <v>319</v>
       </c>
       <c r="C136" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B137" t="s">
         <v>319</v>
       </c>
       <c r="C137" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B138" t="s">
         <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B139" t="s">
         <v>319</v>
       </c>
       <c r="C139" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
   </sheetData>
@@ -11917,7 +11959,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11925,7 +11967,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>172</v>
@@ -12011,13 +12053,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -12088,274 +12130,274 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" t="s">
         <v>482</v>
-      </c>
-      <c r="C18" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B19" t="s">
         <v>415</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>416</v>
-      </c>
-      <c r="C19" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B23" t="s">
         <v>319</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B24" t="s">
         <v>163</v>
       </c>
       <c r="C24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
         <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s">
         <v>163</v>
       </c>
       <c r="C26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B27" t="s">
         <v>163</v>
       </c>
       <c r="C27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B28" t="s">
         <v>163</v>
       </c>
       <c r="C28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B29" t="s">
         <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B30" t="s">
         <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B31" t="s">
         <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>459</v>
+      </c>
+      <c r="B32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C32" t="s">
         <v>460</v>
-      </c>
-      <c r="B32" t="s">
-        <v>462</v>
-      </c>
-      <c r="C32" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B33" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" t="s">
         <v>496</v>
-      </c>
-      <c r="C33" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>494</v>
+      </c>
+      <c r="B34" t="s">
         <v>495</v>
       </c>
-      <c r="B34" t="s">
-        <v>496</v>
-      </c>
       <c r="C34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B35" t="s">
+        <v>725</v>
+      </c>
+      <c r="C35" t="s">
         <v>726</v>
-      </c>
-      <c r="C35" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B36" t="s">
+        <v>725</v>
+      </c>
+      <c r="C36" t="s">
         <v>726</v>
-      </c>
-      <c r="C36" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>724</v>
+      </c>
+      <c r="B37" t="s">
         <v>725</v>
       </c>
-      <c r="B37" t="s">
-        <v>726</v>
-      </c>
       <c r="C37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C38" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B39" t="s">
         <v>1050</v>
       </c>
-      <c r="B39" t="s">
-        <v>1051</v>
-      </c>
       <c r="C39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C40" t="s">
         <v>1275</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="B41" t="s">
         <v>319</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -12366,10 +12408,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12380,7 +12422,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -12397,12 +12439,12 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -12471,7 +12513,7 @@
         <v>110</v>
       </c>
       <c r="G16" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
@@ -12479,20 +12521,20 @@
         <v>113</v>
       </c>
       <c r="G17" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G19" t="s">
         <v>1237</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="21" spans="4:7" x14ac:dyDescent="0.25">
@@ -12505,7 +12547,7 @@
         <v>238</v>
       </c>
       <c r="G22" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="23" spans="4:7" x14ac:dyDescent="0.25">
@@ -12543,23 +12585,23 @@
         <v>379</v>
       </c>
       <c r="G29" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G30" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G31" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="32" spans="4:7" x14ac:dyDescent="0.25">
@@ -12567,12 +12609,12 @@
         <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="34" spans="4:7" x14ac:dyDescent="0.25">
@@ -12601,23 +12643,23 @@
     </row>
     <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G37" t="s">
         <v>1234</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G38" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.25">
@@ -12668,15 +12710,15 @@
         <v>379</v>
       </c>
       <c r="G48" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G49" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -12684,7 +12726,7 @@
         <v>113</v>
       </c>
       <c r="G50" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="51" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12712,10 +12754,10 @@
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G53" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -12725,10 +12767,10 @@
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G54" t="s">
         <v>1244</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1245</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -12738,7 +12780,7 @@
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -12786,7 +12828,7 @@
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.25">
@@ -12796,268 +12838,295 @@
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>406</v>
+        <v>1287</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1289</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E66" t="s">
+      <c r="D66" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="23" t="s">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="23" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="E75" t="s">
+      <c r="D75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="37" t="s">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37" t="s">
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37" t="s">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>576</v>
+      </c>
+      <c r="G85" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>579</v>
+      </c>
+      <c r="G87" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
         <v>577</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G89" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G83" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
         <v>580</v>
       </c>
-      <c r="G84" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G85" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+      <c r="G91" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
         <v>578</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G93" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G87" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
         <v>581</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G95" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>579</v>
-      </c>
-      <c r="G90" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G91" t="s">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>582</v>
-      </c>
-      <c r="G92" t="s">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>250</v>
+      </c>
+      <c r="G97" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>255</v>
+      </c>
+      <c r="G98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>252</v>
+      </c>
+      <c r="G99" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G93" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
-        <v>250</v>
-      </c>
-      <c r="G94" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>255</v>
-      </c>
-      <c r="G95" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>252</v>
-      </c>
-      <c r="G96" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
         <v>256</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G100" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>236</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G101" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
         <v>337</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G102" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
         <v>338</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G103" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
         <v>339</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G104" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
         <v>340</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G105" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>369</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G106" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P6:P73">
-    <sortCondition ref="P6:P73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P6:P74">
+    <sortCondition ref="P6:P74"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
@@ -13069,10 +13138,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13084,7 +13153,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -13100,7 +13169,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -13108,7 +13177,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -13129,12 +13198,12 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -13179,41 +13248,41 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C20" t="s">
         <v>476</v>
-      </c>
-      <c r="C20" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -13231,15 +13300,15 @@
         <v>305</v>
       </c>
       <c r="C24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -13247,7 +13316,7 @@
         <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -13258,106 +13327,106 @@
         <v>308</v>
       </c>
       <c r="D27" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E35" s="38">
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E36" s="38">
         <v>200</v>
       </c>
       <c r="F36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E37" s="38">
         <v>300</v>
       </c>
       <c r="F37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E38" s="38">
         <v>400</v>
       </c>
       <c r="F38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -13373,457 +13442,494 @@
         <v>313</v>
       </c>
       <c r="C42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>351</v>
+        <v>1281</v>
       </c>
       <c r="C43" t="s">
-        <v>352</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>1225</v>
-      </c>
       <c r="C44" t="s">
-        <v>1226</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C45" s="22" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="F51" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
         <v>745</v>
       </c>
-      <c r="F46" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="F52" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>746</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F53" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>747</v>
       </c>
-      <c r="F48" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+      <c r="F54" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>748</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F55" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>749</v>
-      </c>
-      <c r="F50" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>309</v>
       </c>
-      <c r="C51" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>310</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>311</v>
-      </c>
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>310</v>
+      </c>
       <c r="C59" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>311</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>737</v>
+      </c>
+      <c r="C66" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>738</v>
-      </c>
-      <c r="C61" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>312</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C68" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>315</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C69" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>739</v>
+      </c>
+      <c r="C70" t="s">
         <v>740</v>
       </c>
-      <c r="C65" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
-      <c r="B67" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
-      <c r="B68" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
-      <c r="B69" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
-      <c r="B70" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1138</v>
-      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
-      <c r="B71" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1131</v>
+      <c r="A71" s="23" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C72" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
+      <c r="B73" t="s">
+        <v>1126</v>
+      </c>
       <c r="C73" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="23"/>
+      <c r="B74" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="23"/>
+      <c r="B75" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>1123</v>
-      </c>
       <c r="C75" t="s">
-        <v>1125</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>1174</v>
+      <c r="A76" s="23"/>
+      <c r="B76" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" t="s">
-        <v>1176</v>
+        <v>1131</v>
       </c>
       <c r="C77" t="s">
-        <v>1175</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
-      <c r="B78" t="s">
-        <v>1177</v>
+      <c r="C78" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
       <c r="B79" t="s">
-        <v>1178</v>
+        <v>1121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
       <c r="B80" t="s">
-        <v>1179</v>
+        <v>1122</v>
       </c>
       <c r="C80" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
-      <c r="B81" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="23"/>
       <c r="B85" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C85" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="23"/>
+      <c r="B86" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="23"/>
+      <c r="B87" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="23"/>
+      <c r="B88" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="23"/>
+      <c r="B89" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="23"/>
+      <c r="B90" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="C92" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
         <v>508</v>
       </c>
-      <c r="C87" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="C93" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>509</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C94" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
-        <v>510</v>
-      </c>
-      <c r="C89" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>738</v>
+      </c>
+      <c r="C95" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>739</v>
-      </c>
-      <c r="C90" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="C97" t="s">
         <v>759</v>
       </c>
-      <c r="C92" t="s">
+      <c r="E97" t="s">
         <v>760</v>
-      </c>
-      <c r="E92" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E93" t="s">
-        <v>762</v>
-      </c>
-      <c r="F93" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E94" t="s">
-        <v>764</v>
-      </c>
-      <c r="F94" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E95" t="s">
-        <v>765</v>
-      </c>
-      <c r="F95" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E96" t="s">
-        <v>767</v>
-      </c>
-      <c r="F96" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E97" t="s">
-        <v>769</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>770</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
+        <v>761</v>
+      </c>
+      <c r="F98" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>771</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="F99" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F100" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F101" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
+        <v>768</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>769</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>770</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>771</v>
+      </c>
+      <c r="F105" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>772</v>
+      </c>
+      <c r="F106" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>774</v>
+      </c>
+      <c r="F107" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>776</v>
+      </c>
+      <c r="C108" t="s">
         <v>775</v>
-      </c>
-      <c r="F102" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>777</v>
-      </c>
-      <c r="C103" t="s">
-        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -13859,7 +13965,7 @@
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="58" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -13879,7 +13985,7 @@
     </row>
     <row r="2" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G2" s="5"/>
       <c r="O2" s="5"/>
@@ -13888,7 +13994,7 @@
     </row>
     <row r="3" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G3" s="5"/>
       <c r="O3" s="5"/>
@@ -13910,7 +14016,7 @@
       <c r="F5" s="51"/>
       <c r="G5" s="52"/>
       <c r="I5" s="46" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J5" s="46"/>
       <c r="K5" s="46"/>
@@ -13994,7 +14100,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -14019,7 +14125,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -14151,7 +14257,7 @@
       <c r="O17" s="14"/>
       <c r="P17" s="12"/>
       <c r="S17" s="6" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -14329,7 +14435,7 @@
       <c r="O28" s="14"/>
       <c r="P28" s="12"/>
       <c r="S28" s="6" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -14379,7 +14485,7 @@
       <c r="O31" s="14"/>
       <c r="P31" s="12"/>
       <c r="S31" s="6" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14430,7 +14536,7 @@
       <c r="O34" s="14"/>
       <c r="P34" s="12"/>
       <c r="S34" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -14499,7 +14605,7 @@
     <row r="39" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="11" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -14517,7 +14623,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -14553,7 +14659,7 @@
       <c r="A42" s="9"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -14566,14 +14672,14 @@
       <c r="O42" s="14"/>
       <c r="P42" s="12"/>
       <c r="S42" s="56" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="43" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -14592,7 +14698,7 @@
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E44" s="11"/>
       <c r="G44" s="12"/>
@@ -14604,7 +14710,7 @@
       <c r="O44" s="14"/>
       <c r="P44" s="12"/>
       <c r="S44" s="56" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -14612,7 +14718,7 @@
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E45" s="11"/>
       <c r="G45" s="12"/>
@@ -14624,13 +14730,13 @@
       <c r="O45" s="14"/>
       <c r="P45" s="12"/>
       <c r="S45" s="56" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="46" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="11" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -14643,13 +14749,13 @@
       <c r="O46" s="14"/>
       <c r="P46" s="12"/>
       <c r="S46" s="56" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="47" spans="1:19" s="57" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -14662,14 +14768,14 @@
       <c r="O47" s="14"/>
       <c r="P47" s="12"/>
       <c r="S47" s="56" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="48" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -14682,7 +14788,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="12"/>
       <c r="S48" s="56" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14882,7 +14988,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="12"/>
       <c r="S59" s="56" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -14924,7 +15030,7 @@
       <c r="A62" s="9"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -14937,14 +15043,14 @@
       <c r="O62" s="14"/>
       <c r="P62" s="12"/>
       <c r="S62" s="56" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -14992,7 +15098,7 @@
       <c r="O65" s="14"/>
       <c r="P65" s="12"/>
       <c r="S65" s="56" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -15049,7 +15155,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -15093,7 +15199,7 @@
     <row r="71" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -15108,13 +15214,13 @@
       <c r="O71" s="14"/>
       <c r="P71" s="12"/>
       <c r="S71" s="56" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="72" spans="1:19" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -15129,7 +15235,7 @@
       <c r="O72" s="14"/>
       <c r="P72" s="12"/>
       <c r="S72" s="56" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -16179,7 +16285,7 @@
       <c r="O114" s="16"/>
       <c r="P114" s="13"/>
       <c r="S114" s="60" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
@@ -16252,7 +16358,7 @@
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -16295,7 +16401,7 @@
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -16657,7 +16763,7 @@
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
@@ -16678,7 +16784,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
@@ -16720,7 +16826,7 @@
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
       <c r="G140" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I140" s="17"/>
       <c r="J140" s="9"/>
@@ -16742,10 +16848,10 @@
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="43" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I141" s="17"/>
       <c r="J141" s="9"/>
@@ -16769,10 +16875,10 @@
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="43" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I142" s="17"/>
       <c r="J142" s="9"/>
@@ -16951,7 +17057,7 @@
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="27" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
@@ -17242,7 +17348,7 @@
     <row r="164" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9"/>
       <c r="B164" s="11" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="E164" s="9"/>
       <c r="G164" s="13"/>
@@ -17259,7 +17365,7 @@
     <row r="165" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9"/>
       <c r="B165" s="11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E165" s="9"/>
       <c r="G165" s="13"/>
@@ -17276,7 +17382,7 @@
     <row r="166" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9"/>
       <c r="B166" s="11" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="E166" s="9"/>
       <c r="G166" s="13"/>
@@ -17293,7 +17399,7 @@
     <row r="167" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9"/>
       <c r="B167" s="11" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="E167" s="9"/>
       <c r="G167" s="13"/>
@@ -17310,7 +17416,7 @@
     <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="9"/>
       <c r="B168" s="9" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
@@ -17330,7 +17436,7 @@
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
@@ -17416,10 +17522,10 @@
       </c>
       <c r="E173" s="9"/>
       <c r="F173" s="43" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I173" s="17"/>
       <c r="J173" s="9"/>
@@ -17446,7 +17552,7 @@
       </c>
       <c r="E174" s="9"/>
       <c r="F174" s="43" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G174" s="19" t="s">
         <v>53</v>
@@ -17471,7 +17577,7 @@
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
@@ -17533,10 +17639,10 @@
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="43" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I178" s="17"/>
       <c r="J178" s="9"/>
@@ -17560,10 +17666,10 @@
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="43" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G179" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I179" s="17"/>
       <c r="J179" s="9"/>
@@ -18064,7 +18170,7 @@
     <row r="202" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
       <c r="B202" s="11" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D202" s="9"/>
       <c r="E202" s="9"/>
@@ -18082,7 +18188,7 @@
     <row r="203" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
       <c r="B203" s="11" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9"/>
@@ -18100,7 +18206,7 @@
     <row r="204" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
       <c r="B204" s="11" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -18118,7 +18224,7 @@
     <row r="205" spans="1:19" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9"/>
       <c r="B205" s="11" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9"/>
@@ -18173,23 +18279,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -18234,7 +18340,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B11">
         <v>180</v>
@@ -18245,7 +18351,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12">
         <v>255</v>
@@ -18256,7 +18362,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -18348,7 +18454,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B24" s="36">
         <f>B25-14</f>
@@ -18361,7 +18467,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B25" s="39">
         <v>204</v>
@@ -18410,15 +18516,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B2" t="s">
         <v>1104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -19143,10 +19249,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="I1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -19154,7 +19260,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="J2">
         <v>6.0000000000000002E-6</v>
@@ -19162,48 +19268,48 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K3" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C4" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E4" t="s">
+        <v>705</v>
+      </c>
+      <c r="F4" t="s">
         <v>1098</v>
       </c>
-      <c r="C4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H4" t="s">
         <v>706</v>
       </c>
-      <c r="F4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>707</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="L4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -19231,10 +19337,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C8">
         <v>390</v>
@@ -19252,7 +19358,7 @@
         <v>1.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I8" s="2" t="str">
         <f>""</f>
@@ -19266,15 +19372,15 @@
         <v>2.5</v>
       </c>
       <c r="L8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C9">
         <v>770</v>
@@ -19292,7 +19398,7 @@
         <v>1.5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>""</f>
@@ -19305,10 +19411,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B10" t="s">
         <v>653</v>
-      </c>
-      <c r="B10" t="s">
-        <v>654</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -19326,7 +19432,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>""</f>
@@ -19339,10 +19445,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C11">
         <v>500</v>
@@ -19360,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>""</f>
@@ -19373,10 +19479,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C12">
         <v>500</v>
@@ -19394,7 +19500,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>""</f>
@@ -19407,10 +19513,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C13">
         <v>500</v>
@@ -19428,7 +19534,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>""</f>
@@ -19441,10 +19547,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B14" t="s">
         <v>635</v>
-      </c>
-      <c r="B14" t="s">
-        <v>636</v>
       </c>
       <c r="C14">
         <v>770</v>
@@ -19462,7 +19568,7 @@
         <v>1.5</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>""</f>
@@ -19475,10 +19581,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C15">
         <v>770</v>
@@ -19496,7 +19602,7 @@
         <v>3.5</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>""</f>
@@ -19509,10 +19615,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B16" t="s">
         <v>629</v>
-      </c>
-      <c r="B16" t="s">
-        <v>630</v>
       </c>
       <c r="C16">
         <v>570</v>
@@ -19530,7 +19636,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>""</f>
@@ -19543,10 +19649,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C17">
         <v>390</v>
@@ -19564,7 +19670,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>""</f>
@@ -19577,10 +19683,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C18">
         <v>390</v>
@@ -19598,7 +19704,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I18" s="2" t="str">
         <f>""</f>
@@ -19611,10 +19717,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C19">
         <v>390</v>
@@ -19632,7 +19738,7 @@
         <v>1.4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>""</f>
@@ -19645,10 +19751,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B20" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C20">
         <v>770</v>
@@ -19666,7 +19772,7 @@
         <v>1.5</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>""</f>
@@ -19679,10 +19785,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C21">
         <v>770</v>
@@ -19700,7 +19806,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>""</f>
@@ -19713,10 +19819,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C22">
         <v>570</v>
@@ -19734,7 +19840,7 @@
         <v>4.5</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I22" s="2" t="str">
         <f>""</f>
@@ -19747,10 +19853,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>625</v>
+      </c>
+      <c r="B23" t="s">
         <v>626</v>
-      </c>
-      <c r="B23" t="s">
-        <v>627</v>
       </c>
       <c r="C23">
         <v>390</v>
@@ -19768,7 +19874,7 @@
         <v>1.6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>""</f>
@@ -19781,10 +19887,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>690</v>
+      </c>
+      <c r="B24" t="s">
         <v>691</v>
-      </c>
-      <c r="B24" t="s">
-        <v>692</v>
       </c>
       <c r="C24">
         <v>290</v>
@@ -19802,7 +19908,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>""</f>
@@ -19815,10 +19921,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C25">
         <v>390</v>
@@ -19836,7 +19942,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>""</f>
@@ -19849,10 +19955,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" t="s">
         <v>688</v>
-      </c>
-      <c r="B26" t="s">
-        <v>689</v>
       </c>
       <c r="C26">
         <v>570</v>
@@ -19870,7 +19976,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>""</f>
@@ -19883,10 +19989,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B27" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C27">
         <v>770</v>
@@ -19904,7 +20010,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>""</f>
@@ -19917,10 +20023,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>695</v>
+      </c>
+      <c r="B28" t="s">
         <v>696</v>
-      </c>
-      <c r="B28" t="s">
-        <v>697</v>
       </c>
       <c r="C28">
         <v>750</v>
@@ -19938,7 +20044,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I28" s="2" t="str">
         <f>""</f>
@@ -19951,10 +20057,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B29" t="s">
         <v>679</v>
-      </c>
-      <c r="B29" t="s">
-        <v>680</v>
       </c>
       <c r="C29">
         <v>390</v>
@@ -19972,7 +20078,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I29" s="2" t="str">
         <f>""</f>
@@ -19985,10 +20091,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>637</v>
+      </c>
+      <c r="B30" t="s">
         <v>638</v>
-      </c>
-      <c r="B30" t="s">
-        <v>639</v>
       </c>
       <c r="C30">
         <v>290</v>
@@ -20006,7 +20112,7 @@
         <v>6.5</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I30" s="2" t="str">
         <f>""</f>
@@ -20019,10 +20125,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>670</v>
+      </c>
+      <c r="B31" t="s">
         <v>671</v>
-      </c>
-      <c r="B31" t="s">
-        <v>672</v>
       </c>
       <c r="C31">
         <v>770</v>
@@ -20040,7 +20146,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>""</f>
@@ -20053,10 +20159,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C32">
         <v>390</v>
@@ -20074,7 +20180,7 @@
         <v>3.5</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I32" s="2" t="str">
         <f>""</f>
@@ -20087,10 +20193,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B33" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C33">
         <v>770</v>
@@ -20108,7 +20214,7 @@
         <v>10</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I33" s="2" t="str">
         <f>""</f>
@@ -20121,10 +20227,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C34">
         <v>770</v>
@@ -20142,7 +20248,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>""</f>
@@ -20155,10 +20261,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C35">
         <v>770</v>
@@ -20176,7 +20282,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>""</f>
@@ -20189,10 +20295,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>659</v>
+      </c>
+      <c r="B36" t="s">
         <v>660</v>
-      </c>
-      <c r="B36" t="s">
-        <v>661</v>
       </c>
       <c r="C36">
         <v>390</v>
@@ -20210,7 +20316,7 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>""</f>
@@ -20224,15 +20330,15 @@
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>673</v>
+      </c>
+      <c r="B37" t="s">
         <v>674</v>
-      </c>
-      <c r="B37" t="s">
-        <v>675</v>
       </c>
       <c r="C37">
         <v>390</v>
@@ -20250,7 +20356,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I37" s="2" t="str">
         <f>""</f>
@@ -20263,10 +20369,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>631</v>
+      </c>
+      <c r="B38" t="s">
         <v>632</v>
-      </c>
-      <c r="B38" t="s">
-        <v>633</v>
       </c>
       <c r="C38">
         <v>290</v>
@@ -20284,7 +20390,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>""</f>
@@ -20297,10 +20403,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B39" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C39">
         <v>390</v>
@@ -20318,7 +20424,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>""</f>
@@ -20331,10 +20437,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C40">
         <v>570</v>
@@ -20352,7 +20458,7 @@
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I40" s="2" t="str">
         <f>""</f>
@@ -20365,10 +20471,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>615</v>
+      </c>
+      <c r="B41" t="s">
         <v>616</v>
-      </c>
-      <c r="B41" t="s">
-        <v>617</v>
       </c>
       <c r="C41">
         <v>770</v>
@@ -20386,7 +20492,7 @@
         <v>30</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>""</f>
@@ -20399,10 +20505,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C42">
         <v>770</v>
@@ -20420,7 +20526,7 @@
         <v>10</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>""</f>
@@ -20433,10 +20539,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>618</v>
+      </c>
+      <c r="B43" t="s">
         <v>619</v>
-      </c>
-      <c r="B43" t="s">
-        <v>620</v>
       </c>
       <c r="C43">
         <v>390</v>
@@ -20454,7 +20560,7 @@
         <v>30</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>""</f>
@@ -20541,45 +20647,45 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="J1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="J3" s="2"/>
       <c r="U3" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J4" t="s">
         <v>170</v>
       </c>
       <c r="K4" t="s">
+        <v>985</v>
+      </c>
+      <c r="L4" t="s">
         <v>986</v>
       </c>
-      <c r="L4" t="s">
-        <v>987</v>
-      </c>
       <c r="M4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="N4" t="s">
+        <v>983</v>
+      </c>
+      <c r="O4" t="s">
         <v>984</v>
-      </c>
-      <c r="O4" t="s">
-        <v>985</v>
       </c>
       <c r="R4" t="s">
         <v>170</v>
       </c>
       <c r="T4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="U4" t="s">
         <v>12</v>
@@ -20591,13 +20697,13 @@
         <v>12</v>
       </c>
       <c r="X4" t="s">
+        <v>988</v>
+      </c>
+      <c r="Y4" t="s">
         <v>989</v>
       </c>
-      <c r="Y4" t="s">
-        <v>990</v>
-      </c>
       <c r="AA4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -20605,16 +20711,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="X5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Y5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -20622,19 +20728,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="X6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Y6" t="s">
         <v>1093</v>
       </c>
-      <c r="Y6" t="s">
-        <v>1094</v>
-      </c>
       <c r="AA6" t="s">
+        <v>988</v>
+      </c>
+      <c r="AB6" t="s">
         <v>989</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -20642,28 +20748,28 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="Q7" t="s">
+        <v>993</v>
+      </c>
+      <c r="U7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="X7" t="s">
+        <v>993</v>
+      </c>
+      <c r="Y7" t="s">
         <v>994</v>
       </c>
-      <c r="U7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="AC7" t="s">
+        <v>993</v>
+      </c>
+      <c r="AD7" t="s">
         <v>994</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>995</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>994</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -20671,19 +20777,19 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="36" t="s">
+        <v>809</v>
+      </c>
+      <c r="L8" t="s">
         <v>810</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>811</v>
-      </c>
-      <c r="M8" t="s">
-        <v>812</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -20701,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="X8">
         <v>10</v>
@@ -20723,19 +20829,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
+        <v>812</v>
+      </c>
+      <c r="L9" t="s">
         <v>813</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>814</v>
-      </c>
-      <c r="M9" t="s">
-        <v>815</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -20753,16 +20859,16 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U9" t="s">
+        <v>990</v>
+      </c>
+      <c r="V9" t="s">
         <v>991</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>992</v>
-      </c>
-      <c r="W9" t="s">
-        <v>993</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -20790,19 +20896,19 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10" t="s">
+        <v>815</v>
+      </c>
+      <c r="L10" t="s">
         <v>816</v>
       </c>
-      <c r="L10" t="s">
-        <v>817</v>
-      </c>
       <c r="M10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -20820,16 +20926,16 @@
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U10" t="s">
+        <v>990</v>
+      </c>
+      <c r="V10" t="s">
         <v>991</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>992</v>
-      </c>
-      <c r="W10" t="s">
-        <v>993</v>
       </c>
       <c r="X10">
         <v>4</v>
@@ -20857,22 +20963,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" t="s">
         <v>711</v>
-      </c>
-      <c r="C11" t="s">
-        <v>712</v>
       </c>
       <c r="J11">
         <v>4</v>
       </c>
       <c r="K11" t="s">
+        <v>817</v>
+      </c>
+      <c r="L11" t="s">
         <v>818</v>
       </c>
-      <c r="L11" t="s">
-        <v>819</v>
-      </c>
       <c r="M11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -20890,13 +20996,13 @@
         <v>4</v>
       </c>
       <c r="T11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V11" t="s">
+        <v>991</v>
+      </c>
+      <c r="W11" t="s">
         <v>992</v>
-      </c>
-      <c r="W11" t="s">
-        <v>993</v>
       </c>
       <c r="X11">
         <v>8</v>
@@ -20924,22 +21030,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" t="s">
         <v>713</v>
-      </c>
-      <c r="C12" t="s">
-        <v>714</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12" t="s">
+        <v>819</v>
+      </c>
+      <c r="L12" t="s">
         <v>820</v>
       </c>
-      <c r="L12" t="s">
-        <v>821</v>
-      </c>
       <c r="M12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -20957,13 +21063,13 @@
         <v>5</v>
       </c>
       <c r="T12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V12" t="s">
+        <v>991</v>
+      </c>
+      <c r="W12" t="s">
         <v>992</v>
-      </c>
-      <c r="W12" t="s">
-        <v>993</v>
       </c>
       <c r="X12">
         <v>8</v>
@@ -20991,22 +21097,22 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C13" t="s">
         <v>715</v>
-      </c>
-      <c r="C13" t="s">
-        <v>716</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>821</v>
+      </c>
+      <c r="L13" t="s">
         <v>822</v>
       </c>
-      <c r="L13" t="s">
-        <v>823</v>
-      </c>
       <c r="M13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -21024,13 +21130,13 @@
         <v>6</v>
       </c>
       <c r="T13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V13" t="s">
+        <v>991</v>
+      </c>
+      <c r="W13" t="s">
         <v>992</v>
-      </c>
-      <c r="W13" t="s">
-        <v>993</v>
       </c>
       <c r="X13">
         <v>8</v>
@@ -21058,13 +21164,13 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
+        <v>823</v>
+      </c>
+      <c r="L14" t="s">
         <v>824</v>
       </c>
-      <c r="L14" t="s">
-        <v>825</v>
-      </c>
       <c r="M14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -21082,10 +21188,10 @@
         <v>7</v>
       </c>
       <c r="T14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="W14" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="X14">
         <v>13</v>
@@ -21113,13 +21219,13 @@
         <v>8</v>
       </c>
       <c r="K15" t="s">
+        <v>825</v>
+      </c>
+      <c r="L15" t="s">
         <v>826</v>
       </c>
-      <c r="L15" t="s">
-        <v>827</v>
-      </c>
       <c r="M15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -21147,19 +21253,19 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J16">
         <v>9</v>
       </c>
       <c r="K16" t="s">
+        <v>827</v>
+      </c>
+      <c r="L16" t="s">
         <v>828</v>
       </c>
-      <c r="L16" t="s">
-        <v>829</v>
-      </c>
       <c r="M16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -21177,10 +21283,10 @@
         <v>9</v>
       </c>
       <c r="T16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U16" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="X16">
         <v>8</v>
@@ -21199,19 +21305,19 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17" t="s">
+        <v>829</v>
+      </c>
+      <c r="L17" t="s">
         <v>830</v>
       </c>
-      <c r="L17" t="s">
-        <v>831</v>
-      </c>
       <c r="M17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -21239,19 +21345,19 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J18">
         <v>11</v>
       </c>
       <c r="K18" t="s">
+        <v>831</v>
+      </c>
+      <c r="L18" t="s">
         <v>832</v>
       </c>
-      <c r="L18" t="s">
-        <v>833</v>
-      </c>
       <c r="M18" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -21282,13 +21388,13 @@
         <v>12</v>
       </c>
       <c r="K19" t="s">
+        <v>833</v>
+      </c>
+      <c r="L19" t="s">
         <v>834</v>
       </c>
-      <c r="L19" t="s">
-        <v>835</v>
-      </c>
       <c r="M19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -21306,16 +21412,16 @@
         <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U19" t="s">
+        <v>997</v>
+      </c>
+      <c r="V19" t="s">
         <v>998</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>999</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1000</v>
       </c>
       <c r="X19">
         <v>5</v>
@@ -21340,19 +21446,19 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J20">
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="L20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -21364,7 +21470,7 @@
         <v>1</v>
       </c>
       <c r="Q20" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R20">
         <v>13</v>
@@ -21380,19 +21486,19 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J21">
         <v>14</v>
       </c>
       <c r="K21" t="s">
+        <v>836</v>
+      </c>
+      <c r="L21" t="s">
         <v>837</v>
       </c>
-      <c r="L21" t="s">
-        <v>838</v>
-      </c>
       <c r="M21" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -21423,37 +21529,37 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>782</v>
+      </c>
+      <c r="B22" t="s">
         <v>783</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>784</v>
       </c>
-      <c r="C22" t="s">
-        <v>785</v>
-      </c>
       <c r="D22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J22">
         <v>15</v>
       </c>
       <c r="K22" t="s">
+        <v>838</v>
+      </c>
+      <c r="L22" t="s">
         <v>839</v>
       </c>
-      <c r="L22" t="s">
-        <v>840</v>
-      </c>
       <c r="M22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -21481,31 +21587,31 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D23" t="s">
+        <v>787</v>
+      </c>
+      <c r="E23" t="s">
         <v>788</v>
       </c>
-      <c r="E23" t="s">
-        <v>789</v>
-      </c>
       <c r="F23" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G23" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J23">
         <v>16</v>
       </c>
       <c r="K23" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -21536,13 +21642,13 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -21573,13 +21679,13 @@
         <v>18</v>
       </c>
       <c r="K25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M25" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -21610,13 +21716,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M26" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -21647,13 +21753,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L27" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M27" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -21696,19 +21802,19 @@
         <v>500000000</v>
       </c>
       <c r="G28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J28">
         <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L28" t="s">
+        <v>813</v>
+      </c>
+      <c r="M28" t="s">
         <v>814</v>
-      </c>
-      <c r="M28" t="s">
-        <v>815</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -21754,13 +21860,13 @@
         <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L29" t="s">
+        <v>813</v>
+      </c>
+      <c r="M29" t="s">
         <v>814</v>
-      </c>
-      <c r="M29" t="s">
-        <v>815</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -21803,19 +21909,19 @@
         <v>150000000</v>
       </c>
       <c r="G30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J30">
         <v>23</v>
       </c>
       <c r="K30" t="s">
+        <v>846</v>
+      </c>
+      <c r="L30" t="s">
         <v>847</v>
       </c>
-      <c r="L30" t="s">
-        <v>848</v>
-      </c>
       <c r="M30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -21858,19 +21964,19 @@
         <v>70000000</v>
       </c>
       <c r="G31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J31">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M31" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -21888,10 +21994,10 @@
         <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U31" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -21925,13 +22031,13 @@
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="M32" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -21974,19 +22080,19 @@
         <v>15000000</v>
       </c>
       <c r="G33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J33">
         <v>26</v>
       </c>
       <c r="K33" t="s">
+        <v>850</v>
+      </c>
+      <c r="L33" t="s">
         <v>851</v>
       </c>
-      <c r="L33" t="s">
-        <v>852</v>
-      </c>
       <c r="M33" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -22004,10 +22110,10 @@
         <v>26</v>
       </c>
       <c r="T33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="U33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X33">
         <v>12</v>
@@ -22038,19 +22144,19 @@
         <v>10000000</v>
       </c>
       <c r="G34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J34">
         <v>27</v>
       </c>
       <c r="K34" t="s">
+        <v>852</v>
+      </c>
+      <c r="L34" t="s">
         <v>853</v>
       </c>
-      <c r="L34" t="s">
-        <v>854</v>
-      </c>
       <c r="M34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -22068,10 +22174,10 @@
         <v>27</v>
       </c>
       <c r="T34" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X34">
         <v>12</v>
@@ -22102,19 +22208,19 @@
         <v>4000000</v>
       </c>
       <c r="G35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J35">
         <v>28</v>
       </c>
       <c r="K35" t="s">
+        <v>854</v>
+      </c>
+      <c r="L35" t="s">
         <v>855</v>
       </c>
-      <c r="L35" t="s">
-        <v>856</v>
-      </c>
       <c r="M35" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -22160,13 +22266,13 @@
         <v>29</v>
       </c>
       <c r="K36" t="s">
+        <v>856</v>
+      </c>
+      <c r="L36" t="s">
         <v>857</v>
       </c>
-      <c r="L36" t="s">
-        <v>858</v>
-      </c>
       <c r="M36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -22184,10 +22290,10 @@
         <v>29</v>
       </c>
       <c r="T36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="U36" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X36">
         <v>12</v>
@@ -22218,19 +22324,19 @@
         <v>1000000</v>
       </c>
       <c r="G37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J37">
         <v>30</v>
       </c>
       <c r="K37" t="s">
+        <v>858</v>
+      </c>
+      <c r="L37" t="s">
         <v>859</v>
       </c>
-      <c r="L37" t="s">
-        <v>860</v>
-      </c>
       <c r="M37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -22248,10 +22354,10 @@
         <v>30</v>
       </c>
       <c r="T37" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U37" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X37">
         <v>12</v>
@@ -22282,19 +22388,19 @@
         <v>500000</v>
       </c>
       <c r="G38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J38">
         <v>31</v>
       </c>
       <c r="K38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -22312,10 +22418,10 @@
         <v>31</v>
       </c>
       <c r="T38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="U38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="X38">
         <v>12</v>
@@ -22346,19 +22452,19 @@
         <v>250000</v>
       </c>
       <c r="G39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J39">
         <v>32</v>
       </c>
       <c r="K39" t="s">
+        <v>861</v>
+      </c>
+      <c r="L39" t="s">
         <v>862</v>
       </c>
-      <c r="L39" t="s">
-        <v>863</v>
-      </c>
       <c r="M39" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -22401,19 +22507,19 @@
         <v>150000</v>
       </c>
       <c r="G40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J40">
         <v>33</v>
       </c>
       <c r="K40" t="s">
+        <v>863</v>
+      </c>
+      <c r="L40" t="s">
         <v>864</v>
       </c>
-      <c r="L40" t="s">
-        <v>865</v>
-      </c>
       <c r="M40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -22456,22 +22562,22 @@
         <v>70000</v>
       </c>
       <c r="G41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H41" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="J41">
         <v>34</v>
       </c>
       <c r="K41" t="s">
+        <v>865</v>
+      </c>
+      <c r="L41" t="s">
         <v>866</v>
       </c>
-      <c r="L41" t="s">
-        <v>867</v>
-      </c>
       <c r="M41" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -22514,19 +22620,19 @@
         <v>35000</v>
       </c>
       <c r="H42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="J42">
         <v>35</v>
       </c>
       <c r="K42" t="s">
+        <v>867</v>
+      </c>
+      <c r="L42" t="s">
         <v>868</v>
       </c>
-      <c r="L42" t="s">
-        <v>869</v>
-      </c>
       <c r="M42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -22569,22 +22675,22 @@
         <v>15000</v>
       </c>
       <c r="G43" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H43" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="J43">
         <v>36</v>
       </c>
       <c r="K43" t="s">
+        <v>869</v>
+      </c>
+      <c r="L43" t="s">
         <v>870</v>
       </c>
-      <c r="L43" t="s">
-        <v>871</v>
-      </c>
       <c r="M43" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -22627,22 +22733,22 @@
         <v>8000</v>
       </c>
       <c r="G44" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H44" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J44">
         <v>37</v>
       </c>
       <c r="K44" t="s">
+        <v>871</v>
+      </c>
+      <c r="L44" t="s">
         <v>872</v>
       </c>
-      <c r="L44" t="s">
-        <v>873</v>
-      </c>
       <c r="M44" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -22660,10 +22766,10 @@
         <v>37</v>
       </c>
       <c r="T44" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="U44" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="X44">
         <v>10</v>
@@ -22694,19 +22800,19 @@
         <v>4000</v>
       </c>
       <c r="G45" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J45">
         <v>38</v>
       </c>
       <c r="K45" t="s">
+        <v>873</v>
+      </c>
+      <c r="L45" t="s">
         <v>874</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>875</v>
-      </c>
-      <c r="M45" t="s">
-        <v>876</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -22724,16 +22830,16 @@
         <v>38</v>
       </c>
       <c r="T45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="U45" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V45" t="s">
         <v>1004</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>1005</v>
-      </c>
-      <c r="W45" t="s">
-        <v>1006</v>
       </c>
       <c r="X45">
         <v>14</v>
@@ -22764,19 +22870,19 @@
         <v>2000</v>
       </c>
       <c r="G46" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J46">
         <v>39</v>
       </c>
       <c r="K46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M46" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -22822,19 +22928,19 @@
         <v>1000</v>
       </c>
       <c r="G47" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J47">
         <v>40</v>
       </c>
       <c r="K47" t="s">
+        <v>877</v>
+      </c>
+      <c r="L47" t="s">
         <v>878</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>879</v>
-      </c>
-      <c r="M47" t="s">
-        <v>880</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -22880,19 +22986,19 @@
         <v>500</v>
       </c>
       <c r="G48" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J48">
         <v>41</v>
       </c>
       <c r="K48" t="s">
+        <v>880</v>
+      </c>
+      <c r="L48" t="s">
+        <v>878</v>
+      </c>
+      <c r="M48" t="s">
         <v>881</v>
-      </c>
-      <c r="L48" t="s">
-        <v>879</v>
-      </c>
-      <c r="M48" t="s">
-        <v>882</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -22926,13 +23032,13 @@
         <v>42</v>
       </c>
       <c r="K49" t="s">
+        <v>882</v>
+      </c>
+      <c r="L49" t="s">
+        <v>878</v>
+      </c>
+      <c r="M49" t="s">
         <v>883</v>
-      </c>
-      <c r="L49" t="s">
-        <v>879</v>
-      </c>
-      <c r="M49" t="s">
-        <v>884</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -22966,13 +23072,13 @@
         <v>43</v>
       </c>
       <c r="K50" t="s">
+        <v>884</v>
+      </c>
+      <c r="L50" t="s">
+        <v>878</v>
+      </c>
+      <c r="M50" t="s">
         <v>885</v>
-      </c>
-      <c r="L50" t="s">
-        <v>879</v>
-      </c>
-      <c r="M50" t="s">
-        <v>886</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -23003,13 +23109,13 @@
         <v>44</v>
       </c>
       <c r="K51" t="s">
+        <v>886</v>
+      </c>
+      <c r="L51" t="s">
         <v>887</v>
       </c>
-      <c r="L51" t="s">
-        <v>888</v>
-      </c>
       <c r="M51" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -23040,13 +23146,13 @@
         <v>45</v>
       </c>
       <c r="K52" t="s">
+        <v>888</v>
+      </c>
+      <c r="L52" t="s">
         <v>889</v>
       </c>
-      <c r="L52" t="s">
-        <v>890</v>
-      </c>
       <c r="M52" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -23077,13 +23183,13 @@
         <v>46</v>
       </c>
       <c r="K53" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="L53" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M53" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -23101,16 +23207,16 @@
         <v>46</v>
       </c>
       <c r="T53" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="U53" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V53" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W53" t="s">
         <v>1007</v>
-      </c>
-      <c r="W53" t="s">
-        <v>1008</v>
       </c>
       <c r="X53">
         <v>13</v>
@@ -23129,13 +23235,13 @@
         <v>47</v>
       </c>
       <c r="K54" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="L54" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M54" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -23153,16 +23259,16 @@
         <v>47</v>
       </c>
       <c r="T54" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="U54" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V54" t="s">
+        <v>1006</v>
+      </c>
+      <c r="W54" t="s">
         <v>1007</v>
-      </c>
-      <c r="W54" t="s">
-        <v>1008</v>
       </c>
       <c r="X54">
         <v>13</v>
@@ -23181,13 +23287,13 @@
         <v>48</v>
       </c>
       <c r="K55" t="s">
+        <v>890</v>
+      </c>
+      <c r="L55" t="s">
         <v>891</v>
       </c>
-      <c r="L55" t="s">
-        <v>892</v>
-      </c>
       <c r="M55" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -23218,13 +23324,13 @@
         <v>49</v>
       </c>
       <c r="K56" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L56" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M56" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -23255,13 +23361,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s">
+        <v>893</v>
+      </c>
+      <c r="L57" t="s">
         <v>894</v>
       </c>
-      <c r="L57" t="s">
-        <v>895</v>
-      </c>
       <c r="M57" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -23292,13 +23398,13 @@
         <v>51</v>
       </c>
       <c r="K58" t="s">
+        <v>895</v>
+      </c>
+      <c r="L58" t="s">
         <v>896</v>
       </c>
-      <c r="L58" t="s">
-        <v>897</v>
-      </c>
       <c r="M58" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -23329,13 +23435,13 @@
         <v>52</v>
       </c>
       <c r="K59" t="s">
+        <v>897</v>
+      </c>
+      <c r="L59" t="s">
         <v>898</v>
       </c>
-      <c r="L59" t="s">
-        <v>899</v>
-      </c>
       <c r="M59" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -23369,13 +23475,13 @@
         <v>53</v>
       </c>
       <c r="K60" t="s">
+        <v>899</v>
+      </c>
+      <c r="L60" t="s">
         <v>900</v>
       </c>
-      <c r="L60" t="s">
-        <v>901</v>
-      </c>
       <c r="M60" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -23409,13 +23515,13 @@
         <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L61" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M61" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -23449,13 +23555,13 @@
         <v>55</v>
       </c>
       <c r="K62" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="L62" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="M62" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -23489,13 +23595,13 @@
         <v>56</v>
       </c>
       <c r="K63" s="39" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L63" t="s">
+        <v>904</v>
+      </c>
+      <c r="M63" t="s">
         <v>905</v>
-      </c>
-      <c r="M63" t="s">
-        <v>906</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -23529,13 +23635,13 @@
         <v>57</v>
       </c>
       <c r="K64" s="39" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L64" t="s">
+        <v>904</v>
+      </c>
+      <c r="M64" t="s">
         <v>905</v>
-      </c>
-      <c r="M64" t="s">
-        <v>906</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -23569,13 +23675,13 @@
         <v>58</v>
       </c>
       <c r="K65" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="L65" t="s">
         <v>904</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>905</v>
-      </c>
-      <c r="M65" t="s">
-        <v>906</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -23609,13 +23715,13 @@
         <v>59</v>
       </c>
       <c r="K66" t="s">
+        <v>906</v>
+      </c>
+      <c r="L66" t="s">
         <v>907</v>
       </c>
-      <c r="L66" t="s">
-        <v>908</v>
-      </c>
       <c r="M66" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -23649,13 +23755,13 @@
         <v>60</v>
       </c>
       <c r="K67" t="s">
+        <v>908</v>
+      </c>
+      <c r="L67" t="s">
         <v>909</v>
       </c>
-      <c r="L67" t="s">
-        <v>910</v>
-      </c>
       <c r="M67" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -23689,13 +23795,13 @@
         <v>61</v>
       </c>
       <c r="K68" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L68" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M68" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -23729,13 +23835,13 @@
         <v>62</v>
       </c>
       <c r="K69" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L69" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M69" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -23747,7 +23853,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R69">
         <v>60</v>
@@ -23769,13 +23875,13 @@
         <v>63</v>
       </c>
       <c r="K70" t="s">
+        <v>911</v>
+      </c>
+      <c r="L70" t="s">
         <v>912</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>913</v>
-      </c>
-      <c r="M70" t="s">
-        <v>914</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -23809,13 +23915,13 @@
         <v>64</v>
       </c>
       <c r="K71" t="s">
+        <v>914</v>
+      </c>
+      <c r="L71" t="s">
         <v>915</v>
       </c>
-      <c r="L71" t="s">
-        <v>916</v>
-      </c>
       <c r="M71" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -23849,13 +23955,13 @@
         <v>65</v>
       </c>
       <c r="K72" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L72" t="s">
+        <v>874</v>
+      </c>
+      <c r="M72" t="s">
         <v>875</v>
-      </c>
-      <c r="M72" t="s">
-        <v>876</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -23867,7 +23973,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R72">
         <v>63</v>
@@ -23889,13 +23995,13 @@
         <v>66</v>
       </c>
       <c r="K73" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L73" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="M73" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -23907,7 +24013,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R73">
         <v>64</v>
@@ -23929,13 +24035,13 @@
         <v>67</v>
       </c>
       <c r="K74" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L74" t="s">
+        <v>878</v>
+      </c>
+      <c r="M74" t="s">
         <v>879</v>
-      </c>
-      <c r="M74" t="s">
-        <v>880</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -23947,7 +24053,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R74">
         <v>65</v>
@@ -23969,13 +24075,13 @@
         <v>68</v>
       </c>
       <c r="K75" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L75" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M75" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -23987,7 +24093,7 @@
         <v>1</v>
       </c>
       <c r="Q75" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R75">
         <v>66</v>
@@ -24006,13 +24112,13 @@
         <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L76" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M76" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -24024,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R76">
         <v>67</v>
@@ -24043,13 +24149,13 @@
         <v>70</v>
       </c>
       <c r="K77" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L77" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M77" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -24061,7 +24167,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R77">
         <v>68</v>
@@ -24080,13 +24186,13 @@
         <v>71</v>
       </c>
       <c r="K78" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="L78" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M78" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -24098,7 +24204,7 @@
         <v>1</v>
       </c>
       <c r="Q78" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R78">
         <v>69</v>
@@ -24117,13 +24223,13 @@
         <v>72</v>
       </c>
       <c r="K79" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="L79" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M79" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -24135,7 +24241,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R79">
         <v>70</v>
@@ -24154,13 +24260,13 @@
         <v>73</v>
       </c>
       <c r="K80" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L80" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M80" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -24172,7 +24278,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R80">
         <v>71</v>
@@ -24191,13 +24297,13 @@
         <v>74</v>
       </c>
       <c r="K81" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L81" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M81" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -24209,7 +24315,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R81">
         <v>72</v>
@@ -24228,13 +24334,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s">
+        <v>924</v>
+      </c>
+      <c r="L82" t="s">
+        <v>894</v>
+      </c>
+      <c r="M82" t="s">
         <v>925</v>
-      </c>
-      <c r="L82" t="s">
-        <v>895</v>
-      </c>
-      <c r="M82" t="s">
-        <v>926</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -24246,7 +24352,7 @@
         <v>1</v>
       </c>
       <c r="Q82" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R82">
         <v>73</v>
@@ -24265,13 +24371,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L83" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="M83" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -24283,7 +24389,7 @@
         <v>1</v>
       </c>
       <c r="Q83" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R83">
         <v>74</v>
@@ -24302,13 +24408,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L84" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="M84" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -24320,7 +24426,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R84">
         <v>75</v>
@@ -24339,13 +24445,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L85" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M85" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -24357,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="Q85" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R85">
         <v>76</v>
@@ -24376,13 +24482,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L86" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -24394,7 +24500,7 @@
         <v>1</v>
       </c>
       <c r="Q86" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R86">
         <v>77</v>
@@ -24413,7 +24519,7 @@
         <v>80</v>
       </c>
       <c r="K87" s="39" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -24425,7 +24531,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R87">
         <v>78</v>
@@ -24444,7 +24550,7 @@
         <v>81</v>
       </c>
       <c r="K88" s="39" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -24456,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R88">
         <v>78</v>
@@ -24475,13 +24581,13 @@
         <v>82</v>
       </c>
       <c r="K89" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L89" t="s">
+        <v>904</v>
+      </c>
+      <c r="M89" t="s">
         <v>905</v>
-      </c>
-      <c r="M89" t="s">
-        <v>906</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -24493,7 +24599,7 @@
         <v>1</v>
       </c>
       <c r="Q89" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R89">
         <v>78</v>
@@ -24512,13 +24618,13 @@
         <v>83</v>
       </c>
       <c r="K90" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L90" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M90" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -24530,7 +24636,7 @@
         <v>1</v>
       </c>
       <c r="Q90" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R90">
         <v>79</v>
@@ -24549,13 +24655,13 @@
         <v>84</v>
       </c>
       <c r="K91" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L91" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M91" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -24567,7 +24673,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R91">
         <v>79</v>
@@ -24586,13 +24692,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L92" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="M92" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -24604,7 +24710,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R92">
         <v>80</v>
@@ -24623,13 +24729,13 @@
         <v>86</v>
       </c>
       <c r="K93" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L93" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M93" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -24641,7 +24747,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R93">
         <v>81</v>
@@ -24660,13 +24766,13 @@
         <v>87</v>
       </c>
       <c r="K94" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L94" t="s">
+        <v>912</v>
+      </c>
+      <c r="M94" t="s">
         <v>913</v>
-      </c>
-      <c r="M94" t="s">
-        <v>914</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -24678,7 +24784,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R94">
         <v>82</v>
@@ -24697,13 +24803,13 @@
         <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L95" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M95" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -24715,7 +24821,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="41" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="R95">
         <v>83</v>
@@ -24734,13 +24840,13 @@
         <v>89</v>
       </c>
       <c r="K96" t="s">
+        <v>936</v>
+      </c>
+      <c r="L96" t="s">
         <v>937</v>
       </c>
-      <c r="L96" t="s">
-        <v>938</v>
-      </c>
       <c r="M96" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -24774,13 +24880,13 @@
         <v>90</v>
       </c>
       <c r="K97" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L97" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M97" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -24814,13 +24920,13 @@
         <v>91</v>
       </c>
       <c r="K98" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L98" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="M98" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -24832,7 +24938,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R98">
         <v>86</v>
@@ -24854,13 +24960,13 @@
         <v>92</v>
       </c>
       <c r="K99" t="s">
+        <v>940</v>
+      </c>
+      <c r="L99" t="s">
         <v>941</v>
       </c>
-      <c r="L99" t="s">
-        <v>942</v>
-      </c>
       <c r="M99" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -24894,13 +25000,13 @@
         <v>93</v>
       </c>
       <c r="K100" t="s">
+        <v>942</v>
+      </c>
+      <c r="L100" t="s">
         <v>943</v>
       </c>
-      <c r="L100" t="s">
-        <v>944</v>
-      </c>
       <c r="M100" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -24934,13 +25040,13 @@
         <v>94</v>
       </c>
       <c r="K101" t="s">
+        <v>944</v>
+      </c>
+      <c r="L101" t="s">
         <v>945</v>
       </c>
-      <c r="L101" t="s">
-        <v>946</v>
-      </c>
       <c r="M101" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -24974,13 +25080,13 @@
         <v>95</v>
       </c>
       <c r="K102" t="s">
+        <v>946</v>
+      </c>
+      <c r="L102" t="s">
         <v>947</v>
       </c>
-      <c r="L102" t="s">
-        <v>948</v>
-      </c>
       <c r="M102" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -25014,13 +25120,13 @@
         <v>96</v>
       </c>
       <c r="K103" t="s">
+        <v>948</v>
+      </c>
+      <c r="L103" t="s">
         <v>949</v>
       </c>
-      <c r="L103" t="s">
-        <v>950</v>
-      </c>
       <c r="M103" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -25054,13 +25160,13 @@
         <v>97</v>
       </c>
       <c r="K104" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="L104" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M104" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -25094,13 +25200,13 @@
         <v>98</v>
       </c>
       <c r="K105" t="s">
+        <v>950</v>
+      </c>
+      <c r="L105" t="s">
         <v>951</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>952</v>
-      </c>
-      <c r="M105" t="s">
-        <v>953</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -25134,13 +25240,13 @@
         <v>99</v>
       </c>
       <c r="K106" t="s">
+        <v>953</v>
+      </c>
+      <c r="L106" t="s">
         <v>954</v>
       </c>
-      <c r="L106" t="s">
-        <v>955</v>
-      </c>
       <c r="M106" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -25174,13 +25280,13 @@
         <v>100</v>
       </c>
       <c r="K107" t="s">
+        <v>955</v>
+      </c>
+      <c r="L107" t="s">
         <v>956</v>
       </c>
-      <c r="L107" t="s">
-        <v>957</v>
-      </c>
       <c r="M107" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -25214,13 +25320,13 @@
         <v>101</v>
       </c>
       <c r="K108" t="s">
+        <v>957</v>
+      </c>
+      <c r="L108" t="s">
         <v>958</v>
       </c>
-      <c r="L108" t="s">
-        <v>959</v>
-      </c>
       <c r="M108" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -25254,13 +25360,13 @@
         <v>102</v>
       </c>
       <c r="K109" t="s">
+        <v>959</v>
+      </c>
+      <c r="L109" t="s">
         <v>960</v>
       </c>
-      <c r="L109" t="s">
-        <v>961</v>
-      </c>
       <c r="M109" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -25294,13 +25400,13 @@
         <v>103</v>
       </c>
       <c r="K110" t="s">
+        <v>961</v>
+      </c>
+      <c r="L110" t="s">
         <v>962</v>
       </c>
-      <c r="L110" t="s">
-        <v>963</v>
-      </c>
       <c r="M110" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -25334,13 +25440,13 @@
         <v>104</v>
       </c>
       <c r="K111" t="s">
+        <v>963</v>
+      </c>
+      <c r="L111" t="s">
         <v>964</v>
       </c>
-      <c r="L111" t="s">
-        <v>965</v>
-      </c>
       <c r="M111" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -25374,13 +25480,13 @@
         <v>105</v>
       </c>
       <c r="K112" t="s">
+        <v>965</v>
+      </c>
+      <c r="L112" t="s">
         <v>966</v>
       </c>
-      <c r="L112" t="s">
-        <v>967</v>
-      </c>
       <c r="M112" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -25414,13 +25520,13 @@
         <v>106</v>
       </c>
       <c r="K113" t="s">
+        <v>967</v>
+      </c>
+      <c r="L113" t="s">
         <v>968</v>
       </c>
-      <c r="L113" t="s">
-        <v>969</v>
-      </c>
       <c r="M113" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -25454,13 +25560,13 @@
         <v>107</v>
       </c>
       <c r="K114" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="L114" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M114" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -25494,13 +25600,13 @@
         <v>108</v>
       </c>
       <c r="K115" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L115" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M115" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -25534,13 +25640,13 @@
         <v>109</v>
       </c>
       <c r="K116" t="s">
+        <v>969</v>
+      </c>
+      <c r="L116" t="s">
         <v>970</v>
       </c>
-      <c r="L116" t="s">
-        <v>971</v>
-      </c>
       <c r="M116" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -25574,13 +25680,13 @@
         <v>110</v>
       </c>
       <c r="K117" t="s">
+        <v>971</v>
+      </c>
+      <c r="L117" t="s">
         <v>972</v>
       </c>
-      <c r="L117" t="s">
-        <v>973</v>
-      </c>
       <c r="M117" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -25611,13 +25717,13 @@
         <v>111</v>
       </c>
       <c r="K118" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="L118" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M118" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -25648,13 +25754,13 @@
         <v>112</v>
       </c>
       <c r="K119" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="L119" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="M119" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -25685,13 +25791,13 @@
         <v>113</v>
       </c>
       <c r="K120" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L120" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="M120" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -25722,13 +25828,13 @@
         <v>114</v>
       </c>
       <c r="K121" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="L121" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M121" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -25751,13 +25857,13 @@
         <v>115</v>
       </c>
       <c r="K122" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="L122" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="M122" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -25780,13 +25886,13 @@
         <v>116</v>
       </c>
       <c r="K123" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="L123" t="s">
+        <v>813</v>
+      </c>
+      <c r="M123" t="s">
         <v>814</v>
-      </c>
-      <c r="M123" t="s">
-        <v>815</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -25809,13 +25915,13 @@
         <v>117</v>
       </c>
       <c r="K124" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L124" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M124" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -25838,13 +25944,13 @@
         <v>118</v>
       </c>
       <c r="K125" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L125" t="s">
+        <v>980</v>
+      </c>
+      <c r="M125" t="s">
         <v>981</v>
-      </c>
-      <c r="M125" t="s">
-        <v>982</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -25856,7 +25962,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R125">
         <v>113</v>
@@ -25864,13 +25970,13 @@
     </row>
     <row r="126" spans="10:30" x14ac:dyDescent="0.25">
       <c r="K126" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L126" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M126" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -25882,7 +25988,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="41" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="R126">
         <v>115</v>
